--- a/costData.xlsx
+++ b/costData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\가천대학교\2025-1학기\종합설계\자료1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\가천대학교\2025-1학기\종합설계\정크\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652295D7-B655-4BFC-91C1-D4354AC8E82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D305C9-BB5B-45BF-B76E-C0858592925D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7208 +378,7210 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A1440"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>123.58140826891069</v>
+        <v>1235.814082689107</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>123.28585642978111</v>
+        <v>1232.858564297811</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>122.99153670153834</v>
+        <v>1229.9153670153833</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>122.69850713771173</v>
+        <v>1226.9850713771173</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>122.40682579183061</v>
+        <v>1224.0682579183062</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>122.1165507174243</v>
+        <v>1221.165507174243</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>121.82773996802214</v>
+        <v>1218.2773996802214</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>121.54045159715339</v>
+        <v>1215.404515971534</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>121.25474365834752</v>
+        <v>1212.5474365834752</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>120.97067420513376</v>
+        <v>1209.7067420513376</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>120.68830129104145</v>
+        <v>1206.8830129104144</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>120.40768296959995</v>
+        <v>1204.0768296959995</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>120.12887729433852</v>
+        <v>1201.2887729433853</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>119.85194231878656</v>
+        <v>1198.5194231878656</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>119.57693609647332</v>
+        <v>1195.7693609647331</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>119.30391668092824</v>
+        <v>1193.0391668092825</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>119.03294212568052</v>
+        <v>1190.3294212568053</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>118.76407048425966</v>
+        <v>1187.6407048425967</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>118.49735981019479</v>
+        <v>1184.973598101948</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>118.23286815701545</v>
+        <v>1182.3286815701545</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>117.97065357825072</v>
+        <v>1179.7065357825072</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>117.71077412743014</v>
+        <v>1177.1077412743014</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>117.45328785808296</v>
+        <v>1174.5328785808297</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>117.1982528237385</v>
+        <v>1171.9825282373849</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>116.94572707792608</v>
+        <v>1169.4572707792609</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>116.69576867417508</v>
+        <v>1166.9576867417509</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>116.44843566601482</v>
+        <v>1164.4843566601483</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>116.20378610697455</v>
+        <v>1162.0378610697455</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>115.96187805058368</v>
+        <v>1159.6187805058369</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>115.7227695503715</v>
+        <v>1157.227695503715</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>115.4865186598674</v>
+        <v>1154.865186598674</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>115.25318343260064</v>
+        <v>1152.5318343260064</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>115.02282192210055</v>
+        <v>1150.2282192210055</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>114.79549218189649</v>
+        <v>1147.954921818965</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>114.57125226551777</v>
+        <v>1145.7125226551777</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>114.35016022649376</v>
+        <v>1143.5016022649374</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>114.13227411835375</v>
+        <v>1141.3227411835376</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>113.91765199462705</v>
+        <v>1139.1765199462704</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>113.70635190884299</v>
+        <v>1137.06351908843</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>113.49843191453094</v>
+        <v>1134.9843191453094</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>113.29395006522024</v>
+        <v>1132.9395006522025</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>113.0929644144402</v>
+        <v>1130.9296441444021</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>112.89553301572013</v>
+        <v>1128.9553301572014</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>112.70171392258932</v>
+        <v>1127.0171392258933</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>112.51156518857718</v>
+        <v>1125.1156518857717</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>112.32514486721298</v>
+        <v>1123.2514486721298</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>112.14251101202616</v>
+        <v>1121.4251101202617</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>111.96372167654586</v>
+        <v>1119.6372167654586</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>111.78883491430152</v>
+        <v>1117.8883491430151</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>111.61790877882252</v>
+        <v>1116.1790877882252</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>111.45100132363812</v>
+        <v>1114.5100132363812</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>111.28817060227763</v>
+        <v>1112.8817060227764</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>111.12947466827039</v>
+        <v>1111.2947466827038</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>110.97497157514579</v>
+        <v>1109.7497157514579</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>110.82471937643309</v>
+        <v>1108.2471937643309</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>110.67877612566168</v>
+        <v>1106.7877612566169</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>110.53719987636084</v>
+        <v>1105.3719987636084</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>110.40004868205989</v>
+        <v>1104.0004868205988</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>110.26738059628818</v>
+        <v>1102.6738059628817</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>110.13925367257507</v>
+        <v>1101.3925367257507</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>105.44430600700075</v>
+        <v>1054.4430600700075</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>105.33037492273014</v>
+        <v>1053.3037492273015</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>105.22096322802594</v>
+        <v>1052.2096322802595</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>105.11585419711872</v>
+        <v>1051.1585419711873</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>105.01292533840459</v>
+        <v>1050.1292533840458</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>104.91169153675843</v>
+        <v>1049.1169153675842</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>104.81212345252344</v>
+        <v>1048.1212345252343</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>104.71419174604296</v>
+        <v>1047.1419174604296</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>104.61786707766024</v>
+        <v>1046.1786707766023</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>104.52312010771848</v>
+        <v>1045.2312010771848</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>104.42992149656099</v>
+        <v>1044.29921496561</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>104.33824190453106</v>
+        <v>1043.3824190453106</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>104.24805199197186</v>
+        <v>1042.4805199197185</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>104.15932241922665</v>
+        <v>1041.5932241922665</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>104.07202384663884</v>
+        <v>1040.7202384663883</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>103.98612693455154</v>
+        <v>1039.8612693455154</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>103.90160234330803</v>
+        <v>1039.0160234330804</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>103.8184207332516</v>
+        <v>1038.1842073325161</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>103.73655276472554</v>
+        <v>1037.3655276472555</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>103.65596909807304</v>
+        <v>1036.5596909807305</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>103.57664039363748</v>
+        <v>1035.7664039363747</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>103.49853731176194</v>
+        <v>1034.9853731176195</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>103.4216305127898</v>
+        <v>1034.2163051278981</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>103.34589065706426</v>
+        <v>1033.4589065706425</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>103.2712884049287</v>
+        <v>1032.7128840492869</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>103.1977944167262</v>
+        <v>1031.977944167262</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>103.12537935280019</v>
+        <v>1031.253793528002</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>103.05401387349379</v>
+        <v>1030.540138734938</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>102.98366863915032</v>
+        <v>1029.8366863915032</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>102.91431431011308</v>
+        <v>1029.1431431011308</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>102.84592154672525</v>
+        <v>1028.4592154672525</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>102.77846100933019</v>
+        <v>1027.7846100933018</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>102.71190335827104</v>
+        <v>1027.1190335827105</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>102.64621925389116</v>
+        <v>1026.4621925389115</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>102.58137935653374</v>
+        <v>1025.8137935653374</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>102.51735432654203</v>
+        <v>1025.1735432654204</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>102.45411482425943</v>
+        <v>1024.5411482425943</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>102.39163151002901</v>
+        <v>1023.9163151002901</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>102.32987504419417</v>
+        <v>1023.2987504419417</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>102.26881608709812</v>
+        <v>1022.6881608709812</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>102.2084252990841</v>
+        <v>1022.0842529908409</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>102.14867334049535</v>
+        <v>1021.4867334049535</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A103">
-        <v>102.08953087167517</v>
+        <v>1020.8953087167516</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>102.03096855296688</v>
+        <v>1020.3096855296689</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A105">
-        <v>101.9729570447136</v>
+        <v>1019.729570447136</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A106">
-        <v>101.91546700725875</v>
+        <v>1019.1546700725876</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A107">
-        <v>101.85846910094543</v>
+        <v>1018.5846910094542</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A108">
-        <v>101.80193398611696</v>
+        <v>1018.0193398611697</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A109">
-        <v>101.7458323231167</v>
+        <v>1017.458323231167</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A110">
-        <v>101.69013477228773</v>
+        <v>1016.9013477228773</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>101.63481199397346</v>
+        <v>1016.3481199397346</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A112">
-        <v>101.57983464851706</v>
+        <v>1015.7983464851707</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>101.52517339626186</v>
+        <v>1015.2517339626186</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>101.47079889755106</v>
+        <v>1014.7079889755106</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>101.41668181272793</v>
+        <v>1014.1668181272793</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A116">
-        <v>101.36279280213576</v>
+        <v>1013.6279280213575</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A117">
-        <v>101.30910252611778</v>
+        <v>1013.0910252611778</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A118">
-        <v>101.25558164501723</v>
+        <v>1012.5558164501723</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A119">
-        <v>101.20220081917746</v>
+        <v>1012.0220081917746</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A120">
-        <v>101.14893070894163</v>
+        <v>1011.4893070894163</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A121">
-        <v>100.3539450454968</v>
+        <v>1003.539450454968</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A122">
-        <v>100.30119824165875</v>
+        <v>1003.0119824165876</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A123">
-        <v>100.24847396791631</v>
+        <v>1002.4847396791631</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A124">
-        <v>100.1957430998946</v>
+        <v>1001.9574309989459</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A125">
-        <v>100.14297651321851</v>
+        <v>1001.4297651321851</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A126">
-        <v>100.09014508351308</v>
+        <v>1000.9014508351308</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A127">
-        <v>100.03698683088894</v>
+        <v>1000.3698683088894</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A128">
-        <v>99.983141250436915</v>
+        <v>999.83141250436915</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A129">
-        <v>99.928653450224104</v>
+        <v>999.28653450224101</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A130">
-        <v>99.873574003552619</v>
+        <v>998.73574003552619</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A131">
-        <v>99.817953483724565</v>
+        <v>998.17953483724568</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A132">
-        <v>99.761842464042061</v>
+        <v>997.61842464042059</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A133">
-        <v>99.70529151780714</v>
+        <v>997.05291517807143</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A134">
-        <v>99.648351218321935</v>
+        <v>996.48351218321932</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A135">
-        <v>99.591072138888549</v>
+        <v>995.91072138888546</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A136">
-        <v>99.53350485280896</v>
+        <v>995.3350485280896</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A137">
-        <v>99.4756999333854</v>
+        <v>994.75699933385397</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A138">
-        <v>99.417707953919887</v>
+        <v>994.17707953919887</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A139">
-        <v>99.359579487714541</v>
+        <v>993.59579487714541</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A140">
-        <v>99.301365108071394</v>
+        <v>993.013651080714</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A141">
-        <v>99.243115388292651</v>
+        <v>992.43115388292654</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A142">
-        <v>99.184880901680287</v>
+        <v>991.84880901680287</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A143">
-        <v>99.126712221536465</v>
+        <v>991.26712221536468</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A144">
-        <v>99.068659921163217</v>
+        <v>990.68659921163214</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A145">
-        <v>99.01077457386269</v>
+        <v>990.10774573862693</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A146">
-        <v>98.953106752936975</v>
+        <v>989.53106752936969</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A147">
-        <v>98.895707031688076</v>
+        <v>988.95707031688073</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A148">
-        <v>98.83862598341814</v>
+        <v>988.38625983418137</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A149">
-        <v>98.781914181429357</v>
+        <v>987.81914181429352</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A150">
-        <v>98.725622199023647</v>
+        <v>987.25622199023644</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A151">
-        <v>98.669800609503241</v>
+        <v>986.69800609503238</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A152">
-        <v>98.614499986170117</v>
+        <v>986.14499986170119</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A153">
-        <v>98.55977090232642</v>
+        <v>985.5977090232642</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A154">
-        <v>98.505663931274285</v>
+        <v>985.05663931274285</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A155">
-        <v>98.452229646315658</v>
+        <v>984.52229646315664</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A156">
-        <v>98.399518620752829</v>
+        <v>983.99518620752826</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A157">
-        <v>98.347581427887718</v>
+        <v>983.47581427887712</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A158">
-        <v>98.2964686410225</v>
+        <v>982.964686410225</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A159">
-        <v>98.246230833459236</v>
+        <v>982.46230833459231</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A160">
-        <v>98.196918578500075</v>
+        <v>981.96918578500072</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A161">
-        <v>98.148582449447048</v>
+        <v>981.48582449447053</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A162">
-        <v>98.101273019602203</v>
+        <v>981.01273019602206</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A163">
-        <v>98.055040862267759</v>
+        <v>980.55040862267765</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A164">
-        <v>98.009936550745678</v>
+        <v>980.09936550745681</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A165">
-        <v>97.966010658338163</v>
+        <v>979.66010658338166</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A166">
-        <v>97.92331375834722</v>
+        <v>979.23313758347217</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A167">
-        <v>97.881896424074995</v>
+        <v>978.81896424074989</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A168">
-        <v>97.841809228823521</v>
+        <v>978.41809228823524</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A169">
-        <v>97.803102745894975</v>
+        <v>978.03102745894978</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A170">
-        <v>97.765827548591332</v>
+        <v>977.65827548591335</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A171">
-        <v>97.730034210214797</v>
+        <v>977.30034210214797</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A172">
-        <v>97.695773304067373</v>
+        <v>976.9577330406737</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A173">
-        <v>97.663095403451223</v>
+        <v>976.63095403451223</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A174">
-        <v>97.632051081668337</v>
+        <v>976.3205108166834</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A175">
-        <v>97.602690912020947</v>
+        <v>976.02690912020944</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A176">
-        <v>97.575065467810987</v>
+        <v>975.75065467810987</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A177">
-        <v>97.549225322340646</v>
+        <v>975.49225322340646</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A178">
-        <v>97.525221048912059</v>
+        <v>975.25221048912056</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A179">
-        <v>97.503103220827199</v>
+        <v>975.03103220827199</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A180">
-        <v>97.482922411388216</v>
+        <v>974.82922411388222</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A181">
-        <v>95.85812706439998</v>
+        <v>958.5812706439998</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A182">
-        <v>95.842238310968341</v>
+        <v>958.42238310968344</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A183">
-        <v>95.828403865461127</v>
+        <v>958.28403865461132</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A184">
-        <v>95.816673467533448</v>
+        <v>958.16673467533451</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A185">
-        <v>95.807096856840545</v>
+        <v>958.07096856840542</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A186">
-        <v>95.799723773037414</v>
+        <v>957.99723773037408</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A187">
-        <v>95.794603955779252</v>
+        <v>957.94603955779257</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A188">
-        <v>95.791787144721241</v>
+        <v>957.91787144721241</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A189">
-        <v>95.791261249891193</v>
+        <v>957.91261249891193</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A190">
-        <v>95.792107062299038</v>
+        <v>957.92107062299033</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A191">
-        <v>95.793990367731652</v>
+        <v>957.93990367731658</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A192">
-        <v>95.796894635147652</v>
+        <v>957.96894635147646</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A193">
-        <v>95.800803333505911</v>
+        <v>958.00803333505905</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A194">
-        <v>95.805699931765133</v>
+        <v>958.05699931765139</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A195">
-        <v>95.811567898884121</v>
+        <v>958.11567898884118</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A196">
-        <v>95.818390703821677</v>
+        <v>958.18390703821683</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A197">
-        <v>95.826151815536463</v>
+        <v>958.26151815536468</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A198">
-        <v>95.834834702987337</v>
+        <v>958.34834702987337</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A199">
-        <v>95.844422835133017</v>
+        <v>958.44422835133014</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A200">
-        <v>95.854899680932249</v>
+        <v>958.54899680932249</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A201">
-        <v>95.866248709343893</v>
+        <v>958.66248709343893</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A202">
-        <v>95.87845338932658</v>
+        <v>958.7845338932658</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A203">
-        <v>95.891497189839242</v>
+        <v>958.91497189839242</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A204">
-        <v>95.905363579840497</v>
+        <v>959.05363579840491</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A205">
-        <v>95.920036028289132</v>
+        <v>959.20036028289132</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A206">
-        <v>95.93549800414398</v>
+        <v>959.35498004143983</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A207">
-        <v>95.951732976363786</v>
+        <v>959.51732976363792</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A208">
-        <v>95.968724413907282</v>
+        <v>959.68724413907285</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A209">
-        <v>95.986455785733241</v>
+        <v>959.86455785733244</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A210">
-        <v>96.004910560800425</v>
+        <v>960.04910560800431</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A211">
-        <v>96.024072208067636</v>
+        <v>960.24072208067639</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A212">
-        <v>96.043924196493592</v>
+        <v>960.43924196493595</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A213">
-        <v>96.064449995037123</v>
+        <v>960.64449995037126</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A214">
-        <v>96.085633072656904</v>
+        <v>960.85633072656901</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A215">
-        <v>96.107456898311753</v>
+        <v>961.0745689831175</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A216">
-        <v>96.129904940960458</v>
+        <v>961.29904940960455</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A217">
-        <v>96.15296066956175</v>
+        <v>961.52960669561753</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A218">
-        <v>96.176607553074419</v>
+        <v>961.76607553074416</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A219">
-        <v>96.20082906045721</v>
+        <v>962.00829060457204</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A220">
-        <v>96.225608660668868</v>
+        <v>962.25608660668865</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A221">
-        <v>96.250929822668226</v>
+        <v>962.50929822668229</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A222">
-        <v>96.276776015413986</v>
+        <v>962.76776015413986</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A223">
-        <v>96.303130707864895</v>
+        <v>963.03130707864898</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A224">
-        <v>96.329977368979797</v>
+        <v>963.29977368979803</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A225">
-        <v>96.357299467717382</v>
+        <v>963.57299467717382</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A226">
-        <v>96.385080473036524</v>
+        <v>963.85080473036521</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A227">
-        <v>96.413303853895869</v>
+        <v>964.13303853895866</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A228">
-        <v>96.441953079254219</v>
+        <v>964.41953079254222</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A229">
-        <v>96.471011618070364</v>
+        <v>964.71011618070361</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A230">
-        <v>96.500462939303048</v>
+        <v>965.00462939303043</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A231">
-        <v>96.530290511911019</v>
+        <v>965.30290511911016</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A232">
-        <v>96.560477804853122</v>
+        <v>965.60477804853122</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A233">
-        <v>96.591008287087973</v>
+        <v>965.91008287087971</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A234">
-        <v>96.621865427574477</v>
+        <v>966.21865427574471</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A235">
-        <v>96.653032695271449</v>
+        <v>966.53032695271452</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A236">
-        <v>96.684493559137437</v>
+        <v>966.84493559137434</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A237">
-        <v>96.71623148813137</v>
+        <v>967.1623148813137</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A238">
-        <v>96.748229951211954</v>
+        <v>967.48229951211954</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A239">
-        <v>96.78047241733799</v>
+        <v>967.8047241733799</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A240">
-        <v>96.812942355468238</v>
+        <v>968.12942355468238</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A241">
-        <v>96.088084325714888</v>
+        <v>960.88084325714885</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A242">
-        <v>96.120702459994931</v>
+        <v>961.20702459994936</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A243">
-        <v>96.15349708176403</v>
+        <v>961.53497081764033</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A244">
-        <v>96.18645178928881</v>
+        <v>961.8645178928881</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A245">
-        <v>96.219550180835995</v>
+        <v>962.19550180835995</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A246">
-        <v>96.252775854672365</v>
+        <v>962.52775854672359</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A247">
-        <v>96.286112409064501</v>
+        <v>962.86112409064503</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A248">
-        <v>96.319543442279155</v>
+        <v>963.19543442279155</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A249">
-        <v>96.353052552583023</v>
+        <v>963.53052552583017</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A250">
-        <v>96.386623338242757</v>
+        <v>963.86623338242759</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A251">
-        <v>96.420239397525123</v>
+        <v>964.2023939752512</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A252">
-        <v>96.454323024655622</v>
+        <v>964.54323024655628</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A253">
-        <v>96.48996717301813</v>
+        <v>964.89967173018135</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A254">
-        <v>96.527203569793798</v>
+        <v>965.27203569793801</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A255">
-        <v>96.566009220136266</v>
+        <v>965.66009220136266</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A256">
-        <v>96.606361129198973</v>
+        <v>966.06361129198967</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A257">
-        <v>96.648236302135615</v>
+        <v>966.48236302135615</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A258">
-        <v>96.691611744099731</v>
+        <v>966.91611744099737</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A259">
-        <v>96.736464460244889</v>
+        <v>967.36464460244883</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A260">
-        <v>96.782771455724586</v>
+        <v>967.82771455724583</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A261">
-        <v>96.830509735692473</v>
+        <v>968.30509735692476</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A262">
-        <v>96.87965630530212</v>
+        <v>968.79656305302115</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A263">
-        <v>96.930188169707037</v>
+        <v>969.30188169707037</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A264">
-        <v>96.982082334060905</v>
+        <v>969.82082334060908</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A265">
-        <v>97.035315803517179</v>
+        <v>970.35315803517176</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A266">
-        <v>97.089865583229539</v>
+        <v>970.89865583229539</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A267">
-        <v>97.145708678351397</v>
+        <v>971.457086783514</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A268">
-        <v>97.202822094036478</v>
+        <v>972.0282209403648</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A269">
-        <v>97.261182835438319</v>
+        <v>972.61182835438319</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A270">
-        <v>97.320767907710461</v>
+        <v>973.20767907710456</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A271">
-        <v>97.381554316006429</v>
+        <v>973.81554316006429</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A272">
-        <v>97.443519065479919</v>
+        <v>974.43519065479916</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A273">
-        <v>97.506639161284383</v>
+        <v>975.06639161284386</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A274">
-        <v>97.570891608573419</v>
+        <v>975.70891608573424</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A275">
-        <v>97.636253412500707</v>
+        <v>976.36253412500707</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A276">
-        <v>97.702701578219646</v>
+        <v>977.02701578219649</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A277">
-        <v>97.770213110883901</v>
+        <v>977.70213110883901</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A278">
-        <v>97.83876501564707</v>
+        <v>978.38765015647073</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A279">
-        <v>97.908334297662648</v>
+        <v>979.08334297662645</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A280">
-        <v>97.978897962084233</v>
+        <v>979.78897962084238</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A281">
-        <v>98.050433014065476</v>
+        <v>980.5043301406547</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A282">
-        <v>98.122916458759804</v>
+        <v>981.22916458759801</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A283">
-        <v>98.196325301320854</v>
+        <v>981.96325301320849</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A284">
-        <v>98.270636546902267</v>
+        <v>982.70636546902267</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A285">
-        <v>98.345827200657538</v>
+        <v>983.45827200657538</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A286">
-        <v>98.421874267740179</v>
+        <v>984.21874267740179</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A287">
-        <v>98.498754753303899</v>
+        <v>984.98754753303899</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A288">
-        <v>98.576445662502181</v>
+        <v>985.76445662502181</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A289">
-        <v>98.65492400048862</v>
+        <v>986.5492400048862</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A290">
-        <v>98.734166772416813</v>
+        <v>987.34166772416813</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A291">
-        <v>98.814150983440257</v>
+        <v>988.14150983440254</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A292">
-        <v>98.894853638712604</v>
+        <v>988.94853638712607</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A293">
-        <v>98.97625174338738</v>
+        <v>989.76251743387377</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A294">
-        <v>99.058322302618137</v>
+        <v>990.58322302618137</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A295">
-        <v>99.141042321558487</v>
+        <v>991.41042321558484</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A296">
-        <v>99.224388805361997</v>
+        <v>992.24388805361991</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A297">
-        <v>99.308338759182234</v>
+        <v>993.08338759182232</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A298">
-        <v>99.392869188172739</v>
+        <v>993.92869188172745</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A299">
-        <v>99.477957097487106</v>
+        <v>994.77957097487104</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A300">
-        <v>99.563579492278919</v>
+        <v>995.63579492278916</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A301">
-        <v>98.883480912299632</v>
+        <v>988.83480912299638</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A302">
-        <v>98.969437231574091</v>
+        <v>989.69437231574091</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A303">
-        <v>99.055855472429343</v>
+        <v>990.55855472429346</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A304">
-        <v>99.142712816832301</v>
+        <v>991.42712816832295</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A305">
-        <v>99.229986446749862</v>
+        <v>992.29986446749865</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A306">
-        <v>99.317653544149024</v>
+        <v>993.17653544149027</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A307">
-        <v>99.4056912909966</v>
+        <v>994.05691290996606</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A308">
-        <v>99.494076869259487</v>
+        <v>994.94076869259493</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A309">
-        <v>99.582787460904598</v>
+        <v>995.82787460904592</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A310">
-        <v>99.67180024789883</v>
+        <v>996.7180024789883</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A311">
-        <v>99.761092412209209</v>
+        <v>997.61092412209211</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A312">
-        <v>99.850641135802448</v>
+        <v>998.50641135802448</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A313">
-        <v>99.940423600645559</v>
+        <v>999.40423600645556</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A314">
-        <v>100.03044070763724</v>
+        <v>1000.3044070763724</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A315">
-        <v>100.12167875204646</v>
+        <v>1001.2167875204647</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A316">
-        <v>100.21464843917633</v>
+        <v>1002.1464843917634</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A317">
-        <v>100.30932510609901</v>
+        <v>1003.09325106099</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A318">
-        <v>100.40568408988656</v>
+        <v>1004.0568408988656</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A319">
-        <v>100.5037007276112</v>
+        <v>1005.037007276112</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A320">
-        <v>100.60335035634509</v>
+        <v>1006.0335035634509</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A321">
-        <v>100.70460831316032</v>
+        <v>1007.0460831316032</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A322">
-        <v>100.80744993512904</v>
+        <v>1008.0744993512905</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A323">
-        <v>100.91185055932338</v>
+        <v>1009.1185055932339</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A324">
-        <v>101.01778552281559</v>
+        <v>1010.1778552281559</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A325">
-        <v>101.12523016267758</v>
+        <v>1011.2523016267758</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A326">
-        <v>101.2341598159818</v>
+        <v>1012.341598159818</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A327">
-        <v>101.34454981980018</v>
+        <v>1013.4454981980018</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A328">
-        <v>101.45637551120484</v>
+        <v>1014.5637551120484</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A329">
-        <v>101.56961222726814</v>
+        <v>1015.6961222726814</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A330">
-        <v>101.68423530506196</v>
+        <v>1016.8423530506196</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A331">
-        <v>101.80022008165867</v>
+        <v>1018.0022008165867</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A332">
-        <v>101.91754189413024</v>
+        <v>1019.1754189413024</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A333">
-        <v>102.03617607954888</v>
+        <v>1020.3617607954889</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A334">
-        <v>102.15609797498682</v>
+        <v>1021.5609797498682</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A335">
-        <v>102.27728291751606</v>
+        <v>1022.7728291751606</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A336">
-        <v>102.39970624420879</v>
+        <v>1023.9970624420879</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A337">
-        <v>102.52334329213716</v>
+        <v>1025.2334329213716</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A338">
-        <v>102.64816939837333</v>
+        <v>1026.4816939837333</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A339">
-        <v>102.7741598999895</v>
+        <v>1027.7415989998949</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A340">
-        <v>102.9012901340577</v>
+        <v>1029.0129013405769</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A341">
-        <v>103.0295354376501</v>
+        <v>1030.2953543765009</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A342">
-        <v>103.15887114783881</v>
+        <v>1031.5887114783882</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A343">
-        <v>103.28927260169615</v>
+        <v>1032.8927260169617</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A344">
-        <v>103.42071513629406</v>
+        <v>1034.2071513629407</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A345">
-        <v>103.55317408870476</v>
+        <v>1035.5317408870476</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A346">
-        <v>103.68662479600037</v>
+        <v>1036.8662479600036</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A347">
-        <v>103.8210425952531</v>
+        <v>1038.2104259525311</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A348">
-        <v>103.95640282353504</v>
+        <v>1039.5640282353504</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A349">
-        <v>104.09268081791832</v>
+        <v>1040.9268081791831</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A350">
-        <v>104.22985191547518</v>
+        <v>1042.2985191547518</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A351">
-        <v>104.36789145327762</v>
+        <v>1043.6789145327762</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A352">
-        <v>104.50677476839788</v>
+        <v>1045.0677476839787</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A353">
-        <v>104.64647719790801</v>
+        <v>1046.4647719790801</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A354">
-        <v>104.78697407888029</v>
+        <v>1047.869740788803</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A355">
-        <v>104.92824074838678</v>
+        <v>1049.2824074838679</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A356">
-        <v>105.07025254349958</v>
+        <v>1050.7025254349958</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A357">
-        <v>105.21298480129099</v>
+        <v>1052.1298480129099</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A358">
-        <v>105.35641285883293</v>
+        <v>1053.5641285883294</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A359">
-        <v>105.50051205319777</v>
+        <v>1055.0051205319776</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A360">
-        <v>105.6452577214575</v>
+        <v>1056.4525772145751</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A361">
-        <v>105.38256381115121</v>
+        <v>1053.825638111512</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A362">
-        <v>105.52796541566819</v>
+        <v>1055.279654156682</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A363">
-        <v>105.67393729707564</v>
+        <v>1056.7393729707564</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A364">
-        <v>105.82045488757686</v>
+        <v>1058.2045488757685</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A365">
-        <v>105.96749361937518</v>
+        <v>1059.6749361937518</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A366">
-        <v>106.11502892467405</v>
+        <v>1061.1502892467406</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A367">
-        <v>106.26303623567669</v>
+        <v>1062.6303623567669</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A368">
-        <v>106.41149098458648</v>
+        <v>1064.1149098458648</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A369">
-        <v>106.56036860360676</v>
+        <v>1065.6036860360675</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A370">
-        <v>106.70964452494091</v>
+        <v>1067.096445249409</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A371">
-        <v>106.85929418079222</v>
+        <v>1068.5929418079222</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A372">
-        <v>107.00929300336398</v>
+        <v>1070.0929300336397</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A373">
-        <v>107.15961642485965</v>
+        <v>1071.5961642485966</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A374">
-        <v>107.3102398774824</v>
+        <v>1073.102398774824</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A375">
-        <v>107.46113879343577</v>
+        <v>1074.6113879343577</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A376">
-        <v>107.61228860492292</v>
+        <v>1076.1228860492292</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A377">
-        <v>107.76398793153169</v>
+        <v>1077.6398793153169</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A378">
-        <v>107.91749154347526</v>
+        <v>1079.1749154347526</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A379">
-        <v>108.07288931049499</v>
+        <v>1080.7288931049497</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A380">
-        <v>108.23013703936091</v>
+        <v>1082.3013703936092</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A381">
-        <v>108.38919053684297</v>
+        <v>1083.8919053684297</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A382">
-        <v>108.55000560971131</v>
+        <v>1085.500056097113</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A383">
-        <v>108.71253806473572</v>
+        <v>1087.1253806473574</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A384">
-        <v>108.87674370868638</v>
+        <v>1088.7674370868638</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A385">
-        <v>109.04257834833312</v>
+        <v>1090.4257834833313</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A386">
-        <v>109.20999779044602</v>
+        <v>1092.0999779044603</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A387">
-        <v>109.3789578417951</v>
+        <v>1093.7895784179509</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A388">
-        <v>109.54941430915032</v>
+        <v>1095.4941430915032</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A389">
-        <v>109.72132299928164</v>
+        <v>1097.2132299928164</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A390">
-        <v>109.89463971895908</v>
+        <v>1098.9463971895909</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A391">
-        <v>110.06932027495266</v>
+        <v>1100.6932027495266</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A392">
-        <v>110.24532047403234</v>
+        <v>1102.4532047403234</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A393">
-        <v>110.42259612296814</v>
+        <v>1104.2259612296814</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A394">
-        <v>110.60110302853002</v>
+        <v>1106.0110302853002</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A395">
-        <v>110.78079699748807</v>
+        <v>1107.8079699748807</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A396">
-        <v>110.96163383661211</v>
+        <v>1109.616338366121</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A397">
-        <v>111.14356935267229</v>
+        <v>1111.4356935267228</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A398">
-        <v>111.32655935243849</v>
+        <v>1113.2655935243849</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A399">
-        <v>111.51055964268079</v>
+        <v>1115.105596426808</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A400">
-        <v>111.69552603016915</v>
+        <v>1116.9552603016914</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A401">
-        <v>111.88141432167353</v>
+        <v>1118.8141432167354</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A402">
-        <v>112.068180323964</v>
+        <v>1120.68180323964</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A403">
-        <v>112.25577984381053</v>
+        <v>1122.5577984381052</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A404">
-        <v>112.44416868798305</v>
+        <v>1124.4416868798305</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A405">
-        <v>112.63330266325164</v>
+        <v>1126.3330266325165</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A406">
-        <v>112.82313757638624</v>
+        <v>1128.2313757638624</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A407">
-        <v>113.01362923415682</v>
+        <v>1130.1362923415682</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A408">
-        <v>113.20473344333345</v>
+        <v>1132.0473344333345</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A409">
-        <v>113.39640601068612</v>
+        <v>1133.9640601068613</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A410">
-        <v>113.58860274298469</v>
+        <v>1135.886027429847</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A411">
-        <v>113.78127944699933</v>
+        <v>1137.8127944699934</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A412">
-        <v>113.97439192949994</v>
+        <v>1139.7439192949994</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A413">
-        <v>114.16789599725652</v>
+        <v>1141.6789599725653</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A414">
-        <v>114.36174745703904</v>
+        <v>1143.6174745703904</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A415">
-        <v>114.55590211561757</v>
+        <v>1145.5590211561757</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A416">
-        <v>114.75031577976203</v>
+        <v>1147.5031577976204</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A417">
-        <v>114.94494425624251</v>
+        <v>1149.449442562425</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A418">
-        <v>115.13974335182886</v>
+        <v>1151.3974335182886</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A419">
-        <v>115.33466887329121</v>
+        <v>1153.3466887329121</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A420">
-        <v>115.52967662739943</v>
+        <v>1155.2967662739943</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A421">
-        <v>116.13093593372149</v>
+        <v>1161.3093593372148</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A422">
-        <v>116.32666019583138</v>
+        <v>1163.2666019583139</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A423">
-        <v>116.52233393417052</v>
+        <v>1165.2233393417052</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A424">
-        <v>116.71791280038306</v>
+        <v>1167.1791280038306</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A425">
-        <v>116.91335244611321</v>
+        <v>1169.1335244611321</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A426">
-        <v>117.10860852300527</v>
+        <v>1171.0860852300527</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A427">
-        <v>117.3036366827034</v>
+        <v>1173.036366827034</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A428">
-        <v>117.4983925768518</v>
+        <v>1174.983925768518</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A429">
-        <v>117.69283185709476</v>
+        <v>1176.9283185709476</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A430">
-        <v>117.88691017507644</v>
+        <v>1178.8691017507645</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A431">
-        <v>118.08058318244106</v>
+        <v>1180.8058318244107</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A432">
-        <v>118.2738065308329</v>
+        <v>1182.7380653083289</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A433">
-        <v>118.46653587189607</v>
+        <v>1184.6653587189608</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A434">
-        <v>118.65872685727487</v>
+        <v>1186.5872685727486</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A435">
-        <v>118.85033513861352</v>
+        <v>1188.5033513861351</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A436">
-        <v>119.04131636755626</v>
+        <v>1190.4131636755626</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A437">
-        <v>119.2316261957472</v>
+        <v>1192.3162619574719</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A438">
-        <v>119.42122027483069</v>
+        <v>1194.2122027483069</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A439">
-        <v>119.61005653970022</v>
+        <v>1196.1005653970024</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A440">
-        <v>119.79939406130221</v>
+        <v>1197.993940613022</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A441">
-        <v>119.9902707815331</v>
+        <v>1199.902707815331</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A442">
-        <v>120.18261544682832</v>
+        <v>1201.8261544682832</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A443">
-        <v>120.3763568036232</v>
+        <v>1203.7635680362318</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A444">
-        <v>120.57142359835308</v>
+        <v>1205.7142359835307</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A445">
-        <v>120.76774457745341</v>
+        <v>1207.6774457745341</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A446">
-        <v>120.96524848735955</v>
+        <v>1209.6524848735955</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A447">
-        <v>121.16386407450685</v>
+        <v>1211.6386407450684</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A448">
-        <v>121.36352008533059</v>
+        <v>1213.6352008533058</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A449">
-        <v>121.56414526626637</v>
+        <v>1215.6414526626636</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A450">
-        <v>121.76566836374928</v>
+        <v>1217.6566836374927</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A451">
-        <v>121.96801812421486</v>
+        <v>1219.6801812421486</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A452">
-        <v>122.17112329409849</v>
+        <v>1221.7112329409849</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A453">
-        <v>122.37491261983548</v>
+        <v>1223.7491261983548</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A454">
-        <v>122.57931484786117</v>
+        <v>1225.7931484786118</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A455">
-        <v>122.78425872461101</v>
+        <v>1227.84258724611</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A456">
-        <v>122.98967299652035</v>
+        <v>1229.8967299652036</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A457">
-        <v>123.19548641002446</v>
+        <v>1231.9548641002445</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A458">
-        <v>123.40162771155882</v>
+        <v>1234.0162771155881</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A459">
-        <v>123.60802564755883</v>
+        <v>1236.0802564755884</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A460">
-        <v>123.81460896445974</v>
+        <v>1238.1460896445974</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A461">
-        <v>124.02130640869704</v>
+        <v>1240.2130640869705</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A462">
-        <v>124.22804672670601</v>
+        <v>1242.2804672670602</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A463">
-        <v>124.43475866492209</v>
+        <v>1244.3475866492208</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A464">
-        <v>124.6413709697805</v>
+        <v>1246.413709697805</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A465">
-        <v>124.84781238771686</v>
+        <v>1248.4781238771686</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A466">
-        <v>125.05401166516631</v>
+        <v>1250.5401166516631</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A467">
-        <v>125.25989754856435</v>
+        <v>1252.5989754856435</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A468">
-        <v>125.46539878434631</v>
+        <v>1254.653987843463</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A469">
-        <v>125.67044411894754</v>
+        <v>1256.7044411894753</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A470">
-        <v>125.8749622988034</v>
+        <v>1258.7496229880339</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A471">
-        <v>126.07888207034934</v>
+        <v>1260.7888207034935</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A472">
-        <v>126.28213218002071</v>
+        <v>1262.821321800207</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A473">
-        <v>126.48464137425276</v>
+        <v>1264.8464137425276</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A474">
-        <v>126.68633839948099</v>
+        <v>1266.86338399481</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A475">
-        <v>126.8871520021407</v>
+        <v>1268.8715200214069</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A476">
-        <v>127.08701092866731</v>
+        <v>1270.8701092866731</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A477">
-        <v>127.28584392549624</v>
+        <v>1272.8584392549624</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A478">
-        <v>127.48357973906275</v>
+        <v>1274.8357973906275</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A479">
-        <v>127.68014711580221</v>
+        <v>1276.8014711580222</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A480">
-        <v>127.87547480215002</v>
+        <v>1278.7547480215003</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A481">
-        <v>129.19220818813068</v>
+        <v>1291.9220818813069</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A482">
-        <v>129.386531456889</v>
+        <v>1293.86531456889</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A483">
-        <v>129.57938853293462</v>
+        <v>1295.7938853293463</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A484">
-        <v>129.77070753806089</v>
+        <v>1297.7070753806088</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A485">
-        <v>129.96041659406148</v>
+        <v>1299.6041659406148</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A486">
-        <v>130.1484438227298</v>
+        <v>1301.4844382272981</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A487">
-        <v>130.33471734585947</v>
+        <v>1303.3471734585946</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A488">
-        <v>130.5191652852441</v>
+        <v>1305.1916528524409</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A489">
-        <v>130.701715762677</v>
+        <v>1307.0171576267699</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A490">
-        <v>130.88229689995183</v>
+        <v>1308.8229689995183</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A491">
-        <v>131.06083681886213</v>
+        <v>1310.6083681886212</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A492">
-        <v>131.23726364120142</v>
+        <v>1312.3726364120143</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A493">
-        <v>131.41150548876317</v>
+        <v>1314.1150548876317</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A494">
-        <v>131.583490483341</v>
+        <v>1315.8349048334098</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A495">
-        <v>131.75314674672833</v>
+        <v>1317.5314674672834</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A496">
-        <v>131.92040240071879</v>
+        <v>1319.2040240071879</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A497">
-        <v>132.08518556710584</v>
+        <v>1320.8518556710583</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A498">
-        <v>132.24742436768304</v>
+        <v>1322.4742436768304</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A499">
-        <v>132.4070469242439</v>
+        <v>1324.070469242439</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A500">
-        <v>132.563981358582</v>
+        <v>1325.6398135858199</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A501">
-        <v>132.71815579249085</v>
+        <v>1327.1815579249085</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A502">
-        <v>132.87007810470726</v>
+        <v>1328.7007810470727</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A503">
-        <v>133.02344825433269</v>
+        <v>1330.234482543327</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A504">
-        <v>133.17881164694137</v>
+        <v>1331.7881164694136</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A505">
-        <v>133.33602027557461</v>
+        <v>1333.3602027557461</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A506">
-        <v>133.49492613327396</v>
+        <v>1334.9492613327398</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A507">
-        <v>133.6553812130808</v>
+        <v>1336.553812130808</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A508">
-        <v>133.81723750803661</v>
+        <v>1338.1723750803662</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A509">
-        <v>133.9803470111826</v>
+        <v>1339.8034701118261</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A510">
-        <v>134.14456171556046</v>
+        <v>1341.4456171556046</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A511">
-        <v>134.3097336142115</v>
+        <v>1343.097336142115</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A512">
-        <v>134.47571470017709</v>
+        <v>1344.757147001771</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A513">
-        <v>134.64235696649868</v>
+        <v>1346.4235696649869</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A514">
-        <v>134.80951240621769</v>
+        <v>1348.0951240621769</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A515">
-        <v>134.97703301237556</v>
+        <v>1349.7703301237557</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A516">
-        <v>135.14477077801379</v>
+        <v>1351.447707780138</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A517">
-        <v>135.31257769617366</v>
+        <v>1353.1257769617366</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A518">
-        <v>135.48030575989662</v>
+        <v>1354.8030575989662</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A519">
-        <v>135.64780696222417</v>
+        <v>1356.4780696222417</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A520">
-        <v>135.81493329619769</v>
+        <v>1358.1493329619771</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A521">
-        <v>135.98153675485858</v>
+        <v>1359.8153675485858</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A522">
-        <v>136.14746933124835</v>
+        <v>1361.4746933124834</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A523">
-        <v>136.31258301840828</v>
+        <v>1363.1258301840828</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A524">
-        <v>136.47672980937983</v>
+        <v>1364.7672980937982</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A525">
-        <v>136.63976169720451</v>
+        <v>1366.3976169720449</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A526">
-        <v>136.80153067492367</v>
+        <v>1368.0153067492367</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A527">
-        <v>136.96188873557873</v>
+        <v>1369.6188873557871</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A528">
-        <v>137.12068787221116</v>
+        <v>1371.2068787221117</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A529">
-        <v>137.27778007786236</v>
+        <v>1372.7778007786237</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A530">
-        <v>137.43301734557372</v>
+        <v>1374.3301734557372</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A531">
-        <v>137.58625166838667</v>
+        <v>1375.8625166838667</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A532">
-        <v>137.73733503934267</v>
+        <v>1377.3733503934268</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A533">
-        <v>137.88611945148307</v>
+        <v>1378.8611945148307</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A534">
-        <v>138.03245689784941</v>
+        <v>1380.3245689784942</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A535">
-        <v>138.17619937148297</v>
+        <v>1381.7619937148297</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A536">
-        <v>138.31719886542535</v>
+        <v>1383.1719886542535</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A537">
-        <v>138.45530737271773</v>
+        <v>1384.5530737271772</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A538">
-        <v>138.59037688640174</v>
+        <v>1385.9037688640174</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A539">
-        <v>138.72225939951869</v>
+        <v>1387.2225939951868</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A540">
-        <v>138.85080690511009</v>
+        <v>1388.5080690511008</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A541">
-        <v>140.86557710830675</v>
+        <v>1408.6557710830675</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A542">
-        <v>140.98866175323604</v>
+        <v>1409.8866175323606</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A543">
-        <v>141.10791598493381</v>
+        <v>1411.0791598493381</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A544">
-        <v>141.22318978393673</v>
+        <v>1412.2318978393673</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A545">
-        <v>141.33433313078152</v>
+        <v>1413.3433313078151</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A546">
-        <v>141.44119600600493</v>
+        <v>1414.4119600600493</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A547">
-        <v>141.5436283901436</v>
+        <v>1415.4362839014359</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A548">
-        <v>141.64148026373431</v>
+        <v>1416.4148026373432</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A549">
-        <v>141.73460160731383</v>
+        <v>1417.3460160731383</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A550">
-        <v>141.82284240141871</v>
+        <v>1418.2284240141871</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A551">
-        <v>141.90605262658579</v>
+        <v>1419.0605262658578</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A552">
-        <v>141.98408226335178</v>
+        <v>1419.8408226335177</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A553">
-        <v>142.05678129225342</v>
+        <v>1420.5678129225341</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A554">
-        <v>142.12399969382736</v>
+        <v>1421.2399969382736</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A555">
-        <v>142.18558744861033</v>
+        <v>1421.8558744861034</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A556">
-        <v>142.24139453713909</v>
+        <v>1422.4139453713908</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A557">
-        <v>142.29127093995029</v>
+        <v>1422.912709399503</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A558">
-        <v>142.3350666375807</v>
+        <v>1423.3506663758069</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A559">
-        <v>142.37263161056705</v>
+        <v>1423.7263161056705</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A560">
-        <v>142.40381583944597</v>
+        <v>1424.0381583944597</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A561">
-        <v>142.42846930475429</v>
+        <v>1424.284693047543</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A562">
-        <v>142.44644198702866</v>
+        <v>1424.4644198702867</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A563">
-        <v>142.45758386680586</v>
+        <v>1424.5758386680586</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A564">
-        <v>142.46174492462245</v>
+        <v>1424.6174492462246</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A565">
-        <v>142.46107796445619</v>
+        <v>1424.6107796445619</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A566">
-        <v>142.45874808120564</v>
+        <v>1424.5874808120564</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A567">
-        <v>142.45481303115992</v>
+        <v>1424.5481303115992</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A568">
-        <v>142.44930991914214</v>
+        <v>1424.4930991914214</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A569">
-        <v>142.44227584997537</v>
+        <v>1424.4227584997539</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A570">
-        <v>142.43374792848272</v>
+        <v>1424.3374792848272</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A571">
-        <v>142.4237632594872</v>
+        <v>1424.2376325948721</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A572">
-        <v>142.41235894781184</v>
+        <v>1424.1235894781184</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A573">
-        <v>142.39957209827983</v>
+        <v>1423.9957209827983</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A574">
-        <v>142.38543981571416</v>
+        <v>1423.8543981571415</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A575">
-        <v>142.36999920493787</v>
+        <v>1423.6999920493786</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A576">
-        <v>142.35328737077418</v>
+        <v>1423.5328737077418</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A577">
-        <v>142.33534141804594</v>
+        <v>1423.3534141804594</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A578">
-        <v>142.31619845157647</v>
+        <v>1423.1619845157647</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A579">
-        <v>142.29589557618868</v>
+        <v>1422.958955761887</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A580">
-        <v>142.27446989670568</v>
+        <v>1422.7446989670568</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A581">
-        <v>142.25195851795056</v>
+        <v>1422.5195851795056</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A582">
-        <v>142.22839854474637</v>
+        <v>1422.2839854474637</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A583">
-        <v>142.20382708191619</v>
+        <v>1422.0382708191619</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A584">
-        <v>142.17828123428311</v>
+        <v>1421.782812342831</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A585">
-        <v>142.15179810667016</v>
+        <v>1421.5179810667016</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A586">
-        <v>142.12441480390044</v>
+        <v>1421.2441480390044</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A587">
-        <v>142.09616843079701</v>
+        <v>1420.96168430797</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A588">
-        <v>142.06709609218296</v>
+        <v>1420.6709609218296</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A589">
-        <v>142.0372348928814</v>
+        <v>1420.3723489288141</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A590">
-        <v>142.00662193771524</v>
+        <v>1420.0662193771523</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A591">
-        <v>141.97529433150774</v>
+        <v>1419.7529433150773</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A592">
-        <v>141.94328917908192</v>
+        <v>1419.4328917908192</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A593">
-        <v>141.9106435852608</v>
+        <v>1419.106435852608</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A594">
-        <v>141.87739465486752</v>
+        <v>1418.7739465486752</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A595">
-        <v>141.8435794927251</v>
+        <v>1418.435794927251</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A596">
-        <v>141.80923520365661</v>
+        <v>1418.0923520365661</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A597">
-        <v>141.77439889248515</v>
+        <v>1417.7439889248515</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A598">
-        <v>141.73910766403378</v>
+        <v>1417.3910766403378</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A599">
-        <v>141.70339862312562</v>
+        <v>1417.0339862312562</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A600">
-        <v>141.66730887458365</v>
+        <v>1416.6730887458366</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A601">
-        <v>141.319014636535</v>
+        <v>1413.1901463653501</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A602">
-        <v>141.28235568567078</v>
+        <v>1412.8235568567079</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A603">
-        <v>141.24542793482624</v>
+        <v>1412.4542793482624</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A604">
-        <v>141.20826840712212</v>
+        <v>1412.0826840712211</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A605">
-        <v>141.17091412567964</v>
+        <v>1411.7091412567966</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A606">
-        <v>141.13340211361958</v>
+        <v>1411.3340211361958</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A607">
-        <v>141.09576939406284</v>
+        <v>1410.9576939406284</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A608">
-        <v>141.05805299013053</v>
+        <v>1410.5805299013055</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A609">
-        <v>141.02028992494348</v>
+        <v>1410.2028992494347</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A610">
-        <v>140.9825172216228</v>
+        <v>1409.8251722162281</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A611">
-        <v>140.94477190328928</v>
+        <v>1409.4477190328928</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A612">
-        <v>140.90709099306389</v>
+        <v>1409.0709099306389</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A613">
-        <v>140.86951151406768</v>
+        <v>1408.6951151406768</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A614">
-        <v>140.83207048942151</v>
+        <v>1408.3207048942152</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A615">
-        <v>140.79480494224626</v>
+        <v>1407.9480494224626</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A616">
-        <v>140.75775189566309</v>
+        <v>1407.5775189566309</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A617">
-        <v>140.7209483727928</v>
+        <v>1407.209483727928</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A618">
-        <v>140.68443139675639</v>
+        <v>1406.8443139675639</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A619">
-        <v>140.64823799067474</v>
+        <v>1406.4823799067474</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A620">
-        <v>140.61240517766893</v>
+        <v>1406.1240517766894</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A621">
-        <v>140.57696998085981</v>
+        <v>1405.769699808598</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A622">
-        <v>140.54196942336833</v>
+        <v>1405.4196942336832</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A623">
-        <v>140.50744052831556</v>
+        <v>1405.0744052831556</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A624">
-        <v>140.47342031882226</v>
+        <v>1404.7342031882226</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A625">
-        <v>140.43994581800951</v>
+        <v>1404.3994581800951</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A626">
-        <v>140.40705404899825</v>
+        <v>1404.0705404899825</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A627">
-        <v>140.37476027065247</v>
+        <v>1403.7476027065247</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A628">
-        <v>140.34282208135855</v>
+        <v>1403.4282208135855</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A629">
-        <v>140.31114501823757</v>
+        <v>1403.1114501823756</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A630">
-        <v>140.27970693924877</v>
+        <v>1402.7970693924876</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A631">
-        <v>140.24848570235113</v>
+        <v>1402.4848570235113</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A632">
-        <v>140.21745916550387</v>
+        <v>1402.1745916550387</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A633">
-        <v>140.18660518666596</v>
+        <v>1401.8660518666595</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A634">
-        <v>140.15590162379669</v>
+        <v>1401.5590162379669</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A635">
-        <v>140.12532633485495</v>
+        <v>1401.2532633485494</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A636">
-        <v>140.09485717779995</v>
+        <v>1400.9485717779994</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A637">
-        <v>140.06447201059092</v>
+        <v>1400.6447201059091</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A638">
-        <v>140.03414869118669</v>
+        <v>1400.3414869118669</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A639">
-        <v>140.00386507754658</v>
+        <v>1400.0386507754658</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A640">
-        <v>139.9735990276296</v>
+        <v>1399.735990276296</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A641">
-        <v>139.94332839939491</v>
+        <v>1399.4332839939491</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A642">
-        <v>139.91303105080158</v>
+        <v>1399.1303105080158</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A643">
-        <v>139.88268483980875</v>
+        <v>1398.8268483980873</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A644">
-        <v>139.85226762437543</v>
+        <v>1398.5226762437542</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A645">
-        <v>139.82175726246086</v>
+        <v>1398.2175726246087</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A646">
-        <v>139.79113161202406</v>
+        <v>1397.9113161202406</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A647">
-        <v>139.76036853102408</v>
+        <v>1397.603685310241</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A648">
-        <v>139.72944587742012</v>
+        <v>1397.2944587742013</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A649">
-        <v>139.69834150917126</v>
+        <v>1396.9834150917127</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A650">
-        <v>139.66703328423665</v>
+        <v>1396.6703328423664</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A651">
-        <v>139.63549906057531</v>
+        <v>1396.3549906057531</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A652">
-        <v>139.60371669614628</v>
+        <v>1396.0371669614628</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A653">
-        <v>139.57166404890881</v>
+        <v>1395.7166404890881</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A654">
-        <v>139.53931897682207</v>
+        <v>1395.3931897682207</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A655">
-        <v>139.50665933784498</v>
+        <v>1395.0665933784499</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A656">
-        <v>139.47366298993668</v>
+        <v>1394.7366298993668</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A657">
-        <v>139.44030779105634</v>
+        <v>1394.4030779105633</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A658">
-        <v>139.40657159916304</v>
+        <v>1394.0657159916304</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A659">
-        <v>139.37243227221595</v>
+        <v>1393.7243227221595</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A660">
-        <v>139.33786766817397</v>
+        <v>1393.3786766817398</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A661">
-        <v>139.84254518842008</v>
+        <v>1398.4254518842008</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A662">
-        <v>139.80692614069542</v>
+        <v>1398.0692614069542</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A663">
-        <v>139.77081348478819</v>
+        <v>1397.7081348478819</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A664">
-        <v>139.73418499287439</v>
+        <v>1397.3418499287438</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A665">
-        <v>139.69701843712997</v>
+        <v>1396.9701843712996</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A666">
-        <v>139.65929158973111</v>
+        <v>1396.5929158973111</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A667">
-        <v>139.62098222285377</v>
+        <v>1396.2098222285376</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A668">
-        <v>139.58206810867392</v>
+        <v>1395.8206810867391</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A669">
-        <v>139.5425270193677</v>
+        <v>1395.4252701936771</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A670">
-        <v>139.50233672711093</v>
+        <v>1395.0233672711092</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A671">
-        <v>139.46147500407992</v>
+        <v>1394.6147500407992</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A672">
-        <v>139.41991962245038</v>
+        <v>1394.1991962245038</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A673">
-        <v>139.37764835439864</v>
+        <v>1393.7764835439864</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A674">
-        <v>139.33463897210052</v>
+        <v>1393.3463897210052</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A675">
-        <v>139.2908692477321</v>
+        <v>1392.908692477321</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A676">
-        <v>139.24631695346937</v>
+        <v>1392.4631695346939</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A677">
-        <v>139.20095986148846</v>
+        <v>1392.0095986148845</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A678">
-        <v>139.1547757439653</v>
+        <v>1391.547757439653</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A679">
-        <v>139.10774237307601</v>
+        <v>1391.0774237307601</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A680">
-        <v>139.0598375209965</v>
+        <v>1390.5983752099651</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A681">
-        <v>139.01103895990278</v>
+        <v>1390.1103895990277</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A682">
-        <v>138.96132446197106</v>
+        <v>1389.6132446197107</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A683">
-        <v>138.91067179937718</v>
+        <v>1389.1067179937718</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A684">
-        <v>138.85905874429716</v>
+        <v>1388.5905874429716</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A685">
-        <v>138.80646306890719</v>
+        <v>1388.0646306890719</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A686">
-        <v>138.75286254538312</v>
+        <v>1387.5286254538312</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A687">
-        <v>138.69823494590119</v>
+        <v>1386.9823494590119</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A688">
-        <v>138.64255804263715</v>
+        <v>1386.4255804263714</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A689">
-        <v>138.5858096077672</v>
+        <v>1385.8580960776721</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A690">
-        <v>138.52587952960116</v>
+        <v>1385.2587952960116</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A691">
-        <v>138.45833944549403</v>
+        <v>1384.5833944549404</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A692">
-        <v>138.38331085121484</v>
+        <v>1383.8331085121486</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A693">
-        <v>138.30107876470345</v>
+        <v>1383.0107876470345</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A694">
-        <v>138.21192820389916</v>
+        <v>1382.1192820389915</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A695">
-        <v>138.11614418674171</v>
+        <v>1381.1614418674171</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A696">
-        <v>138.01401173117065</v>
+        <v>1380.1401173117065</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A697">
-        <v>137.90581585512541</v>
+        <v>1379.0581585512541</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A698">
-        <v>137.79184157654575</v>
+        <v>1377.9184157654574</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A699">
-        <v>137.67237391337108</v>
+        <v>1376.7237391337108</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A700">
-        <v>137.54769788354099</v>
+        <v>1375.4769788354099</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A701">
-        <v>137.41809850499519</v>
+        <v>1374.1809850499519</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A702">
-        <v>137.28386079567312</v>
+        <v>1372.8386079567313</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A703">
-        <v>137.1452697735144</v>
+        <v>1371.4526977351441</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A704">
-        <v>137.00261045645857</v>
+        <v>1370.0261045645857</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A705">
-        <v>136.85616786244523</v>
+        <v>1368.5616786244523</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A706">
-        <v>136.70622700941388</v>
+        <v>1367.0622700941387</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A707">
-        <v>136.55307291530426</v>
+        <v>1365.5307291530426</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A708">
-        <v>136.39699059805571</v>
+        <v>1363.9699059805571</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A709">
-        <v>136.23826507560793</v>
+        <v>1362.3826507560793</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A710">
-        <v>136.07718136590054</v>
+        <v>1360.7718136590054</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A711">
-        <v>135.91402448687296</v>
+        <v>1359.1402448687295</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A712">
-        <v>135.74907945646487</v>
+        <v>1357.4907945646487</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A713">
-        <v>135.58263129261582</v>
+        <v>1355.8263129261582</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A714">
-        <v>135.41496501326537</v>
+        <v>1354.1496501326537</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A715">
-        <v>135.24636563635303</v>
+        <v>1352.4636563635304</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A716">
-        <v>135.07711817981843</v>
+        <v>1350.7711817981842</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A717">
-        <v>134.90750766160122</v>
+        <v>1349.0750766160122</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A718">
-        <v>134.73781909964083</v>
+        <v>1347.3781909964082</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A719">
-        <v>134.56833751187696</v>
+        <v>1345.6833751187696</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A720">
-        <v>134.39934791624898</v>
+        <v>1343.9934791624898</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A721">
-        <v>132.68292876665694</v>
+        <v>1326.8292876665694</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A722">
-        <v>132.51770610453474</v>
+        <v>1325.1770610453473</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A723">
-        <v>132.35381495169335</v>
+        <v>1323.5381495169336</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A724">
-        <v>132.19153703870788</v>
+        <v>1321.9153703870788</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A725">
-        <v>132.03115409615376</v>
+        <v>1320.3115409615375</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A726">
-        <v>131.87294785460597</v>
+        <v>1318.7294785460597</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A727">
-        <v>131.71720004464001</v>
+        <v>1317.1720004464</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A728">
-        <v>131.56419239683098</v>
+        <v>1315.6419239683098</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A729">
-        <v>131.41420664175413</v>
+        <v>1314.1420664175414</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A730">
-        <v>131.2675245099849</v>
+        <v>1312.675245099849</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A731">
-        <v>131.1244277320983</v>
+        <v>1311.244277320983</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A732">
-        <v>130.98519803866961</v>
+        <v>1309.8519803866961</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A733">
-        <v>130.85011716027427</v>
+        <v>1308.5011716027427</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A734">
-        <v>130.71946682748731</v>
+        <v>1307.194668274873</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A735">
-        <v>130.59352877088406</v>
+        <v>1305.9352877088406</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A736">
-        <v>130.47258472103988</v>
+        <v>1304.7258472103988</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A737">
-        <v>130.3569164085298</v>
+        <v>1303.5691640852979</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A738">
-        <v>130.24680556392929</v>
+        <v>1302.4680556392927</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A739">
-        <v>130.14253391781347</v>
+        <v>1301.4253391781347</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A740">
-        <v>130.04438320075758</v>
+        <v>1300.4438320075758</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A741">
-        <v>129.95263514333692</v>
+        <v>1299.5263514333692</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A742">
-        <v>129.86757147612678</v>
+        <v>1298.675714761268</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A743">
-        <v>129.78947392970232</v>
+        <v>1297.8947392970233</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A744">
-        <v>129.71862423463884</v>
+        <v>1297.1862423463883</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A745">
-        <v>129.65530412151156</v>
+        <v>1296.5530412151156</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A746">
-        <v>129.59979532089571</v>
+        <v>1295.9979532089571</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A747">
-        <v>129.55237956336669</v>
+        <v>1295.5237956336669</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A748">
-        <v>129.51333857949948</v>
+        <v>1295.1333857949949</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A749">
-        <v>129.48295409986957</v>
+        <v>1294.8295409986958</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A750">
-        <v>129.46150785505213</v>
+        <v>1294.6150785505213</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A751">
-        <v>129.44928157562231</v>
+        <v>1294.4928157562231</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A752">
-        <v>129.44645071051715</v>
+        <v>1294.4645071051716</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A753">
-        <v>129.45017874833033</v>
+        <v>1294.5017874833034</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A754">
-        <v>129.45899160406003</v>
+        <v>1294.5899160406002</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A755">
-        <v>129.47274958400195</v>
+        <v>1294.7274958400194</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A756">
-        <v>129.49131299445156</v>
+        <v>1294.9131299445157</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A757">
-        <v>129.51454214170462</v>
+        <v>1295.1454214170462</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A758">
-        <v>129.54229733205671</v>
+        <v>1295.4229733205671</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A759">
-        <v>129.57443887180355</v>
+        <v>1295.7443887180355</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A760">
-        <v>129.61082706724073</v>
+        <v>1296.1082706724073</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A761">
-        <v>129.65132222466377</v>
+        <v>1296.5132222466377</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A762">
-        <v>129.69578465036844</v>
+        <v>1296.9578465036843</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A763">
-        <v>129.74407465065036</v>
+        <v>1297.4407465065037</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A764">
-        <v>129.79605253180506</v>
+        <v>1297.9605253180507</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A765">
-        <v>129.85157860012828</v>
+        <v>1298.5157860012828</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A766">
-        <v>129.91051316191559</v>
+        <v>1299.1051316191558</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A767">
-        <v>129.97271652346265</v>
+        <v>1299.7271652346265</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A768">
-        <v>130.03804899106507</v>
+        <v>1300.3804899106508</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A769">
-        <v>130.1063708710185</v>
+        <v>1301.063708710185</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A770">
-        <v>130.17754246961857</v>
+        <v>1301.7754246961858</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A771">
-        <v>130.25142409316089</v>
+        <v>1302.514240931609</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A772">
-        <v>130.32787604794115</v>
+        <v>1303.2787604794114</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A773">
-        <v>130.40675864025494</v>
+        <v>1304.0675864025493</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A774">
-        <v>130.48793217639792</v>
+        <v>1304.8793217639791</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A775">
-        <v>130.57125696266561</v>
+        <v>1305.7125696266562</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A776">
-        <v>130.65659330535377</v>
+        <v>1306.5659330535377</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A777">
-        <v>130.74380151075798</v>
+        <v>1307.4380151075798</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A778">
-        <v>130.8327418851739</v>
+        <v>1308.3274188517389</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A779">
-        <v>130.92327473489712</v>
+        <v>1309.2327473489713</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A780">
-        <v>131.01526036622334</v>
+        <v>1310.1526036622336</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A781">
-        <v>132.49904466943573</v>
+        <v>1324.9904466943574</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A782">
-        <v>132.5945187167689</v>
+        <v>1325.945187167689</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A783">
-        <v>132.69103742761109</v>
+        <v>1326.9103742761108</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A784">
-        <v>132.7884596267215</v>
+        <v>1327.8845962672151</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A785">
-        <v>132.88664413885962</v>
+        <v>1328.8664413885963</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A786">
-        <v>132.98544978878471</v>
+        <v>1329.8544978878472</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A787">
-        <v>133.08473540125632</v>
+        <v>1330.8473540125633</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A788">
-        <v>133.18435980103374</v>
+        <v>1331.8435980103372</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A789">
-        <v>133.28418181287637</v>
+        <v>1332.8418181287636</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A790">
-        <v>133.38406026154362</v>
+        <v>1333.8406026154362</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A791">
-        <v>133.48385397179476</v>
+        <v>1334.8385397179477</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A792">
-        <v>133.5834217683894</v>
+        <v>1335.8342176838939</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A793">
-        <v>133.68262247608681</v>
+        <v>1336.8262247608682</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A794">
-        <v>133.78131491964638</v>
+        <v>1337.8131491964637</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A795">
-        <v>133.87935792382746</v>
+        <v>1338.7935792382746</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A796">
-        <v>133.97661031338947</v>
+        <v>1339.7661031338948</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A797">
-        <v>134.07293091309185</v>
+        <v>1340.7293091309184</v>
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A798">
-        <v>134.16817854769391</v>
+        <v>1341.6817854769392</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A799">
-        <v>134.26221204195511</v>
+        <v>1342.622120419551</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A800">
-        <v>134.35489022063479</v>
+        <v>1343.548902206348</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A801">
-        <v>134.44607190849229</v>
+        <v>1344.4607190849229</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A802">
-        <v>134.53561593028712</v>
+        <v>1345.3561593028712</v>
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A803">
-        <v>134.62338111077861</v>
+        <v>1346.2338111077861</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A804">
-        <v>134.70922627472609</v>
+        <v>1347.092262747261</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A805">
-        <v>134.79301024688911</v>
+        <v>1347.9301024688912</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A806">
-        <v>134.87459185202684</v>
+        <v>1348.7459185202683</v>
       </c>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A807">
-        <v>134.95382991489882</v>
+        <v>1349.5382991489882</v>
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A808">
-        <v>135.03058326026442</v>
+        <v>1350.3058326026442</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A809">
-        <v>135.10471071288299</v>
+        <v>1351.0471071288298</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A810">
-        <v>135.17607109751393</v>
+        <v>1351.7607109751393</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A811">
-        <v>135.24452323891663</v>
+        <v>1352.4452323891662</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A812">
-        <v>135.30992596185047</v>
+        <v>1353.0992596185047</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A813">
-        <v>135.3721380910749</v>
+        <v>1353.7213809107491</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A814">
-        <v>135.43101845134925</v>
+        <v>1354.3101845134925</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A815">
-        <v>135.48718942313303</v>
+        <v>1354.8718942313303</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A816">
-        <v>135.54317515359011</v>
+        <v>1355.4317515359012</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A817">
-        <v>135.59917153100466</v>
+        <v>1355.9917153100466</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A818">
-        <v>135.6551597213514</v>
+        <v>1356.551597213514</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A819">
-        <v>135.7111208906054</v>
+        <v>1357.1112089060539</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A820">
-        <v>135.76703620474126</v>
+        <v>1357.6703620474127</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A821">
-        <v>135.82288682973402</v>
+        <v>1358.2288682973401</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A822">
-        <v>135.87865393155835</v>
+        <v>1358.7865393155835</v>
       </c>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A823">
-        <v>135.93431867618915</v>
+        <v>1359.3431867618915</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A824">
-        <v>135.98986222960136</v>
+        <v>1359.8986222960136</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A825">
-        <v>136.04526575776964</v>
+        <v>1360.4526575776963</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A826">
-        <v>136.1005104266689</v>
+        <v>1361.0051042666892</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A827">
-        <v>136.1555774022741</v>
+        <v>1361.5557740227409</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A828">
-        <v>136.21044785055986</v>
+        <v>1362.1044785055985</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A829">
-        <v>136.26510293750118</v>
+        <v>1362.6510293750118</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A830">
-        <v>136.31952382907281</v>
+        <v>1363.195238290728</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A831">
-        <v>136.37369169124969</v>
+        <v>1363.7369169124968</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A832">
-        <v>136.42758769000656</v>
+        <v>1364.2758769000657</v>
       </c>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A833">
-        <v>136.48119299131824</v>
+        <v>1364.8119299131824</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A834">
-        <v>136.53448876115962</v>
+        <v>1365.3448876115963</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A835">
-        <v>136.58745616550567</v>
+        <v>1365.8745616550568</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A836">
-        <v>136.64007637033097</v>
+        <v>1366.4007637033096</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A837">
-        <v>136.6923305416106</v>
+        <v>1366.9233054161059</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A838">
-        <v>136.74419984531923</v>
+        <v>1367.4419984531924</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A839">
-        <v>136.7956654474317</v>
+        <v>1367.956654474317</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A840">
-        <v>136.84670851392295</v>
+        <v>1368.4670851392295</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A841">
-        <v>136.69063662983538</v>
+        <v>1366.9063662983538</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A842">
-        <v>136.74070242450193</v>
+        <v>1367.4070242450193</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A843">
-        <v>136.79028990467401</v>
+        <v>1367.90289904674</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A844">
-        <v>136.83938026476</v>
+        <v>1368.3938026475998</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A845">
-        <v>136.88795469916849</v>
+        <v>1368.8795469916849</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A846">
-        <v>136.93599440230807</v>
+        <v>1369.3599440230807</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A847">
-        <v>136.98348056858714</v>
+        <v>1369.8348056858713</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A848">
-        <v>137.03039439241422</v>
+        <v>1370.3039439241422</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A849">
-        <v>137.07671706819804</v>
+        <v>1370.7671706819804</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A850">
-        <v>137.12242979034696</v>
+        <v>1371.2242979034695</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A851">
-        <v>137.16751375326947</v>
+        <v>1371.6751375326949</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A852">
-        <v>137.2119501513742</v>
+        <v>1372.1195015137419</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A853">
-        <v>137.25572017906975</v>
+        <v>1372.5572017906975</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A854">
-        <v>137.29880503076441</v>
+        <v>1372.9880503076442</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A855">
-        <v>137.34118590086689</v>
+        <v>1373.4118590086689</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A856">
-        <v>137.38284398378562</v>
+        <v>1373.8284398378562</v>
       </c>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A857">
-        <v>137.42376047392926</v>
+        <v>1374.2376047392927</v>
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A858">
-        <v>137.46391656570617</v>
+        <v>1374.6391656570618</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A859">
-        <v>137.503293453525</v>
+        <v>1375.03293453525</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A860">
-        <v>137.54187233179422</v>
+        <v>1375.4187233179423</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A861">
-        <v>137.57963439492232</v>
+        <v>1375.7963439492232</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A862">
-        <v>137.61656083731793</v>
+        <v>1376.1656083731793</v>
       </c>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A863">
-        <v>137.65263285338946</v>
+        <v>1376.5263285338947</v>
       </c>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A864">
-        <v>137.68783163754551</v>
+        <v>1376.8783163754551</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A865">
-        <v>137.72213838419458</v>
+        <v>1377.2213838419457</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A866">
-        <v>137.75553428774521</v>
+        <v>1377.5553428774519</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A867">
-        <v>137.788000542606</v>
+        <v>1377.8800054260601</v>
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A868">
-        <v>137.81951834318531</v>
+        <v>1378.1951834318531</v>
       </c>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A869">
-        <v>137.85006888389179</v>
+        <v>1378.500688838918</v>
       </c>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A870">
-        <v>137.87963335913398</v>
+        <v>1378.7963335913398</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A871">
-        <v>137.90819296332032</v>
+        <v>1379.0819296332031</v>
       </c>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A872">
-        <v>137.93572889085937</v>
+        <v>1379.3572889085935</v>
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A873">
-        <v>137.96222233615967</v>
+        <v>1379.6222233615968</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A874">
-        <v>137.98765449362975</v>
+        <v>1379.8765449362975</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A875">
-        <v>138.01200655767809</v>
+        <v>1380.1200655767809</v>
       </c>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A876">
-        <v>138.03525972271331</v>
+        <v>1380.3525972271332</v>
       </c>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A877">
-        <v>138.05739941457665</v>
+        <v>1380.5739941457664</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A878">
-        <v>138.07905691778785</v>
+        <v>1380.7905691778785</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A879">
-        <v>138.1006870394117</v>
+        <v>1381.006870394117</v>
       </c>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A880">
-        <v>138.12227921625396</v>
+        <v>1381.2227921625395</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A881">
-        <v>138.14382288512053</v>
+        <v>1381.4382288512052</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A882">
-        <v>138.16530748281721</v>
+        <v>1381.6530748281721</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A883">
-        <v>138.18672244614964</v>
+        <v>1381.8672244614963</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A884">
-        <v>138.20805721192386</v>
+        <v>1382.0805721192387</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A885">
-        <v>138.22930121694557</v>
+        <v>1382.2930121694558</v>
       </c>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A886">
-        <v>138.25044389802062</v>
+        <v>1382.5044389802063</v>
       </c>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A887">
-        <v>138.27147469195472</v>
+        <v>1382.7147469195472</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A888">
-        <v>138.2923830355538</v>
+        <v>1382.923830355538</v>
       </c>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A889">
-        <v>138.31315836562351</v>
+        <v>1383.1315836562351</v>
       </c>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A890">
-        <v>138.33379011896989</v>
+        <v>1383.3379011896989</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A891">
-        <v>138.35426773239851</v>
+        <v>1383.5426773239851</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A892">
-        <v>138.37458064271539</v>
+        <v>1383.7458064271539</v>
       </c>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A893">
-        <v>138.39471828672612</v>
+        <v>1383.9471828672613</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A894">
-        <v>138.41467010123674</v>
+        <v>1384.1467010123674</v>
       </c>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A895">
-        <v>138.43442552305291</v>
+        <v>1384.3442552305291</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A896">
-        <v>138.45397398898044</v>
+        <v>1384.5397398898044</v>
       </c>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A897">
-        <v>138.47330493582524</v>
+        <v>1384.7330493582524</v>
       </c>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A898">
-        <v>138.49240780039295</v>
+        <v>1384.9240780039295</v>
       </c>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A899">
-        <v>138.51127201948955</v>
+        <v>1385.1127201948955</v>
       </c>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A900">
-        <v>138.52988702992081</v>
+        <v>1385.2988702992081</v>
       </c>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A901">
-        <v>138.39127277034689</v>
+        <v>1383.9127277034688</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A902">
-        <v>138.409337184408</v>
+        <v>1384.0933718440801</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A903">
-        <v>138.42712101846737</v>
+        <v>1384.2712101846737</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A904">
-        <v>138.44461372129854</v>
+        <v>1384.4461372129854</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A905">
-        <v>138.46180474167491</v>
+        <v>1384.6180474167491</v>
       </c>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A906">
-        <v>138.47868352837003</v>
+        <v>1384.7868352837004</v>
       </c>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A907">
-        <v>138.49523953015739</v>
+        <v>1384.9523953015739</v>
       </c>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A908">
-        <v>138.51146219581037</v>
+        <v>1385.1146219581037</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A909">
-        <v>138.52734097410257</v>
+        <v>1385.2734097410257</v>
       </c>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A910">
-        <v>138.54286531380731</v>
+        <v>1385.4286531380731</v>
       </c>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A911">
-        <v>138.55802466369823</v>
+        <v>1385.5802466369823</v>
       </c>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A912">
-        <v>138.57280847254864</v>
+        <v>1385.7280847254865</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A913">
-        <v>138.58720618913227</v>
+        <v>1385.8720618913228</v>
       </c>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A914">
-        <v>138.60120726222226</v>
+        <v>1386.0120726222226</v>
       </c>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A915">
-        <v>138.61480114059233</v>
+        <v>1386.1480114059234</v>
       </c>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A916">
-        <v>138.62797727301594</v>
+        <v>1386.2797727301595</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A917">
-        <v>138.64072510826648</v>
+        <v>1386.4072510826647</v>
       </c>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A918">
-        <v>138.65303409511739</v>
+        <v>1386.5303409511739</v>
       </c>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A919">
-        <v>138.66489368234232</v>
+        <v>1386.6489368234234</v>
       </c>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A920">
-        <v>138.67629331871458</v>
+        <v>1386.7629331871458</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A921">
-        <v>138.68722245300773</v>
+        <v>1386.8722245300773</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A922">
-        <v>138.69767053399519</v>
+        <v>1386.9767053399519</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A923">
-        <v>138.70762701045052</v>
+        <v>1387.0762701045053</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A924">
-        <v>138.71708133114714</v>
+        <v>1387.1708133114714</v>
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A925">
-        <v>138.72602294485856</v>
+        <v>1387.2602294485855</v>
       </c>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A926">
-        <v>138.73444130035818</v>
+        <v>1387.3444130035818</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A927">
-        <v>138.7423258464195</v>
+        <v>1387.423258464195</v>
       </c>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A928">
-        <v>138.7496660318161</v>
+        <v>1387.496660318161</v>
       </c>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A929">
-        <v>138.75645130532138</v>
+        <v>1387.5645130532139</v>
       </c>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A930">
-        <v>138.76267111570871</v>
+        <v>1387.6267111570871</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A931">
-        <v>138.76831491175176</v>
+        <v>1387.6831491175176</v>
       </c>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A932">
-        <v>138.77337214222385</v>
+        <v>1387.7337214222384</v>
       </c>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A933">
-        <v>138.77783225589863</v>
+        <v>1387.7783225589862</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A934">
-        <v>138.78168470154938</v>
+        <v>1387.8168470154937</v>
       </c>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A935">
-        <v>138.78491892794969</v>
+        <v>1387.8491892794968</v>
       </c>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A936">
-        <v>138.78752438387303</v>
+        <v>1387.8752438387303</v>
       </c>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A937">
-        <v>138.78949051809289</v>
+        <v>1387.8949051809288</v>
       </c>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A938">
-        <v>138.79080677938265</v>
+        <v>1387.9080677938264</v>
       </c>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A939">
-        <v>138.79146261651587</v>
+        <v>1387.9146261651588</v>
       </c>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A940">
-        <v>138.7914103679814</v>
+        <v>1387.9141036798139</v>
       </c>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A941">
-        <v>138.79044929297135</v>
+        <v>1387.9044929297133</v>
       </c>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A942">
-        <v>138.78857298412152</v>
+        <v>1387.8857298412152</v>
       </c>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A943">
-        <v>138.78580761712783</v>
+        <v>1387.8580761712783</v>
       </c>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A944">
-        <v>138.78217936768618</v>
+        <v>1387.8217936768619</v>
       </c>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A945">
-        <v>138.77771441149272</v>
+        <v>1387.7771441149273</v>
       </c>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A946">
-        <v>138.77243892424326</v>
+        <v>1387.7243892424326</v>
       </c>
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A947">
-        <v>138.76637908163383</v>
+        <v>1387.6637908163384</v>
       </c>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A948">
-        <v>138.75956105936029</v>
+        <v>1387.5956105936029</v>
       </c>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A949">
-        <v>138.75201103311863</v>
+        <v>1387.5201103311863</v>
       </c>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A950">
-        <v>138.74375517860477</v>
+        <v>1387.4375517860476</v>
       </c>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A951">
-        <v>138.73481967151488</v>
+        <v>1387.3481967151488</v>
       </c>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A952">
-        <v>138.72523068754458</v>
+        <v>1387.2523068754458</v>
       </c>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A953">
-        <v>138.71501440239012</v>
+        <v>1387.1501440239012</v>
       </c>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A954">
-        <v>138.70419699174727</v>
+        <v>1387.0419699174727</v>
       </c>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A955">
-        <v>138.69280463131204</v>
+        <v>1386.9280463131204</v>
       </c>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A956">
-        <v>138.68086349678046</v>
+        <v>1386.8086349678047</v>
       </c>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A957">
-        <v>138.66839976384838</v>
+        <v>1386.6839976384838</v>
       </c>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A958">
-        <v>138.65543960821182</v>
+        <v>1386.5543960821183</v>
       </c>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A959">
-        <v>138.64200920556672</v>
+        <v>1386.4200920556673</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A960">
-        <v>138.62813473160898</v>
+        <v>1386.2813473160898</v>
       </c>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A961">
-        <v>138.31866888821642</v>
+        <v>1383.1866888821642</v>
       </c>
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A962">
-        <v>138.30401606799168</v>
+        <v>1383.0401606799169</v>
       </c>
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A963">
-        <v>138.28899848195621</v>
+        <v>1382.8899848195622</v>
       </c>
     </row>
     <row r="964" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A964">
-        <v>138.27364225006585</v>
+        <v>1382.7364225006586</v>
       </c>
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A965">
-        <v>138.25797349227605</v>
+        <v>1382.5797349227605</v>
       </c>
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A966">
-        <v>138.24201832854271</v>
+        <v>1382.4201832854271</v>
       </c>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A967">
-        <v>138.22580287882141</v>
+        <v>1382.2580287882142</v>
       </c>
     </row>
     <row r="968" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A968">
-        <v>138.20935326306798</v>
+        <v>1382.0935326306799</v>
       </c>
     </row>
     <row r="969" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A969">
-        <v>138.19269560123803</v>
+        <v>1381.9269560123803</v>
       </c>
     </row>
     <row r="970" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A970">
-        <v>138.17585601328722</v>
+        <v>1381.7585601328722</v>
       </c>
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A971">
-        <v>138.15886061917126</v>
+        <v>1381.5886061917126</v>
       </c>
     </row>
     <row r="972" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A972">
-        <v>138.14173553884604</v>
+        <v>1381.4173553884602</v>
       </c>
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A973">
-        <v>138.12450689226696</v>
+        <v>1381.2450689226696</v>
       </c>
     </row>
     <row r="974" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A974">
-        <v>138.10720079938991</v>
+        <v>1381.0720079938992</v>
       </c>
     </row>
     <row r="975" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A975">
-        <v>138.08984338017055</v>
+        <v>1380.8984338017056</v>
       </c>
     </row>
     <row r="976" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A976">
-        <v>138.07246075456464</v>
+        <v>1380.7246075456464</v>
       </c>
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A977">
-        <v>138.05507904252775</v>
+        <v>1380.5507904252775</v>
       </c>
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A978">
-        <v>138.03772436401567</v>
+        <v>1380.3772436401568</v>
       </c>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A979">
-        <v>138.02042283898396</v>
+        <v>1380.2042283898395</v>
       </c>
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A980">
-        <v>138.00320058738856</v>
+        <v>1380.0320058738857</v>
       </c>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A981">
-        <v>137.98608372918503</v>
+        <v>1379.8608372918502</v>
       </c>
     </row>
     <row r="982" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A982">
-        <v>137.96909838432904</v>
+        <v>1379.6909838432905</v>
       </c>
     </row>
     <row r="983" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A983">
-        <v>137.95227067277634</v>
+        <v>1379.5227067277633</v>
       </c>
     </row>
     <row r="984" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A984">
-        <v>137.93562671448265</v>
+        <v>1379.3562671448265</v>
       </c>
     </row>
     <row r="985" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A985">
-        <v>137.91919262940354</v>
+        <v>1379.1919262940355</v>
       </c>
     </row>
     <row r="986" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A986">
-        <v>137.90299453749492</v>
+        <v>1379.0299453749492</v>
       </c>
     </row>
     <row r="987" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A987">
-        <v>137.88705855871234</v>
+        <v>1378.8705855871235</v>
       </c>
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A988">
-        <v>137.87141081301149</v>
+        <v>1378.7141081301149</v>
       </c>
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A989">
-        <v>137.85607742034816</v>
+        <v>1378.5607742034815</v>
       </c>
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A990">
-        <v>137.84108450067799</v>
+        <v>1378.4108450067799</v>
       </c>
     </row>
     <row r="991" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A991">
-        <v>137.82645817395667</v>
+        <v>1378.2645817395667</v>
       </c>
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A992">
-        <v>137.81222456013995</v>
+        <v>1378.1222456013995</v>
       </c>
     </row>
     <row r="993" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A993">
-        <v>137.79840977918352</v>
+        <v>1377.9840977918352</v>
       </c>
     </row>
     <row r="994" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A994">
-        <v>137.78503995104302</v>
+        <v>1377.8503995104302</v>
       </c>
     </row>
     <row r="995" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A995">
-        <v>137.77214119567421</v>
+        <v>1377.721411956742</v>
       </c>
     </row>
     <row r="996" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A996">
-        <v>137.75973963303275</v>
+        <v>1377.5973963303275</v>
       </c>
     </row>
     <row r="997" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A997">
-        <v>137.74786138307437</v>
+        <v>1377.4786138307436</v>
       </c>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A998">
-        <v>137.73653256575471</v>
+        <v>1377.3653256575471</v>
       </c>
     </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A999">
-        <v>137.7257793010296</v>
+        <v>1377.2577930102962</v>
       </c>
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1000">
-        <v>137.71562770885464</v>
+        <v>1377.1562770885464</v>
       </c>
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1001">
-        <v>137.70610390918549</v>
+        <v>1377.0610390918548</v>
       </c>
     </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1002">
-        <v>137.69723402197789</v>
+        <v>1376.972340219779</v>
       </c>
     </row>
     <row r="1003" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1003">
-        <v>137.68869877417777</v>
+        <v>1376.8869877417776</v>
       </c>
     </row>
     <row r="1004" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1004">
-        <v>137.68010286670571</v>
+        <v>1376.8010286670572</v>
       </c>
     </row>
     <row r="1005" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1005">
-        <v>137.67145209804946</v>
+        <v>1376.7145209804946</v>
       </c>
     </row>
     <row r="1006" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1006">
-        <v>137.66275297413912</v>
+        <v>1376.6275297413913</v>
       </c>
     </row>
     <row r="1007" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1007">
-        <v>137.6540120009046</v>
+        <v>1376.5401200090459</v>
       </c>
     </row>
     <row r="1008" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1008">
-        <v>137.645235684276</v>
+        <v>1376.4523568427601</v>
       </c>
     </row>
     <row r="1009" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1009">
-        <v>137.63643053018336</v>
+        <v>1376.3643053018336</v>
       </c>
     </row>
     <row r="1010" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1010">
-        <v>137.62760304455662</v>
+        <v>1376.2760304455662</v>
       </c>
     </row>
     <row r="1011" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1011">
-        <v>137.61875973332599</v>
+        <v>1376.1875973332599</v>
       </c>
     </row>
     <row r="1012" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1012">
-        <v>137.60990710242137</v>
+        <v>1376.0990710242138</v>
       </c>
     </row>
     <row r="1013" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1013">
-        <v>137.60105165777293</v>
+        <v>1376.0105165777293</v>
       </c>
     </row>
     <row r="1014" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1014">
-        <v>137.59219990531051</v>
+        <v>1375.9219990531051</v>
       </c>
     </row>
     <row r="1015" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1015">
-        <v>137.58335835096432</v>
+        <v>1375.8335835096432</v>
       </c>
     </row>
     <row r="1016" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1016">
-        <v>137.57453350066427</v>
+        <v>1375.7453350066428</v>
       </c>
     </row>
     <row r="1017" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1017">
-        <v>137.56573186034052</v>
+        <v>1375.6573186034052</v>
       </c>
     </row>
     <row r="1018" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1018">
-        <v>137.556959935923</v>
+        <v>1375.5695993592301</v>
       </c>
     </row>
     <row r="1019" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1019">
-        <v>137.54822423334181</v>
+        <v>1375.4822423334181</v>
       </c>
     </row>
     <row r="1020" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1020">
-        <v>137.53953125852695</v>
+        <v>1375.3953125852695</v>
       </c>
     </row>
     <row r="1021" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1021">
-        <v>137.63080683173621</v>
+        <v>1376.3080683173621</v>
       </c>
     </row>
     <row r="1022" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1022">
-        <v>137.62221259086598</v>
+        <v>1376.2221259086598</v>
       </c>
     </row>
     <row r="1023" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1023">
-        <v>137.61368064077502</v>
+        <v>1376.1368064077501</v>
       </c>
     </row>
     <row r="1024" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1024">
-        <v>137.60521749212003</v>
+        <v>1376.0521749212003</v>
       </c>
     </row>
     <row r="1025" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1025">
-        <v>137.5968296555578</v>
+        <v>1375.968296555578</v>
       </c>
     </row>
     <row r="1026" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1026">
-        <v>137.58852364174513</v>
+        <v>1375.8852364174513</v>
       </c>
     </row>
     <row r="1027" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1027">
-        <v>137.58030596133858</v>
+        <v>1375.8030596133858</v>
       </c>
     </row>
     <row r="1028" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1028">
-        <v>137.57218312499506</v>
+        <v>1375.7218312499506</v>
       </c>
     </row>
     <row r="1029" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1029">
-        <v>137.56416164337125</v>
+        <v>1375.6416164337124</v>
       </c>
     </row>
     <row r="1030" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1030">
-        <v>137.5562480271239</v>
+        <v>1375.5624802712391</v>
       </c>
     </row>
     <row r="1031" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1031">
-        <v>137.54844878690969</v>
+        <v>1375.4844878690969</v>
       </c>
     </row>
     <row r="1032" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1032">
-        <v>137.54077043338549</v>
+        <v>1375.4077043338548</v>
       </c>
     </row>
     <row r="1033" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1033">
-        <v>137.53321947720792</v>
+        <v>1375.3321947720792</v>
       </c>
     </row>
     <row r="1034" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1034">
-        <v>137.52580242903383</v>
+        <v>1375.2580242903382</v>
       </c>
     </row>
     <row r="1035" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1035">
-        <v>137.51852579951995</v>
+        <v>1375.1852579951994</v>
       </c>
     </row>
     <row r="1036" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1036">
-        <v>137.51139609932292</v>
+        <v>1375.1139609932293</v>
       </c>
     </row>
     <row r="1037" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1037">
-        <v>137.50441983909948</v>
+        <v>1375.0441983909948</v>
       </c>
     </row>
     <row r="1038" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1038">
-        <v>137.49760352950651</v>
+        <v>1374.976035295065</v>
       </c>
     </row>
     <row r="1039" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1039">
-        <v>137.49095368120069</v>
+        <v>1374.909536812007</v>
       </c>
     </row>
     <row r="1040" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1040">
-        <v>137.48447680483878</v>
+        <v>1374.8447680483878</v>
       </c>
     </row>
     <row r="1041" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1041">
-        <v>137.47817941107743</v>
+        <v>1374.7817941107744</v>
       </c>
     </row>
     <row r="1042" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1042">
-        <v>137.47206801057339</v>
+        <v>1374.7206801057339</v>
       </c>
     </row>
     <row r="1043" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1043">
-        <v>137.46614911398353</v>
+        <v>1374.6614911398353</v>
       </c>
     </row>
     <row r="1044" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1044">
-        <v>137.4604292319645</v>
+        <v>1374.6042923196451</v>
       </c>
     </row>
     <row r="1045" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1045">
-        <v>137.45491487517313</v>
+        <v>1374.5491487517313</v>
       </c>
     </row>
     <row r="1046" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1046">
-        <v>137.44961255426597</v>
+        <v>1374.4961255426597</v>
       </c>
     </row>
     <row r="1047" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1047">
-        <v>137.44452877989997</v>
+        <v>1374.4452877989997</v>
       </c>
     </row>
     <row r="1048" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1048">
-        <v>137.43967006273178</v>
+        <v>1374.3967006273178</v>
       </c>
     </row>
     <row r="1049" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1049">
-        <v>137.4350429134181</v>
+        <v>1374.350429134181</v>
       </c>
     </row>
     <row r="1050" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1050">
-        <v>137.43065384261575</v>
+        <v>1374.3065384261577</v>
       </c>
     </row>
     <row r="1051" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1051">
-        <v>137.42650936098144</v>
+        <v>1374.2650936098144</v>
       </c>
     </row>
     <row r="1052" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1052">
-        <v>137.42261597917187</v>
+        <v>1374.2261597917186</v>
       </c>
     </row>
     <row r="1053" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1053">
-        <v>137.4189802078439</v>
+        <v>1374.189802078439</v>
       </c>
     </row>
     <row r="1054" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1054">
-        <v>137.41560855765414</v>
+        <v>1374.1560855765415</v>
       </c>
     </row>
     <row r="1055" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1055">
-        <v>137.41250753925942</v>
+        <v>1374.1250753925942</v>
       </c>
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1056">
-        <v>137.40968366331643</v>
+        <v>1374.0968366331642</v>
       </c>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1057">
-        <v>137.40714344048197</v>
+        <v>1374.0714344048197</v>
       </c>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1058">
-        <v>137.40489338141273</v>
+        <v>1374.0489338141274</v>
       </c>
     </row>
     <row r="1059" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1059">
-        <v>137.40293999676544</v>
+        <v>1374.0293999676544</v>
       </c>
     </row>
     <row r="1060" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1060">
-        <v>137.40128979719694</v>
+        <v>1374.0128979719693</v>
       </c>
     </row>
     <row r="1061" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1061">
-        <v>137.39994929336382</v>
+        <v>1373.9994929336381</v>
       </c>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1062">
-        <v>137.39892499592298</v>
+        <v>1373.9892499592297</v>
       </c>
     </row>
     <row r="1063" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1063">
-        <v>137.39822341553099</v>
+        <v>1373.9822341553099</v>
       </c>
     </row>
     <row r="1064" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1064">
-        <v>137.39785106284478</v>
+        <v>1373.9785106284478</v>
       </c>
     </row>
     <row r="1065" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1065">
-        <v>137.39790614986896</v>
+        <v>1373.9790614986896</v>
       </c>
     </row>
     <row r="1066" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1066">
-        <v>137.39926133752147</v>
+        <v>1373.9926133752147</v>
       </c>
     </row>
     <row r="1067" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1067">
-        <v>137.40209259073282</v>
+        <v>1374.0209259073281</v>
       </c>
     </row>
     <row r="1068" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1068">
-        <v>137.40635052840059</v>
+        <v>1374.0635052840059</v>
       </c>
     </row>
     <row r="1069" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1069">
-        <v>137.41198576942253</v>
+        <v>1374.1198576942252</v>
       </c>
     </row>
     <row r="1070" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1070">
-        <v>137.41894893269634</v>
+        <v>1374.1894893269634</v>
       </c>
     </row>
     <row r="1071" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1071">
-        <v>137.42719063711962</v>
+        <v>1374.2719063711961</v>
       </c>
     </row>
     <row r="1072" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1072">
-        <v>137.43666150159007</v>
+        <v>1374.3666150159006</v>
       </c>
     </row>
     <row r="1073" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1073">
-        <v>137.44731214500527</v>
+        <v>1374.4731214500528</v>
       </c>
     </row>
     <row r="1074" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1074">
-        <v>137.459093186263</v>
+        <v>1374.59093186263</v>
       </c>
     </row>
     <row r="1075" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1075">
-        <v>137.4719552442609</v>
+        <v>1374.719552442609</v>
       </c>
     </row>
     <row r="1076" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1076">
-        <v>137.48584893789666</v>
+        <v>1374.8584893789666</v>
       </c>
     </row>
     <row r="1077" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1077">
-        <v>137.50072488606784</v>
+        <v>1375.0072488606784</v>
       </c>
     </row>
     <row r="1078" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1078">
-        <v>137.51653370767232</v>
+        <v>1375.1653370767233</v>
       </c>
     </row>
     <row r="1079" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1079">
-        <v>137.53322602160748</v>
+        <v>1375.3322602160747</v>
       </c>
     </row>
     <row r="1080" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1080">
-        <v>137.55075244677127</v>
+        <v>1375.5075244677128</v>
       </c>
     </row>
     <row r="1081" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1081">
-        <v>137.9254861954677</v>
+        <v>1379.2548619546769</v>
       </c>
     </row>
     <row r="1082" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1082">
-        <v>137.94458204666429</v>
+        <v>1379.445820466643</v>
       </c>
     </row>
     <row r="1083" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1083">
-        <v>137.96436564303127</v>
+        <v>1379.6436564303126</v>
       </c>
     </row>
     <row r="1084" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1084">
-        <v>137.9847874755267</v>
+        <v>1379.847874755267</v>
       </c>
     </row>
     <row r="1085" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1085">
-        <v>138.00579803510846</v>
+        <v>1380.0579803510846</v>
       </c>
     </row>
     <row r="1086" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1086">
-        <v>138.02734781273466</v>
+        <v>1380.2734781273466</v>
       </c>
     </row>
     <row r="1087" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1087">
-        <v>138.04938729936325</v>
+        <v>1380.4938729936325</v>
       </c>
     </row>
     <row r="1088" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1088">
-        <v>138.07186698595223</v>
+        <v>1380.7186698595224</v>
       </c>
     </row>
     <row r="1089" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1089">
-        <v>138.09473736345967</v>
+        <v>1380.9473736345967</v>
       </c>
     </row>
     <row r="1090" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1090">
-        <v>138.11794892284342</v>
+        <v>1381.1794892284342</v>
       </c>
     </row>
     <row r="1091" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1091">
-        <v>138.14145215506164</v>
+        <v>1381.4145215506164</v>
       </c>
     </row>
     <row r="1092" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1092">
-        <v>138.1651975510722</v>
+        <v>1381.651975510722</v>
       </c>
     </row>
     <row r="1093" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1093">
-        <v>138.18913560183319</v>
+        <v>1381.8913560183319</v>
       </c>
     </row>
     <row r="1094" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1094">
-        <v>138.2132167983026</v>
+        <v>1382.132167983026</v>
       </c>
     </row>
     <row r="1095" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1095">
-        <v>138.23739163143836</v>
+        <v>1382.3739163143837</v>
       </c>
     </row>
     <row r="1096" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1096">
-        <v>138.26161059219845</v>
+        <v>1382.6161059219844</v>
       </c>
     </row>
     <row r="1097" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1097">
-        <v>138.28582417154101</v>
+        <v>1382.85824171541</v>
       </c>
     </row>
     <row r="1098" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1098">
-        <v>138.30998286042396</v>
+        <v>1383.0998286042395</v>
       </c>
     </row>
     <row r="1099" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1099">
-        <v>138.33403714980528</v>
+        <v>1383.3403714980527</v>
       </c>
     </row>
     <row r="1100" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1100">
-        <v>138.35793753064303</v>
+        <v>1383.5793753064304</v>
       </c>
     </row>
     <row r="1101" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1101">
-        <v>138.38163449389512</v>
+        <v>1383.8163449389513</v>
       </c>
     </row>
     <row r="1102" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1102">
-        <v>138.40507853051963</v>
+        <v>1384.0507853051963</v>
       </c>
     </row>
     <row r="1103" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1103">
-        <v>138.42822013147446</v>
+        <v>1384.2822013147447</v>
       </c>
     </row>
     <row r="1104" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1104">
-        <v>138.45100978771777</v>
+        <v>1384.5100978771777</v>
       </c>
     </row>
     <row r="1105" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1105">
-        <v>138.47339799020742</v>
+        <v>1384.7339799020742</v>
       </c>
     </row>
     <row r="1106" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1106">
-        <v>138.49533522990146</v>
+        <v>1384.9533522990146</v>
       </c>
     </row>
     <row r="1107" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1107">
-        <v>138.51677199775781</v>
+        <v>1385.1677199775781</v>
       </c>
     </row>
     <row r="1108" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1108">
-        <v>138.53765878473462</v>
+        <v>1385.3765878473462</v>
       </c>
     </row>
     <row r="1109" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1109">
-        <v>138.55794608178977</v>
+        <v>1385.5794608178976</v>
       </c>
     </row>
     <row r="1110" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1110">
-        <v>138.57758437988136</v>
+        <v>1385.7758437988136</v>
       </c>
     </row>
     <row r="1111" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1111">
-        <v>138.5965241699673</v>
+        <v>1385.965241699673</v>
       </c>
     </row>
     <row r="1112" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1112">
-        <v>138.61471594300559</v>
+        <v>1386.147159430056</v>
       </c>
     </row>
     <row r="1113" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1113">
-        <v>138.63211018995432</v>
+        <v>1386.3211018995432</v>
       </c>
     </row>
     <row r="1114" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1114">
-        <v>138.64865740177135</v>
+        <v>1386.4865740177133</v>
       </c>
     </row>
     <row r="1115" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1115">
-        <v>138.66430806941483</v>
+        <v>1386.6430806941482</v>
       </c>
     </row>
     <row r="1116" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1116">
-        <v>138.67901268384264</v>
+        <v>1386.7901268384264</v>
       </c>
     </row>
     <row r="1117" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1117">
-        <v>138.69272173601286</v>
+        <v>1386.9272173601285</v>
       </c>
     </row>
     <row r="1118" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1118">
-        <v>138.70538571688346</v>
+        <v>1387.0538571688346</v>
       </c>
     </row>
     <row r="1119" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1119">
-        <v>138.71695511741237</v>
+        <v>1387.1695511741236</v>
       </c>
     </row>
     <row r="1120" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1120">
-        <v>138.72738042855767</v>
+        <v>1387.2738042855767</v>
       </c>
     </row>
     <row r="1121" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1121">
-        <v>138.73661214127733</v>
+        <v>1387.3661214127733</v>
       </c>
     </row>
     <row r="1122" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1122">
-        <v>138.74460074652941</v>
+        <v>1387.4460074652941</v>
       </c>
     </row>
     <row r="1123" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1123">
-        <v>138.75129673527186</v>
+        <v>1387.5129673527185</v>
       </c>
     </row>
     <row r="1124" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1124">
-        <v>138.75665059846267</v>
+        <v>1387.5665059846267</v>
       </c>
     </row>
     <row r="1125" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1125">
-        <v>138.76061282705984</v>
+        <v>1387.6061282705984</v>
       </c>
     </row>
     <row r="1126" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1126">
-        <v>138.76313391202135</v>
+        <v>1387.6313391202134</v>
       </c>
     </row>
     <row r="1127" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1127">
-        <v>138.76416434430521</v>
+        <v>1387.6416434430521</v>
       </c>
     </row>
     <row r="1128" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1128">
-        <v>138.76392027019489</v>
+        <v>1387.6392027019488</v>
       </c>
     </row>
     <row r="1129" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1129">
-        <v>138.7628882314323</v>
+        <v>1387.6288823143229</v>
       </c>
     </row>
     <row r="1130" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1130">
-        <v>138.76109299349068</v>
+        <v>1387.6109299349068</v>
       </c>
     </row>
     <row r="1131" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1131">
-        <v>138.75854786430384</v>
+        <v>1387.5854786430384</v>
       </c>
     </row>
     <row r="1132" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1132">
-        <v>138.75526615180524</v>
+        <v>1387.5526615180524</v>
       </c>
     </row>
     <row r="1133" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1133">
-        <v>138.75126116392866</v>
+        <v>1387.5126116392867</v>
       </c>
     </row>
     <row r="1134" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1134">
-        <v>138.74654620860767</v>
+        <v>1387.4654620860767</v>
       </c>
     </row>
     <row r="1135" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1135">
-        <v>138.74113459377611</v>
+        <v>1387.4113459377611</v>
       </c>
     </row>
     <row r="1136" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1136">
-        <v>138.73503962736737</v>
+        <v>1387.3503962736736</v>
       </c>
     </row>
     <row r="1137" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1137">
-        <v>138.72827461731526</v>
+        <v>1387.2827461731526</v>
       </c>
     </row>
     <row r="1138" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1138">
-        <v>138.72085287155352</v>
+        <v>1387.2085287155351</v>
       </c>
     </row>
     <row r="1139" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1139">
-        <v>138.71278769801563</v>
+        <v>1387.1278769801563</v>
       </c>
     </row>
     <row r="1140" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1140">
-        <v>138.70409240463536</v>
+        <v>1387.0409240463537</v>
       </c>
     </row>
     <row r="1141" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1141">
-        <v>138.01066631672441</v>
+        <v>1380.1066631672441</v>
       </c>
     </row>
     <row r="1142" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1142">
-        <v>138.00079961634444</v>
+        <v>1380.0079961634444</v>
       </c>
     </row>
     <row r="1143" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1143">
-        <v>137.99034563107344</v>
+        <v>1379.9034563107343</v>
       </c>
     </row>
     <row r="1144" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1144">
-        <v>137.97931760320344</v>
+        <v>1379.7931760320344</v>
       </c>
     </row>
     <row r="1145" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1145">
-        <v>137.96772877502659</v>
+        <v>1379.6772877502658</v>
       </c>
     </row>
     <row r="1146" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1146">
-        <v>137.95559238883502</v>
+        <v>1379.5559238883502</v>
       </c>
     </row>
     <row r="1147" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1147">
-        <v>137.94292168692067</v>
+        <v>1379.4292168692068</v>
       </c>
     </row>
     <row r="1148" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1148">
-        <v>137.92972991157569</v>
+        <v>1379.2972991157569</v>
       </c>
     </row>
     <row r="1149" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1149">
-        <v>137.91603030509219</v>
+        <v>1379.1603030509218</v>
       </c>
     </row>
     <row r="1150" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1150">
-        <v>137.90183610976223</v>
+        <v>1379.0183610976223</v>
       </c>
     </row>
     <row r="1151" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1151">
-        <v>137.88716056787794</v>
+        <v>1378.8716056787794</v>
       </c>
     </row>
     <row r="1152" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1152">
-        <v>137.87201692173139</v>
+        <v>1378.7201692173139</v>
       </c>
     </row>
     <row r="1153" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1153">
-        <v>137.85641841361459</v>
+        <v>1378.564184136146</v>
       </c>
     </row>
     <row r="1154" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1154">
-        <v>137.84037828581978</v>
+        <v>1378.4037828581977</v>
       </c>
     </row>
     <row r="1155" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1155">
-        <v>137.82390978063887</v>
+        <v>1378.2390978063886</v>
       </c>
     </row>
     <row r="1156" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1156">
-        <v>137.807026140364</v>
+        <v>1378.07026140364</v>
       </c>
     </row>
     <row r="1157" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1157">
-        <v>137.78974060728737</v>
+        <v>1377.8974060728738</v>
       </c>
     </row>
     <row r="1158" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1158">
-        <v>137.77206642370092</v>
+        <v>1377.7206642370093</v>
       </c>
     </row>
     <row r="1159" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1159">
-        <v>137.75401683189679</v>
+        <v>1377.540168318968</v>
       </c>
     </row>
     <row r="1160" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1160">
-        <v>137.7356050741671</v>
+        <v>1377.356050741671</v>
       </c>
     </row>
     <row r="1161" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1161">
-        <v>137.71684439280384</v>
+        <v>1377.1684439280384</v>
       </c>
     </row>
     <row r="1162" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1162">
-        <v>137.69774803009921</v>
+        <v>1376.9774803009921</v>
       </c>
     </row>
     <row r="1163" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1163">
-        <v>137.67832922834521</v>
+        <v>1376.7832922834521</v>
       </c>
     </row>
     <row r="1164" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1164">
-        <v>137.65860122983398</v>
+        <v>1376.5860122983397</v>
       </c>
     </row>
     <row r="1165" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1165">
-        <v>137.63857727685755</v>
+        <v>1376.3857727685754</v>
       </c>
     </row>
     <row r="1166" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1166">
-        <v>137.61827061170808</v>
+        <v>1376.1827061170809</v>
       </c>
     </row>
     <row r="1167" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1167">
-        <v>137.59769447667762</v>
+        <v>1375.9769447667761</v>
       </c>
     </row>
     <row r="1168" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1168">
-        <v>137.57686211405826</v>
+        <v>1375.7686211405826</v>
       </c>
     </row>
     <row r="1169" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1169">
-        <v>137.55578676614203</v>
+        <v>1375.5578676614205</v>
       </c>
     </row>
     <row r="1170" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1170">
-        <v>137.53448167522103</v>
+        <v>1375.3448167522104</v>
       </c>
     </row>
     <row r="1171" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1171">
-        <v>137.51296008358744</v>
+        <v>1375.1296008358745</v>
       </c>
     </row>
     <row r="1172" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1172">
-        <v>137.49123523353325</v>
+        <v>1374.9123523353323</v>
       </c>
     </row>
     <row r="1173" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1173">
-        <v>137.46932036735058</v>
+        <v>1374.6932036735056</v>
       </c>
     </row>
     <row r="1174" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1174">
-        <v>137.44722872733149</v>
+        <v>1374.472287273315</v>
       </c>
     </row>
     <row r="1175" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1175">
-        <v>137.42497355576808</v>
+        <v>1374.2497355576807</v>
       </c>
     </row>
     <row r="1176" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1176">
-        <v>137.4025680949525</v>
+        <v>1374.0256809495249</v>
       </c>
     </row>
     <row r="1177" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1177">
-        <v>137.38002558717679</v>
+        <v>1373.8002558717678</v>
       </c>
     </row>
     <row r="1178" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1178">
-        <v>137.35735927473294</v>
+        <v>1373.5735927473295</v>
       </c>
     </row>
     <row r="1179" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1179">
-        <v>137.33458239991319</v>
+        <v>1373.3458239991319</v>
       </c>
     </row>
     <row r="1180" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1180">
-        <v>137.31170820500952</v>
+        <v>1373.1170820500952</v>
       </c>
     </row>
     <row r="1181" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1181">
-        <v>137.28874993231406</v>
+        <v>1372.8874993231407</v>
       </c>
     </row>
     <row r="1182" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1182">
-        <v>137.26572082411883</v>
+        <v>1372.6572082411883</v>
       </c>
     </row>
     <row r="1183" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1183">
-        <v>137.242634122716</v>
+        <v>1372.42634122716</v>
       </c>
     </row>
     <row r="1184" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1184">
-        <v>137.21950307039759</v>
+        <v>1372.195030703976</v>
       </c>
     </row>
     <row r="1185" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1185">
-        <v>137.19634090945578</v>
+        <v>1371.9634090945578</v>
       </c>
     </row>
     <row r="1186" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1186">
-        <v>137.17316088218257</v>
+        <v>1371.7316088218258</v>
       </c>
     </row>
     <row r="1187" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1187">
-        <v>137.14997623087007</v>
+        <v>1371.4997623087006</v>
       </c>
     </row>
     <row r="1188" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1188">
-        <v>137.12680019781035</v>
+        <v>1371.2680019781035</v>
       </c>
     </row>
     <row r="1189" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1189">
-        <v>137.10364602529546</v>
+        <v>1371.0364602529546</v>
       </c>
     </row>
     <row r="1190" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1190">
-        <v>137.08049422954267</v>
+        <v>1370.8049422954266</v>
       </c>
     </row>
     <row r="1191" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1191">
-        <v>137.05669199524471</v>
+        <v>1370.5669199524471</v>
       </c>
     </row>
     <row r="1192" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1192">
-        <v>137.03199081322015</v>
+        <v>1370.3199081322014</v>
       </c>
     </row>
     <row r="1193" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1193">
-        <v>137.00640498873076</v>
+        <v>1370.0640498873076</v>
       </c>
     </row>
     <row r="1194" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1194">
-        <v>136.97994882703861</v>
+        <v>1369.7994882703861</v>
       </c>
     </row>
     <row r="1195" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1195">
-        <v>136.9526366334054</v>
+        <v>1369.526366334054</v>
       </c>
     </row>
     <row r="1196" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1196">
-        <v>136.92448271309323</v>
+        <v>1369.2448271309322</v>
       </c>
     </row>
     <row r="1197" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1197">
-        <v>136.89550137136388</v>
+        <v>1368.9550137136389</v>
       </c>
     </row>
     <row r="1198" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1198">
-        <v>136.8657069134793</v>
+        <v>1368.6570691347929</v>
       </c>
     </row>
     <row r="1199" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1199">
-        <v>136.83511364470127</v>
+        <v>1368.3511364470128</v>
       </c>
     </row>
     <row r="1200" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1200">
-        <v>136.80373587029183</v>
+        <v>1368.0373587029183</v>
       </c>
     </row>
     <row r="1201" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1201">
-        <v>136.09751833709052</v>
+        <v>1360.9751833709051</v>
       </c>
     </row>
     <row r="1202" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1202">
-        <v>136.06477663171032</v>
+        <v>1360.6477663171031</v>
       </c>
     </row>
     <row r="1203" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1203">
-        <v>136.03129699135997</v>
+        <v>1360.3129699135998</v>
       </c>
     </row>
     <row r="1204" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1204">
-        <v>135.99709365079886</v>
+        <v>1359.9709365079887</v>
       </c>
     </row>
     <row r="1205" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1205">
-        <v>135.96218084478636</v>
+        <v>1359.6218084478637</v>
       </c>
     </row>
     <row r="1206" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1206">
-        <v>135.92657280808189</v>
+        <v>1359.2657280808189</v>
       </c>
     </row>
     <row r="1207" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1207">
-        <v>135.89028377544474</v>
+        <v>1358.9028377544473</v>
       </c>
     </row>
     <row r="1208" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1208">
-        <v>135.85332798163441</v>
+        <v>1358.533279816344</v>
       </c>
     </row>
     <row r="1209" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1209">
-        <v>135.81571966141013</v>
+        <v>1358.1571966141014</v>
       </c>
     </row>
     <row r="1210" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1210">
-        <v>135.77747304953141</v>
+        <v>1357.7747304953141</v>
       </c>
     </row>
     <row r="1211" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1211">
-        <v>135.73860238075758</v>
+        <v>1357.3860238075758</v>
       </c>
     </row>
     <row r="1212" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1212">
-        <v>135.69912188984807</v>
+        <v>1356.9912188984808</v>
       </c>
     </row>
     <row r="1213" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1213">
-        <v>135.65904581156215</v>
+        <v>1356.5904581156215</v>
       </c>
     </row>
     <row r="1214" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1214">
-        <v>135.61838838065933</v>
+        <v>1356.1838838065933</v>
       </c>
     </row>
     <row r="1215" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1215">
-        <v>135.57716383189884</v>
+        <v>1355.7716383189884</v>
       </c>
     </row>
     <row r="1216" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1216">
-        <v>135.53538640004021</v>
+        <v>1355.3538640004022</v>
       </c>
     </row>
     <row r="1217" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1217">
-        <v>135.49307031984276</v>
+        <v>1354.9307031984276</v>
       </c>
     </row>
     <row r="1218" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1218">
-        <v>135.45022982606585</v>
+        <v>1354.5022982606586</v>
       </c>
     </row>
     <row r="1219" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1219">
-        <v>135.40687915346894</v>
+        <v>1354.0687915346894</v>
       </c>
     </row>
     <row r="1220" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1220">
-        <v>135.36303253681129</v>
+        <v>1353.6303253681128</v>
       </c>
     </row>
     <row r="1221" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1221">
-        <v>135.31870421085227</v>
+        <v>1353.1870421085227</v>
       </c>
     </row>
     <row r="1222" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1222">
-        <v>135.27390841035145</v>
+        <v>1352.7390841035144</v>
       </c>
     </row>
     <row r="1223" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1223">
-        <v>135.22865937006804</v>
+        <v>1352.2865937006804</v>
       </c>
     </row>
     <row r="1224" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1224">
-        <v>135.18297132476147</v>
+        <v>1351.8297132476146</v>
       </c>
     </row>
     <row r="1225" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1225">
-        <v>135.13685850919117</v>
+        <v>1351.3685850919117</v>
       </c>
     </row>
     <row r="1226" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1226">
-        <v>135.09033515811649</v>
+        <v>1350.9033515811648</v>
       </c>
     </row>
     <row r="1227" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1227">
-        <v>135.04341550629667</v>
+        <v>1350.4341550629667</v>
       </c>
     </row>
     <row r="1228" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1228">
-        <v>134.99611378849136</v>
+        <v>1349.9611378849136</v>
       </c>
     </row>
     <row r="1229" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1229">
-        <v>134.94844423945969</v>
+        <v>1349.484442394597</v>
       </c>
     </row>
     <row r="1230" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1230">
-        <v>134.90042109396114</v>
+        <v>1349.0042109396113</v>
       </c>
     </row>
     <row r="1231" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1231">
-        <v>134.85205858675511</v>
+        <v>1348.5205858675511</v>
       </c>
     </row>
     <row r="1232" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1232">
-        <v>134.80337095260103</v>
+        <v>1348.0337095260102</v>
       </c>
     </row>
     <row r="1233" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1233">
-        <v>134.75437242625819</v>
+        <v>1347.5437242625819</v>
       </c>
     </row>
     <row r="1234" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1234">
-        <v>134.70507724248594</v>
+        <v>1347.0507724248594</v>
       </c>
     </row>
     <row r="1235" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1235">
-        <v>134.65549963604377</v>
+        <v>1346.5549963604376</v>
       </c>
     </row>
     <row r="1236" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1236">
-        <v>134.60565384169098</v>
+        <v>1346.0565384169099</v>
       </c>
     </row>
     <row r="1237" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1237">
-        <v>134.55555409418702</v>
+        <v>1345.5555409418703</v>
       </c>
     </row>
     <row r="1238" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1238">
-        <v>134.50521462829116</v>
+        <v>1345.0521462829115</v>
       </c>
     </row>
     <row r="1239" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1239">
-        <v>134.45464967876285</v>
+        <v>1344.5464967876285</v>
       </c>
     </row>
     <row r="1240" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1240">
-        <v>134.40387348036157</v>
+        <v>1344.0387348036156</v>
       </c>
     </row>
     <row r="1241" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1241">
-        <v>134.35290026784654</v>
+        <v>1343.5290026784653</v>
       </c>
     </row>
     <row r="1242" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1242">
-        <v>134.3017442759772</v>
+        <v>1343.0174427597719</v>
       </c>
     </row>
     <row r="1243" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1243">
-        <v>134.25041973951295</v>
+        <v>1342.5041973951295</v>
       </c>
     </row>
     <row r="1244" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1244">
-        <v>134.19894089321309</v>
+        <v>1341.989408932131</v>
       </c>
     </row>
     <row r="1245" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1245">
-        <v>134.14732197183716</v>
+        <v>1341.4732197183716</v>
       </c>
     </row>
     <row r="1246" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1246">
-        <v>134.0955772101444</v>
+        <v>1340.9557721014439</v>
       </c>
     </row>
     <row r="1247" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1247">
-        <v>134.04372084289423</v>
+        <v>1340.4372084289423</v>
       </c>
     </row>
     <row r="1248" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1248">
-        <v>133.99176710484593</v>
+        <v>1339.9176710484594</v>
       </c>
     </row>
     <row r="1249" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1249">
-        <v>133.93973023075915</v>
+        <v>1339.3973023075914</v>
       </c>
     </row>
     <row r="1250" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1250">
-        <v>133.88762445539302</v>
+        <v>1338.8762445539303</v>
       </c>
     </row>
     <row r="1251" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1251">
-        <v>133.83546401350705</v>
+        <v>1338.3546401350704</v>
       </c>
     </row>
     <row r="1252" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1252">
-        <v>133.78326313986048</v>
+        <v>1337.8326313986049</v>
       </c>
     </row>
     <row r="1253" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1253">
-        <v>133.73071493029843</v>
+        <v>1337.3071493029843</v>
       </c>
     </row>
     <row r="1254" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1254">
-        <v>133.67690148778968</v>
+        <v>1336.7690148778968</v>
       </c>
     </row>
     <row r="1255" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1255">
-        <v>133.6218011959206</v>
+        <v>1336.218011959206</v>
       </c>
     </row>
     <row r="1256" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1256">
-        <v>133.56545430794461</v>
+        <v>1335.6545430794461</v>
       </c>
     </row>
     <row r="1257" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1257">
-        <v>133.50790107711509</v>
+        <v>1335.0790107711509</v>
       </c>
     </row>
     <row r="1258" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1258">
-        <v>133.44918175668559</v>
+        <v>1334.4918175668558</v>
       </c>
     </row>
     <row r="1259" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1259">
-        <v>133.38933659990946</v>
+        <v>1333.8933659990946</v>
       </c>
     </row>
     <row r="1260" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1260">
-        <v>133.32840586004016</v>
+        <v>1333.2840586004017</v>
       </c>
     </row>
     <row r="1261" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1261">
-        <v>132.58501878654198</v>
+        <v>1325.8501878654197</v>
       </c>
     </row>
     <row r="1262" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1262">
-        <v>132.52235967218058</v>
+        <v>1325.2235967218057</v>
       </c>
     </row>
     <row r="1263" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1263">
-        <v>132.458740667771</v>
+        <v>1324.5874066777101</v>
       </c>
     </row>
     <row r="1264" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1264">
-        <v>132.39420182074576</v>
+        <v>1323.9420182074577</v>
       </c>
     </row>
     <row r="1265" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1265">
-        <v>132.32878317853752</v>
+        <v>1323.2878317853751</v>
       </c>
     </row>
     <row r="1266" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1266">
-        <v>132.26252478857884</v>
+        <v>1322.6252478857884</v>
       </c>
     </row>
     <row r="1267" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1267">
-        <v>132.19546669830228</v>
+        <v>1321.9546669830229</v>
       </c>
     </row>
     <row r="1268" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1268">
-        <v>132.12764895514044</v>
+        <v>1321.2764895514044</v>
       </c>
     </row>
     <row r="1269" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1269">
-        <v>132.05911160652587</v>
+        <v>1320.5911160652588</v>
       </c>
     </row>
     <row r="1270" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1270">
-        <v>131.98989469989121</v>
+        <v>1319.8989469989122</v>
       </c>
     </row>
     <row r="1271" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1271">
-        <v>131.92003828266886</v>
+        <v>1319.2003828266886</v>
       </c>
     </row>
     <row r="1272" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1272">
-        <v>131.84958240229176</v>
+        <v>1318.4958240229175</v>
       </c>
     </row>
     <row r="1273" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1273">
-        <v>131.77856710619213</v>
+        <v>1317.7856710619212</v>
       </c>
     </row>
     <row r="1274" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1274">
-        <v>131.7070324418028</v>
+        <v>1317.0703244180279</v>
       </c>
     </row>
     <row r="1275" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1275">
-        <v>131.63501845655628</v>
+        <v>1316.3501845655628</v>
       </c>
     </row>
     <row r="1276" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1276">
-        <v>131.56256519788514</v>
+        <v>1315.6256519788512</v>
       </c>
     </row>
     <row r="1277" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1277">
-        <v>131.48971271322185</v>
+        <v>1314.8971271322184</v>
       </c>
     </row>
     <row r="1278" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1278">
-        <v>131.41650104999923</v>
+        <v>1314.1650104999921</v>
       </c>
     </row>
     <row r="1279" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1279">
-        <v>131.34297025564962</v>
+        <v>1313.4297025564961</v>
       </c>
     </row>
     <row r="1280" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1280">
-        <v>131.26916037760577</v>
+        <v>1312.6916037760577</v>
       </c>
     </row>
     <row r="1281" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1281">
-        <v>131.19511146330018</v>
+        <v>1311.9511146330019</v>
       </c>
     </row>
     <row r="1282" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1282">
-        <v>131.12086356016553</v>
+        <v>1311.2086356016553</v>
       </c>
     </row>
     <row r="1283" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1283">
-        <v>131.04645671563435</v>
+        <v>1310.4645671563435</v>
       </c>
     </row>
     <row r="1284" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1284">
-        <v>130.97193097713912</v>
+        <v>1309.7193097713912</v>
       </c>
     </row>
     <row r="1285" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1285">
-        <v>130.89732639211255</v>
+        <v>1308.9732639211254</v>
       </c>
     </row>
     <row r="1286" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1286">
-        <v>130.82268300798719</v>
+        <v>1308.2268300798719</v>
       </c>
     </row>
     <row r="1287" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1287">
-        <v>130.74804087219565</v>
+        <v>1307.4804087219563</v>
       </c>
     </row>
     <row r="1288" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1288">
-        <v>130.67344003217042</v>
+        <v>1306.7344003217042</v>
       </c>
     </row>
     <row r="1289" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1289">
-        <v>130.59892053534412</v>
+        <v>1305.9892053534413</v>
       </c>
     </row>
     <row r="1290" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1290">
-        <v>130.52452242914944</v>
+        <v>1305.2452242914944</v>
       </c>
     </row>
     <row r="1291" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1291">
-        <v>130.45028576101879</v>
+        <v>1304.5028576101879</v>
       </c>
     </row>
     <row r="1292" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1292">
-        <v>130.37625057838488</v>
+        <v>1303.7625057838488</v>
       </c>
     </row>
     <row r="1293" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1293">
-        <v>130.3024569286803</v>
+        <v>1303.0245692868029</v>
       </c>
     </row>
     <row r="1294" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1294">
-        <v>130.22894485933759</v>
+        <v>1302.2894485933759</v>
       </c>
     </row>
     <row r="1295" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1295">
-        <v>130.15575441778924</v>
+        <v>1301.5575441778924</v>
       </c>
     </row>
     <row r="1296" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1296">
-        <v>130.08292565146806</v>
+        <v>1300.8292565146805</v>
       </c>
     </row>
     <row r="1297" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1297">
-        <v>130.0104986078064</v>
+        <v>1300.104986078064</v>
       </c>
     </row>
     <row r="1298" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1298">
-        <v>129.93851333423694</v>
+        <v>1299.3851333423695</v>
       </c>
     </row>
     <row r="1299" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1299">
-        <v>129.86700987819228</v>
+        <v>1298.6700987819227</v>
       </c>
     </row>
     <row r="1300" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1300">
-        <v>129.79602828710503</v>
+        <v>1297.9602828710504</v>
       </c>
     </row>
     <row r="1301" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1301">
-        <v>129.72560860840764</v>
+        <v>1297.2560860840763</v>
       </c>
     </row>
     <row r="1302" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1302">
-        <v>129.65579088953285</v>
+        <v>1296.5579088953286</v>
       </c>
     </row>
     <row r="1303" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1303">
-        <v>129.58661517791316</v>
+        <v>1295.8661517791315</v>
       </c>
     </row>
     <row r="1304" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1304">
-        <v>129.51812152098114</v>
+        <v>1295.1812152098114</v>
       </c>
     </row>
     <row r="1305" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1305">
-        <v>129.45034996616948</v>
+        <v>1294.5034996616948</v>
       </c>
     </row>
     <row r="1306" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1306">
-        <v>129.38334056091054</v>
+        <v>1293.8334056091053</v>
       </c>
     </row>
     <row r="1307" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1307">
-        <v>129.31713335263717</v>
+        <v>1293.1713335263717</v>
       </c>
     </row>
     <row r="1308" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1308">
-        <v>129.25176838878173</v>
+        <v>1292.5176838878174</v>
       </c>
     </row>
     <row r="1309" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1309">
-        <v>129.18728571677701</v>
+        <v>1291.8728571677702</v>
       </c>
     </row>
     <row r="1310" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1310">
-        <v>129.1237253840554</v>
+        <v>1291.2372538405541</v>
       </c>
     </row>
     <row r="1311" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1311">
-        <v>129.06112743804965</v>
+        <v>1290.6112743804965</v>
       </c>
     </row>
     <row r="1312" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1312">
-        <v>128.99953192619219</v>
+        <v>1289.9953192619218</v>
       </c>
     </row>
     <row r="1313" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1313">
-        <v>128.93897889591571</v>
+        <v>1289.3897889591572</v>
       </c>
     </row>
     <row r="1314" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1314">
-        <v>128.8795083946527</v>
+        <v>1288.795083946527</v>
       </c>
     </row>
     <row r="1315" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1315">
-        <v>128.82115336514815</v>
+        <v>1288.2115336514814</v>
       </c>
     </row>
     <row r="1316" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1316">
-        <v>128.76343212950783</v>
+        <v>1287.6343212950783</v>
       </c>
     </row>
     <row r="1317" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1317">
-        <v>128.70603040445454</v>
+        <v>1287.0603040445453</v>
       </c>
     </row>
     <row r="1318" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1318">
-        <v>128.64894410942574</v>
+        <v>1286.4894410942575</v>
       </c>
     </row>
     <row r="1319" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1319">
-        <v>128.59216916385898</v>
+        <v>1285.9216916385899</v>
       </c>
     </row>
     <row r="1320" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1320">
-        <v>128.53570148719163</v>
+        <v>1285.3570148719164</v>
       </c>
     </row>
     <row r="1321" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1321">
-        <v>128.83370744977796</v>
+        <v>1288.3370744977797</v>
       </c>
     </row>
     <row r="1322" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1322">
-        <v>128.77768806907943</v>
+        <v>1287.7768806907943</v>
       </c>
     </row>
     <row r="1323" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1323">
-        <v>128.72196452887349</v>
+        <v>1287.2196452887349</v>
       </c>
     </row>
     <row r="1324" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1324">
-        <v>128.66653273734906</v>
+        <v>1286.6653273734905</v>
       </c>
     </row>
     <row r="1325" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1325">
-        <v>128.61138860269494</v>
+        <v>1286.1138860269493</v>
       </c>
     </row>
     <row r="1326" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1326">
-        <v>128.55652803310014</v>
+        <v>1285.5652803310013</v>
       </c>
     </row>
     <row r="1327" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1327">
-        <v>128.50194693675343</v>
+        <v>1285.0194693675344</v>
       </c>
     </row>
     <row r="1328" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1328">
-        <v>128.44764122184378</v>
+        <v>1284.4764122184379</v>
       </c>
     </row>
     <row r="1329" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1329">
-        <v>128.39360679656011</v>
+        <v>1283.9360679656011</v>
       </c>
     </row>
     <row r="1330" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1330">
-        <v>128.33983956909114</v>
+        <v>1283.3983956909115</v>
       </c>
     </row>
     <row r="1331" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1331">
-        <v>128.28633544762596</v>
+        <v>1282.8633544762597</v>
       </c>
     </row>
     <row r="1332" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1332">
-        <v>128.2330903403533</v>
+        <v>1282.3309034035331</v>
       </c>
     </row>
     <row r="1333" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1333">
-        <v>128.18010015546221</v>
+        <v>1281.8010015546222</v>
       </c>
     </row>
     <row r="1334" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1334">
-        <v>128.12736080114144</v>
+        <v>1281.2736080114144</v>
       </c>
     </row>
     <row r="1335" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1335">
-        <v>128.07486818557999</v>
+        <v>1280.7486818558</v>
       </c>
     </row>
     <row r="1336" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1336">
-        <v>128.02261821696666</v>
+        <v>1280.2261821696666</v>
       </c>
     </row>
     <row r="1337" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1337">
-        <v>127.97060680349036</v>
+        <v>1279.7060680349036</v>
       </c>
     </row>
     <row r="1338" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1338">
-        <v>127.91882985333996</v>
+        <v>1279.1882985333996</v>
       </c>
     </row>
     <row r="1339" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1339">
-        <v>127.86728327470448</v>
+        <v>1278.6728327470448</v>
       </c>
     </row>
     <row r="1340" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1340">
-        <v>127.81596297577265</v>
+        <v>1278.1596297577264</v>
       </c>
     </row>
     <row r="1341" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1341">
-        <v>127.76486486473337</v>
+        <v>1277.6486486473336</v>
       </c>
     </row>
     <row r="1342" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1342">
-        <v>127.71398484977568</v>
+        <v>1277.1398484977569</v>
       </c>
     </row>
     <row r="1343" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1343">
-        <v>127.66331883908839</v>
+        <v>1276.6331883908838</v>
       </c>
     </row>
     <row r="1344" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1344">
-        <v>127.61286274086024</v>
+        <v>1276.1286274086024</v>
       </c>
     </row>
     <row r="1345" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1345">
-        <v>127.56261246328039</v>
+        <v>1275.6261246328038</v>
       </c>
     </row>
     <row r="1346" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1346">
-        <v>127.51256391453749</v>
+        <v>1275.1256391453749</v>
       </c>
     </row>
     <row r="1347" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1347">
-        <v>127.46271300282059</v>
+        <v>1274.627130028206</v>
       </c>
     </row>
     <row r="1348" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1348">
-        <v>127.4130556363185</v>
+        <v>1274.130556363185</v>
       </c>
     </row>
     <row r="1349" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1349">
-        <v>127.36358772322015</v>
+        <v>1273.6358772322014</v>
       </c>
     </row>
     <row r="1350" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1350">
-        <v>127.31430517171441</v>
+        <v>1273.1430517171441</v>
       </c>
     </row>
     <row r="1351" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1351">
-        <v>127.26520388999015</v>
+        <v>1272.6520388999015</v>
       </c>
     </row>
     <row r="1352" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1352">
-        <v>127.21627978623624</v>
+        <v>1272.1627978623624</v>
       </c>
     </row>
     <row r="1353" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1353">
-        <v>127.1675287686417</v>
+        <v>1271.6752876864171</v>
       </c>
     </row>
     <row r="1354" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1354">
-        <v>127.11894674539523</v>
+        <v>1271.1894674539524</v>
       </c>
     </row>
     <row r="1355" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1355">
-        <v>127.07052962468593</v>
+        <v>1270.7052962468592</v>
       </c>
     </row>
     <row r="1356" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1356">
-        <v>127.02227331470252</v>
+        <v>1270.2227331470251</v>
       </c>
     </row>
     <row r="1357" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1357">
-        <v>126.97417372363392</v>
+        <v>1269.7417372363393</v>
       </c>
     </row>
     <row r="1358" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1358">
-        <v>126.92622675966906</v>
+        <v>1269.2622675966907</v>
       </c>
     </row>
     <row r="1359" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1359">
-        <v>126.87842833099685</v>
+        <v>1268.7842833099685</v>
       </c>
     </row>
     <row r="1360" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1360">
-        <v>126.83077434580615</v>
+        <v>1268.3077434580614</v>
       </c>
     </row>
     <row r="1361" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1361">
-        <v>126.78326071228578</v>
+        <v>1267.8326071228578</v>
       </c>
     </row>
     <row r="1362" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1362">
-        <v>126.73588333862477</v>
+        <v>1267.3588333862476</v>
       </c>
     </row>
     <row r="1363" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1363">
-        <v>126.68863813301191</v>
+        <v>1266.8863813301191</v>
       </c>
     </row>
     <row r="1364" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1364">
-        <v>126.64152100363614</v>
+        <v>1266.4152100363615</v>
       </c>
     </row>
     <row r="1365" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1365">
-        <v>126.59452785868626</v>
+        <v>1265.9452785868625</v>
       </c>
     </row>
     <row r="1366" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1366">
-        <v>126.54765460635124</v>
+        <v>1265.4765460635124</v>
       </c>
     </row>
     <row r="1367" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1367">
-        <v>126.50089715482001</v>
+        <v>1265.0089715482002</v>
       </c>
     </row>
     <row r="1368" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1368">
-        <v>126.45425141228142</v>
+        <v>1264.5425141228143</v>
       </c>
     </row>
     <row r="1369" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1369">
-        <v>126.40771328692428</v>
+        <v>1264.0771328692429</v>
       </c>
     </row>
     <row r="1370" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1370">
-        <v>126.36127868693761</v>
+        <v>1263.6127868693761</v>
       </c>
     </row>
     <row r="1371" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1371">
-        <v>126.31494352051021</v>
+        <v>1263.1494352051022</v>
       </c>
     </row>
     <row r="1372" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1372">
-        <v>126.26870369583096</v>
+        <v>1262.6870369583096</v>
       </c>
     </row>
     <row r="1373" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1373">
-        <v>126.22255512108882</v>
+        <v>1262.2255512108882</v>
       </c>
     </row>
     <row r="1374" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1374">
-        <v>126.17649370447259</v>
+        <v>1261.7649370447259</v>
       </c>
     </row>
     <row r="1375" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1375">
-        <v>126.13051535417129</v>
+        <v>1261.305153541713</v>
       </c>
     </row>
     <row r="1376" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1376">
-        <v>126.08461597837369</v>
+        <v>1260.846159783737</v>
       </c>
     </row>
     <row r="1377" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1377">
-        <v>126.03879148526875</v>
+        <v>1260.3879148526876</v>
       </c>
     </row>
     <row r="1378" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1378">
-        <v>125.9930451120246</v>
+        <v>1259.9304511202461</v>
       </c>
     </row>
     <row r="1379" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1379">
-        <v>125.9474089172526</v>
+        <v>1259.474089172526</v>
       </c>
     </row>
     <row r="1380" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1380">
-        <v>125.90188773324755</v>
+        <v>1259.0188773324755</v>
       </c>
     </row>
     <row r="1381" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1381">
-        <v>125.94122885846387</v>
+        <v>1259.4122885846386</v>
       </c>
     </row>
     <row r="1382" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1382">
-        <v>125.89590913462368</v>
+        <v>1258.9590913462368</v>
       </c>
     </row>
     <row r="1383" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1383">
-        <v>125.85070643485811</v>
+        <v>1258.507064348581</v>
       </c>
     </row>
     <row r="1384" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1384">
-        <v>125.80562140445521</v>
+        <v>1258.056214044552</v>
       </c>
     </row>
     <row r="1385" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1385">
-        <v>125.76065468870291</v>
+        <v>1257.6065468870293</v>
       </c>
     </row>
     <row r="1386" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1386">
-        <v>125.71580693288948</v>
+        <v>1257.1580693288947</v>
       </c>
     </row>
     <row r="1387" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1387">
-        <v>125.67107878230269</v>
+        <v>1256.7107878230267</v>
       </c>
     </row>
     <row r="1388" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1388">
-        <v>125.62647088223082</v>
+        <v>1256.2647088223082</v>
       </c>
     </row>
     <row r="1389" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1389">
-        <v>125.58198387796183</v>
+        <v>1255.8198387796183</v>
       </c>
     </row>
     <row r="1390" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1390">
-        <v>125.53761841478376</v>
+        <v>1255.3761841478376</v>
       </c>
     </row>
     <row r="1391" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1391">
-        <v>125.49337513798464</v>
+        <v>1254.9337513798464</v>
       </c>
     </row>
     <row r="1392" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1392">
-        <v>125.44925469285251</v>
+        <v>1254.4925469285251</v>
       </c>
     </row>
     <row r="1393" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1393">
-        <v>125.40525772467552</v>
+        <v>1254.0525772467552</v>
       </c>
     </row>
     <row r="1394" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1394">
-        <v>125.36138487874157</v>
+        <v>1253.6138487874157</v>
       </c>
     </row>
     <row r="1395" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1395">
-        <v>125.31763680033887</v>
+        <v>1253.1763680033887</v>
       </c>
     </row>
     <row r="1396" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1396">
-        <v>125.27401413475536</v>
+        <v>1252.7401413475536</v>
       </c>
     </row>
     <row r="1397" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1397">
-        <v>125.23051752727908</v>
+        <v>1252.3051752727908</v>
       </c>
     </row>
     <row r="1398" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1398">
-        <v>125.1871476231981</v>
+        <v>1251.871476231981</v>
       </c>
     </row>
     <row r="1399" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1399">
-        <v>125.14390506780047</v>
+        <v>1251.4390506780048</v>
       </c>
     </row>
     <row r="1400" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1400">
-        <v>125.10079050637428</v>
+        <v>1251.0079050637428</v>
       </c>
     </row>
     <row r="1401" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1401">
-        <v>125.0578045842075</v>
+        <v>1250.578045842075</v>
       </c>
     </row>
     <row r="1402" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1402">
-        <v>125.01494794658821</v>
+        <v>1250.149479465882</v>
       </c>
     </row>
     <row r="1403" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1403">
-        <v>124.97222123880449</v>
+        <v>1249.7222123880449</v>
       </c>
     </row>
     <row r="1404" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1404">
-        <v>124.92962510614434</v>
+        <v>1249.2962510614434</v>
       </c>
     </row>
     <row r="1405" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1405">
-        <v>124.88716019389584</v>
+        <v>1248.8716019389583</v>
       </c>
     </row>
     <row r="1406" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1406">
-        <v>124.84482714734699</v>
+        <v>1248.44827147347</v>
       </c>
     </row>
     <row r="1407" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1407">
-        <v>124.80262661178588</v>
+        <v>1248.0262661178588</v>
       </c>
     </row>
     <row r="1408" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1408">
-        <v>124.76055923250061</v>
+        <v>1247.605592325006</v>
       </c>
     </row>
     <row r="1409" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1409">
-        <v>124.7186256547791</v>
+        <v>1247.1862565477911</v>
       </c>
     </row>
     <row r="1410" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1410">
-        <v>124.67682652390944</v>
+        <v>1246.7682652390945</v>
       </c>
     </row>
     <row r="1411" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1411">
-        <v>124.63516248517981</v>
+        <v>1246.3516248517981</v>
       </c>
     </row>
     <row r="1412" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1412">
-        <v>124.59363418387807</v>
+        <v>1245.9363418387807</v>
       </c>
     </row>
     <row r="1413" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1413">
-        <v>124.55224226529234</v>
+        <v>1245.5224226529233</v>
       </c>
     </row>
     <row r="1414" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1414">
-        <v>124.51098737471062</v>
+        <v>1245.1098737471061</v>
       </c>
     </row>
     <row r="1415" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1415">
-        <v>124.46987015742116</v>
+        <v>1244.6987015742116</v>
       </c>
     </row>
     <row r="1416" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1416">
-        <v>124.42889125871173</v>
+        <v>1244.2889125871172</v>
       </c>
     </row>
     <row r="1417" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1417">
-        <v>124.38805132387057</v>
+        <v>1243.8805132387056</v>
       </c>
     </row>
     <row r="1418" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1418">
-        <v>124.34735099818566</v>
+        <v>1243.4735099818565</v>
       </c>
     </row>
     <row r="1419" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1419">
-        <v>124.30679092694497</v>
+        <v>1243.0679092694497</v>
       </c>
     </row>
     <row r="1420" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1420">
-        <v>124.26637175543669</v>
+        <v>1242.6637175543669</v>
       </c>
     </row>
     <row r="1421" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1421">
-        <v>124.22609412894883</v>
+        <v>1242.2609412894883</v>
       </c>
     </row>
     <row r="1422" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1422">
-        <v>124.18595869276933</v>
+        <v>1241.8595869276933</v>
       </c>
     </row>
     <row r="1423" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1423">
-        <v>124.14596609218638</v>
+        <v>1241.4596609218638</v>
       </c>
     </row>
     <row r="1424" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1424">
-        <v>124.10611697248795</v>
+        <v>1241.0611697248796</v>
       </c>
     </row>
     <row r="1425" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1425">
-        <v>124.06641197896205</v>
+        <v>1240.6641197896206</v>
       </c>
     </row>
     <row r="1426" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1426">
-        <v>124.02685175689685</v>
+        <v>1240.2685175689685</v>
       </c>
     </row>
     <row r="1427" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1427">
-        <v>123.98743695158029</v>
+        <v>1239.874369515803</v>
       </c>
     </row>
     <row r="1428" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1428">
-        <v>123.9481682083005</v>
+        <v>1239.4816820830051</v>
       </c>
     </row>
     <row r="1429" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1429">
-        <v>123.90904617234547</v>
+        <v>1239.0904617234546</v>
       </c>
     </row>
     <row r="1430" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1430">
-        <v>123.87007148900321</v>
+        <v>1238.700714890032</v>
       </c>
     </row>
     <row r="1431" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1431">
-        <v>123.83124480356184</v>
+        <v>1238.3124480356184</v>
       </c>
     </row>
     <row r="1432" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1432">
-        <v>123.79256676130939</v>
+        <v>1237.925667613094</v>
       </c>
     </row>
     <row r="1433" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1433">
-        <v>123.75403800753389</v>
+        <v>1237.5403800753388</v>
       </c>
     </row>
     <row r="1434" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1434">
-        <v>123.7156591875234</v>
+        <v>1237.156591875234</v>
       </c>
     </row>
     <row r="1435" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1435">
-        <v>123.67743094656601</v>
+        <v>1236.7743094656601</v>
       </c>
     </row>
     <row r="1436" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1436">
-        <v>123.63935392994964</v>
+        <v>1236.3935392994963</v>
       </c>
     </row>
     <row r="1437" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1437">
-        <v>123.6014287829625</v>
+        <v>1236.0142878296251</v>
       </c>
     </row>
     <row r="1438" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1438">
-        <v>123.56365615089253</v>
+        <v>1235.6365615089253</v>
       </c>
     </row>
     <row r="1439" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1439">
-        <v>123.52603667902775</v>
+        <v>1235.2603667902777</v>
       </c>
     </row>
     <row r="1440" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1440">
-        <v>123.48857101265635</v>
+        <v>1234.8857101265635</v>
       </c>
     </row>
   </sheetData>

--- a/costData.xlsx
+++ b/costData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\가천대학교\2025-1학기\종합설계\정크\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\가천대학교\2025-1학기\종합설계\자료1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D305C9-BB5B-45BF-B76E-C0858592925D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652295D7-B655-4BFC-91C1-D4354AC8E82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7210 +378,7208 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A1440"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>1235.814082689107</v>
+        <v>123.58140826891069</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>1232.858564297811</v>
+        <v>123.28585642978111</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>1229.9153670153833</v>
+        <v>122.99153670153834</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>1226.9850713771173</v>
+        <v>122.69850713771173</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>1224.0682579183062</v>
+        <v>122.40682579183061</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>1221.165507174243</v>
+        <v>122.1165507174243</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>1218.2773996802214</v>
+        <v>121.82773996802214</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>1215.404515971534</v>
+        <v>121.54045159715339</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>1212.5474365834752</v>
+        <v>121.25474365834752</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>1209.7067420513376</v>
+        <v>120.97067420513376</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>1206.8830129104144</v>
+        <v>120.68830129104145</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>1204.0768296959995</v>
+        <v>120.40768296959995</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>1201.2887729433853</v>
+        <v>120.12887729433852</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>1198.5194231878656</v>
+        <v>119.85194231878656</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>1195.7693609647331</v>
+        <v>119.57693609647332</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>1193.0391668092825</v>
+        <v>119.30391668092824</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>1190.3294212568053</v>
+        <v>119.03294212568052</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>1187.6407048425967</v>
+        <v>118.76407048425966</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>1184.973598101948</v>
+        <v>118.49735981019479</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>1182.3286815701545</v>
+        <v>118.23286815701545</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>1179.7065357825072</v>
+        <v>117.97065357825072</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>1177.1077412743014</v>
+        <v>117.71077412743014</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>1174.5328785808297</v>
+        <v>117.45328785808296</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>1171.9825282373849</v>
+        <v>117.1982528237385</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>1169.4572707792609</v>
+        <v>116.94572707792608</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>1166.9576867417509</v>
+        <v>116.69576867417508</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>1164.4843566601483</v>
+        <v>116.44843566601482</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>1162.0378610697455</v>
+        <v>116.20378610697455</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>1159.6187805058369</v>
+        <v>115.96187805058368</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>1157.227695503715</v>
+        <v>115.7227695503715</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>1154.865186598674</v>
+        <v>115.4865186598674</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>1152.5318343260064</v>
+        <v>115.25318343260064</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>1150.2282192210055</v>
+        <v>115.02282192210055</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>1147.954921818965</v>
+        <v>114.79549218189649</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>1145.7125226551777</v>
+        <v>114.57125226551777</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>1143.5016022649374</v>
+        <v>114.35016022649376</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>1141.3227411835376</v>
+        <v>114.13227411835375</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>1139.1765199462704</v>
+        <v>113.91765199462705</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>1137.06351908843</v>
+        <v>113.70635190884299</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>1134.9843191453094</v>
+        <v>113.49843191453094</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>1132.9395006522025</v>
+        <v>113.29395006522024</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>1130.9296441444021</v>
+        <v>113.0929644144402</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>1128.9553301572014</v>
+        <v>112.89553301572013</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>1127.0171392258933</v>
+        <v>112.70171392258932</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>1125.1156518857717</v>
+        <v>112.51156518857718</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>1123.2514486721298</v>
+        <v>112.32514486721298</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>1121.4251101202617</v>
+        <v>112.14251101202616</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>1119.6372167654586</v>
+        <v>111.96372167654586</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>1117.8883491430151</v>
+        <v>111.78883491430152</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>1116.1790877882252</v>
+        <v>111.61790877882252</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>1114.5100132363812</v>
+        <v>111.45100132363812</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>1112.8817060227764</v>
+        <v>111.28817060227763</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>1111.2947466827038</v>
+        <v>111.12947466827039</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>1109.7497157514579</v>
+        <v>110.97497157514579</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>1108.2471937643309</v>
+        <v>110.82471937643309</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>1106.7877612566169</v>
+        <v>110.67877612566168</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>1105.3719987636084</v>
+        <v>110.53719987636084</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>1104.0004868205988</v>
+        <v>110.40004868205989</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>1102.6738059628817</v>
+        <v>110.26738059628818</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>1101.3925367257507</v>
+        <v>110.13925367257507</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>1054.4430600700075</v>
+        <v>105.44430600700075</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>1053.3037492273015</v>
+        <v>105.33037492273014</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>1052.2096322802595</v>
+        <v>105.22096322802594</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>1051.1585419711873</v>
+        <v>105.11585419711872</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>1050.1292533840458</v>
+        <v>105.01292533840459</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>1049.1169153675842</v>
+        <v>104.91169153675843</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>1048.1212345252343</v>
+        <v>104.81212345252344</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>1047.1419174604296</v>
+        <v>104.71419174604296</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>1046.1786707766023</v>
+        <v>104.61786707766024</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>1045.2312010771848</v>
+        <v>104.52312010771848</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>1044.29921496561</v>
+        <v>104.42992149656099</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>1043.3824190453106</v>
+        <v>104.33824190453106</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>1042.4805199197185</v>
+        <v>104.24805199197186</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>1041.5932241922665</v>
+        <v>104.15932241922665</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>1040.7202384663883</v>
+        <v>104.07202384663884</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>1039.8612693455154</v>
+        <v>103.98612693455154</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>1039.0160234330804</v>
+        <v>103.90160234330803</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>1038.1842073325161</v>
+        <v>103.8184207332516</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>1037.3655276472555</v>
+        <v>103.73655276472554</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>1036.5596909807305</v>
+        <v>103.65596909807304</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>1035.7664039363747</v>
+        <v>103.57664039363748</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>1034.9853731176195</v>
+        <v>103.49853731176194</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>1034.2163051278981</v>
+        <v>103.4216305127898</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>1033.4589065706425</v>
+        <v>103.34589065706426</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>1032.7128840492869</v>
+        <v>103.2712884049287</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>1031.977944167262</v>
+        <v>103.1977944167262</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>1031.253793528002</v>
+        <v>103.12537935280019</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>1030.540138734938</v>
+        <v>103.05401387349379</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>1029.8366863915032</v>
+        <v>102.98366863915032</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>1029.1431431011308</v>
+        <v>102.91431431011308</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>1028.4592154672525</v>
+        <v>102.84592154672525</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>1027.7846100933018</v>
+        <v>102.77846100933019</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>1027.1190335827105</v>
+        <v>102.71190335827104</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>1026.4621925389115</v>
+        <v>102.64621925389116</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>1025.8137935653374</v>
+        <v>102.58137935653374</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>1025.1735432654204</v>
+        <v>102.51735432654203</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>1024.5411482425943</v>
+        <v>102.45411482425943</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>1023.9163151002901</v>
+        <v>102.39163151002901</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>1023.2987504419417</v>
+        <v>102.32987504419417</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>1022.6881608709812</v>
+        <v>102.26881608709812</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>1022.0842529908409</v>
+        <v>102.2084252990841</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>1021.4867334049535</v>
+        <v>102.14867334049535</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A103">
-        <v>1020.8953087167516</v>
+        <v>102.08953087167517</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>1020.3096855296689</v>
+        <v>102.03096855296688</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A105">
-        <v>1019.729570447136</v>
+        <v>101.9729570447136</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A106">
-        <v>1019.1546700725876</v>
+        <v>101.91546700725875</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A107">
-        <v>1018.5846910094542</v>
+        <v>101.85846910094543</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A108">
-        <v>1018.0193398611697</v>
+        <v>101.80193398611696</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A109">
-        <v>1017.458323231167</v>
+        <v>101.7458323231167</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A110">
-        <v>1016.9013477228773</v>
+        <v>101.69013477228773</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>1016.3481199397346</v>
+        <v>101.63481199397346</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A112">
-        <v>1015.7983464851707</v>
+        <v>101.57983464851706</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>1015.2517339626186</v>
+        <v>101.52517339626186</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>1014.7079889755106</v>
+        <v>101.47079889755106</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>1014.1668181272793</v>
+        <v>101.41668181272793</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A116">
-        <v>1013.6279280213575</v>
+        <v>101.36279280213576</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A117">
-        <v>1013.0910252611778</v>
+        <v>101.30910252611778</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A118">
-        <v>1012.5558164501723</v>
+        <v>101.25558164501723</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A119">
-        <v>1012.0220081917746</v>
+        <v>101.20220081917746</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A120">
-        <v>1011.4893070894163</v>
+        <v>101.14893070894163</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A121">
-        <v>1003.539450454968</v>
+        <v>100.3539450454968</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A122">
-        <v>1003.0119824165876</v>
+        <v>100.30119824165875</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A123">
-        <v>1002.4847396791631</v>
+        <v>100.24847396791631</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A124">
-        <v>1001.9574309989459</v>
+        <v>100.1957430998946</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A125">
-        <v>1001.4297651321851</v>
+        <v>100.14297651321851</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A126">
-        <v>1000.9014508351308</v>
+        <v>100.09014508351308</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A127">
-        <v>1000.3698683088894</v>
+        <v>100.03698683088894</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A128">
-        <v>999.83141250436915</v>
+        <v>99.983141250436915</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A129">
-        <v>999.28653450224101</v>
+        <v>99.928653450224104</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A130">
-        <v>998.73574003552619</v>
+        <v>99.873574003552619</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A131">
-        <v>998.17953483724568</v>
+        <v>99.817953483724565</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A132">
-        <v>997.61842464042059</v>
+        <v>99.761842464042061</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A133">
-        <v>997.05291517807143</v>
+        <v>99.70529151780714</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A134">
-        <v>996.48351218321932</v>
+        <v>99.648351218321935</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A135">
-        <v>995.91072138888546</v>
+        <v>99.591072138888549</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A136">
-        <v>995.3350485280896</v>
+        <v>99.53350485280896</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A137">
-        <v>994.75699933385397</v>
+        <v>99.4756999333854</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A138">
-        <v>994.17707953919887</v>
+        <v>99.417707953919887</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A139">
-        <v>993.59579487714541</v>
+        <v>99.359579487714541</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A140">
-        <v>993.013651080714</v>
+        <v>99.301365108071394</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A141">
-        <v>992.43115388292654</v>
+        <v>99.243115388292651</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A142">
-        <v>991.84880901680287</v>
+        <v>99.184880901680287</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A143">
-        <v>991.26712221536468</v>
+        <v>99.126712221536465</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A144">
-        <v>990.68659921163214</v>
+        <v>99.068659921163217</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A145">
-        <v>990.10774573862693</v>
+        <v>99.01077457386269</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A146">
-        <v>989.53106752936969</v>
+        <v>98.953106752936975</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A147">
-        <v>988.95707031688073</v>
+        <v>98.895707031688076</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A148">
-        <v>988.38625983418137</v>
+        <v>98.83862598341814</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A149">
-        <v>987.81914181429352</v>
+        <v>98.781914181429357</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A150">
-        <v>987.25622199023644</v>
+        <v>98.725622199023647</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A151">
-        <v>986.69800609503238</v>
+        <v>98.669800609503241</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A152">
-        <v>986.14499986170119</v>
+        <v>98.614499986170117</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A153">
-        <v>985.5977090232642</v>
+        <v>98.55977090232642</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A154">
-        <v>985.05663931274285</v>
+        <v>98.505663931274285</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A155">
-        <v>984.52229646315664</v>
+        <v>98.452229646315658</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A156">
-        <v>983.99518620752826</v>
+        <v>98.399518620752829</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A157">
-        <v>983.47581427887712</v>
+        <v>98.347581427887718</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A158">
-        <v>982.964686410225</v>
+        <v>98.2964686410225</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A159">
-        <v>982.46230833459231</v>
+        <v>98.246230833459236</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A160">
-        <v>981.96918578500072</v>
+        <v>98.196918578500075</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A161">
-        <v>981.48582449447053</v>
+        <v>98.148582449447048</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A162">
-        <v>981.01273019602206</v>
+        <v>98.101273019602203</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A163">
-        <v>980.55040862267765</v>
+        <v>98.055040862267759</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A164">
-        <v>980.09936550745681</v>
+        <v>98.009936550745678</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A165">
-        <v>979.66010658338166</v>
+        <v>97.966010658338163</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A166">
-        <v>979.23313758347217</v>
+        <v>97.92331375834722</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A167">
-        <v>978.81896424074989</v>
+        <v>97.881896424074995</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A168">
-        <v>978.41809228823524</v>
+        <v>97.841809228823521</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A169">
-        <v>978.03102745894978</v>
+        <v>97.803102745894975</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A170">
-        <v>977.65827548591335</v>
+        <v>97.765827548591332</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A171">
-        <v>977.30034210214797</v>
+        <v>97.730034210214797</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A172">
-        <v>976.9577330406737</v>
+        <v>97.695773304067373</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A173">
-        <v>976.63095403451223</v>
+        <v>97.663095403451223</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A174">
-        <v>976.3205108166834</v>
+        <v>97.632051081668337</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A175">
-        <v>976.02690912020944</v>
+        <v>97.602690912020947</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A176">
-        <v>975.75065467810987</v>
+        <v>97.575065467810987</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A177">
-        <v>975.49225322340646</v>
+        <v>97.549225322340646</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A178">
-        <v>975.25221048912056</v>
+        <v>97.525221048912059</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A179">
-        <v>975.03103220827199</v>
+        <v>97.503103220827199</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A180">
-        <v>974.82922411388222</v>
+        <v>97.482922411388216</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A181">
-        <v>958.5812706439998</v>
+        <v>95.85812706439998</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A182">
-        <v>958.42238310968344</v>
+        <v>95.842238310968341</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A183">
-        <v>958.28403865461132</v>
+        <v>95.828403865461127</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A184">
-        <v>958.16673467533451</v>
+        <v>95.816673467533448</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A185">
-        <v>958.07096856840542</v>
+        <v>95.807096856840545</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A186">
-        <v>957.99723773037408</v>
+        <v>95.799723773037414</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A187">
-        <v>957.94603955779257</v>
+        <v>95.794603955779252</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A188">
-        <v>957.91787144721241</v>
+        <v>95.791787144721241</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A189">
-        <v>957.91261249891193</v>
+        <v>95.791261249891193</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A190">
-        <v>957.92107062299033</v>
+        <v>95.792107062299038</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A191">
-        <v>957.93990367731658</v>
+        <v>95.793990367731652</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A192">
-        <v>957.96894635147646</v>
+        <v>95.796894635147652</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A193">
-        <v>958.00803333505905</v>
+        <v>95.800803333505911</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A194">
-        <v>958.05699931765139</v>
+        <v>95.805699931765133</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A195">
-        <v>958.11567898884118</v>
+        <v>95.811567898884121</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A196">
-        <v>958.18390703821683</v>
+        <v>95.818390703821677</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A197">
-        <v>958.26151815536468</v>
+        <v>95.826151815536463</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A198">
-        <v>958.34834702987337</v>
+        <v>95.834834702987337</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A199">
-        <v>958.44422835133014</v>
+        <v>95.844422835133017</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A200">
-        <v>958.54899680932249</v>
+        <v>95.854899680932249</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A201">
-        <v>958.66248709343893</v>
+        <v>95.866248709343893</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A202">
-        <v>958.7845338932658</v>
+        <v>95.87845338932658</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A203">
-        <v>958.91497189839242</v>
+        <v>95.891497189839242</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A204">
-        <v>959.05363579840491</v>
+        <v>95.905363579840497</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A205">
-        <v>959.20036028289132</v>
+        <v>95.920036028289132</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A206">
-        <v>959.35498004143983</v>
+        <v>95.93549800414398</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A207">
-        <v>959.51732976363792</v>
+        <v>95.951732976363786</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A208">
-        <v>959.68724413907285</v>
+        <v>95.968724413907282</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A209">
-        <v>959.86455785733244</v>
+        <v>95.986455785733241</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A210">
-        <v>960.04910560800431</v>
+        <v>96.004910560800425</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A211">
-        <v>960.24072208067639</v>
+        <v>96.024072208067636</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A212">
-        <v>960.43924196493595</v>
+        <v>96.043924196493592</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A213">
-        <v>960.64449995037126</v>
+        <v>96.064449995037123</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A214">
-        <v>960.85633072656901</v>
+        <v>96.085633072656904</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A215">
-        <v>961.0745689831175</v>
+        <v>96.107456898311753</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A216">
-        <v>961.29904940960455</v>
+        <v>96.129904940960458</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A217">
-        <v>961.52960669561753</v>
+        <v>96.15296066956175</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A218">
-        <v>961.76607553074416</v>
+        <v>96.176607553074419</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A219">
-        <v>962.00829060457204</v>
+        <v>96.20082906045721</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A220">
-        <v>962.25608660668865</v>
+        <v>96.225608660668868</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A221">
-        <v>962.50929822668229</v>
+        <v>96.250929822668226</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A222">
-        <v>962.76776015413986</v>
+        <v>96.276776015413986</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A223">
-        <v>963.03130707864898</v>
+        <v>96.303130707864895</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A224">
-        <v>963.29977368979803</v>
+        <v>96.329977368979797</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A225">
-        <v>963.57299467717382</v>
+        <v>96.357299467717382</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A226">
-        <v>963.85080473036521</v>
+        <v>96.385080473036524</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A227">
-        <v>964.13303853895866</v>
+        <v>96.413303853895869</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A228">
-        <v>964.41953079254222</v>
+        <v>96.441953079254219</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A229">
-        <v>964.71011618070361</v>
+        <v>96.471011618070364</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A230">
-        <v>965.00462939303043</v>
+        <v>96.500462939303048</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A231">
-        <v>965.30290511911016</v>
+        <v>96.530290511911019</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A232">
-        <v>965.60477804853122</v>
+        <v>96.560477804853122</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A233">
-        <v>965.91008287087971</v>
+        <v>96.591008287087973</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A234">
-        <v>966.21865427574471</v>
+        <v>96.621865427574477</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A235">
-        <v>966.53032695271452</v>
+        <v>96.653032695271449</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A236">
-        <v>966.84493559137434</v>
+        <v>96.684493559137437</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A237">
-        <v>967.1623148813137</v>
+        <v>96.71623148813137</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A238">
-        <v>967.48229951211954</v>
+        <v>96.748229951211954</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A239">
-        <v>967.8047241733799</v>
+        <v>96.78047241733799</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A240">
-        <v>968.12942355468238</v>
+        <v>96.812942355468238</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A241">
-        <v>960.88084325714885</v>
+        <v>96.088084325714888</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A242">
-        <v>961.20702459994936</v>
+        <v>96.120702459994931</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A243">
-        <v>961.53497081764033</v>
+        <v>96.15349708176403</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A244">
-        <v>961.8645178928881</v>
+        <v>96.18645178928881</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A245">
-        <v>962.19550180835995</v>
+        <v>96.219550180835995</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A246">
-        <v>962.52775854672359</v>
+        <v>96.252775854672365</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A247">
-        <v>962.86112409064503</v>
+        <v>96.286112409064501</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A248">
-        <v>963.19543442279155</v>
+        <v>96.319543442279155</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A249">
-        <v>963.53052552583017</v>
+        <v>96.353052552583023</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A250">
-        <v>963.86623338242759</v>
+        <v>96.386623338242757</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A251">
-        <v>964.2023939752512</v>
+        <v>96.420239397525123</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A252">
-        <v>964.54323024655628</v>
+        <v>96.454323024655622</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A253">
-        <v>964.89967173018135</v>
+        <v>96.48996717301813</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A254">
-        <v>965.27203569793801</v>
+        <v>96.527203569793798</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A255">
-        <v>965.66009220136266</v>
+        <v>96.566009220136266</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A256">
-        <v>966.06361129198967</v>
+        <v>96.606361129198973</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A257">
-        <v>966.48236302135615</v>
+        <v>96.648236302135615</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A258">
-        <v>966.91611744099737</v>
+        <v>96.691611744099731</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A259">
-        <v>967.36464460244883</v>
+        <v>96.736464460244889</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A260">
-        <v>967.82771455724583</v>
+        <v>96.782771455724586</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A261">
-        <v>968.30509735692476</v>
+        <v>96.830509735692473</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A262">
-        <v>968.79656305302115</v>
+        <v>96.87965630530212</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A263">
-        <v>969.30188169707037</v>
+        <v>96.930188169707037</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A264">
-        <v>969.82082334060908</v>
+        <v>96.982082334060905</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A265">
-        <v>970.35315803517176</v>
+        <v>97.035315803517179</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A266">
-        <v>970.89865583229539</v>
+        <v>97.089865583229539</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A267">
-        <v>971.457086783514</v>
+        <v>97.145708678351397</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A268">
-        <v>972.0282209403648</v>
+        <v>97.202822094036478</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A269">
-        <v>972.61182835438319</v>
+        <v>97.261182835438319</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A270">
-        <v>973.20767907710456</v>
+        <v>97.320767907710461</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A271">
-        <v>973.81554316006429</v>
+        <v>97.381554316006429</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A272">
-        <v>974.43519065479916</v>
+        <v>97.443519065479919</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A273">
-        <v>975.06639161284386</v>
+        <v>97.506639161284383</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A274">
-        <v>975.70891608573424</v>
+        <v>97.570891608573419</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A275">
-        <v>976.36253412500707</v>
+        <v>97.636253412500707</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A276">
-        <v>977.02701578219649</v>
+        <v>97.702701578219646</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A277">
-        <v>977.70213110883901</v>
+        <v>97.770213110883901</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A278">
-        <v>978.38765015647073</v>
+        <v>97.83876501564707</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A279">
-        <v>979.08334297662645</v>
+        <v>97.908334297662648</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A280">
-        <v>979.78897962084238</v>
+        <v>97.978897962084233</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A281">
-        <v>980.5043301406547</v>
+        <v>98.050433014065476</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A282">
-        <v>981.22916458759801</v>
+        <v>98.122916458759804</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A283">
-        <v>981.96325301320849</v>
+        <v>98.196325301320854</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A284">
-        <v>982.70636546902267</v>
+        <v>98.270636546902267</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A285">
-        <v>983.45827200657538</v>
+        <v>98.345827200657538</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A286">
-        <v>984.21874267740179</v>
+        <v>98.421874267740179</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A287">
-        <v>984.98754753303899</v>
+        <v>98.498754753303899</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A288">
-        <v>985.76445662502181</v>
+        <v>98.576445662502181</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A289">
-        <v>986.5492400048862</v>
+        <v>98.65492400048862</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A290">
-        <v>987.34166772416813</v>
+        <v>98.734166772416813</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A291">
-        <v>988.14150983440254</v>
+        <v>98.814150983440257</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A292">
-        <v>988.94853638712607</v>
+        <v>98.894853638712604</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A293">
-        <v>989.76251743387377</v>
+        <v>98.97625174338738</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A294">
-        <v>990.58322302618137</v>
+        <v>99.058322302618137</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A295">
-        <v>991.41042321558484</v>
+        <v>99.141042321558487</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A296">
-        <v>992.24388805361991</v>
+        <v>99.224388805361997</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A297">
-        <v>993.08338759182232</v>
+        <v>99.308338759182234</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A298">
-        <v>993.92869188172745</v>
+        <v>99.392869188172739</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A299">
-        <v>994.77957097487104</v>
+        <v>99.477957097487106</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A300">
-        <v>995.63579492278916</v>
+        <v>99.563579492278919</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A301">
-        <v>988.83480912299638</v>
+        <v>98.883480912299632</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A302">
-        <v>989.69437231574091</v>
+        <v>98.969437231574091</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A303">
-        <v>990.55855472429346</v>
+        <v>99.055855472429343</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A304">
-        <v>991.42712816832295</v>
+        <v>99.142712816832301</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A305">
-        <v>992.29986446749865</v>
+        <v>99.229986446749862</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A306">
-        <v>993.17653544149027</v>
+        <v>99.317653544149024</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A307">
-        <v>994.05691290996606</v>
+        <v>99.4056912909966</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A308">
-        <v>994.94076869259493</v>
+        <v>99.494076869259487</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A309">
-        <v>995.82787460904592</v>
+        <v>99.582787460904598</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A310">
-        <v>996.7180024789883</v>
+        <v>99.67180024789883</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A311">
-        <v>997.61092412209211</v>
+        <v>99.761092412209209</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A312">
-        <v>998.50641135802448</v>
+        <v>99.850641135802448</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A313">
-        <v>999.40423600645556</v>
+        <v>99.940423600645559</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A314">
-        <v>1000.3044070763724</v>
+        <v>100.03044070763724</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A315">
-        <v>1001.2167875204647</v>
+        <v>100.12167875204646</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A316">
-        <v>1002.1464843917634</v>
+        <v>100.21464843917633</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A317">
-        <v>1003.09325106099</v>
+        <v>100.30932510609901</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A318">
-        <v>1004.0568408988656</v>
+        <v>100.40568408988656</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A319">
-        <v>1005.037007276112</v>
+        <v>100.5037007276112</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A320">
-        <v>1006.0335035634509</v>
+        <v>100.60335035634509</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A321">
-        <v>1007.0460831316032</v>
+        <v>100.70460831316032</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A322">
-        <v>1008.0744993512905</v>
+        <v>100.80744993512904</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A323">
-        <v>1009.1185055932339</v>
+        <v>100.91185055932338</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A324">
-        <v>1010.1778552281559</v>
+        <v>101.01778552281559</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A325">
-        <v>1011.2523016267758</v>
+        <v>101.12523016267758</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A326">
-        <v>1012.341598159818</v>
+        <v>101.2341598159818</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A327">
-        <v>1013.4454981980018</v>
+        <v>101.34454981980018</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A328">
-        <v>1014.5637551120484</v>
+        <v>101.45637551120484</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A329">
-        <v>1015.6961222726814</v>
+        <v>101.56961222726814</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A330">
-        <v>1016.8423530506196</v>
+        <v>101.68423530506196</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A331">
-        <v>1018.0022008165867</v>
+        <v>101.80022008165867</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A332">
-        <v>1019.1754189413024</v>
+        <v>101.91754189413024</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A333">
-        <v>1020.3617607954889</v>
+        <v>102.03617607954888</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A334">
-        <v>1021.5609797498682</v>
+        <v>102.15609797498682</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A335">
-        <v>1022.7728291751606</v>
+        <v>102.27728291751606</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A336">
-        <v>1023.9970624420879</v>
+        <v>102.39970624420879</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A337">
-        <v>1025.2334329213716</v>
+        <v>102.52334329213716</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A338">
-        <v>1026.4816939837333</v>
+        <v>102.64816939837333</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A339">
-        <v>1027.7415989998949</v>
+        <v>102.7741598999895</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A340">
-        <v>1029.0129013405769</v>
+        <v>102.9012901340577</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A341">
-        <v>1030.2953543765009</v>
+        <v>103.0295354376501</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A342">
-        <v>1031.5887114783882</v>
+        <v>103.15887114783881</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A343">
-        <v>1032.8927260169617</v>
+        <v>103.28927260169615</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A344">
-        <v>1034.2071513629407</v>
+        <v>103.42071513629406</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A345">
-        <v>1035.5317408870476</v>
+        <v>103.55317408870476</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A346">
-        <v>1036.8662479600036</v>
+        <v>103.68662479600037</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A347">
-        <v>1038.2104259525311</v>
+        <v>103.8210425952531</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A348">
-        <v>1039.5640282353504</v>
+        <v>103.95640282353504</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A349">
-        <v>1040.9268081791831</v>
+        <v>104.09268081791832</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A350">
-        <v>1042.2985191547518</v>
+        <v>104.22985191547518</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A351">
-        <v>1043.6789145327762</v>
+        <v>104.36789145327762</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A352">
-        <v>1045.0677476839787</v>
+        <v>104.50677476839788</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A353">
-        <v>1046.4647719790801</v>
+        <v>104.64647719790801</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A354">
-        <v>1047.869740788803</v>
+        <v>104.78697407888029</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A355">
-        <v>1049.2824074838679</v>
+        <v>104.92824074838678</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A356">
-        <v>1050.7025254349958</v>
+        <v>105.07025254349958</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A357">
-        <v>1052.1298480129099</v>
+        <v>105.21298480129099</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A358">
-        <v>1053.5641285883294</v>
+        <v>105.35641285883293</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A359">
-        <v>1055.0051205319776</v>
+        <v>105.50051205319777</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A360">
-        <v>1056.4525772145751</v>
+        <v>105.6452577214575</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A361">
-        <v>1053.825638111512</v>
+        <v>105.38256381115121</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A362">
-        <v>1055.279654156682</v>
+        <v>105.52796541566819</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A363">
-        <v>1056.7393729707564</v>
+        <v>105.67393729707564</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A364">
-        <v>1058.2045488757685</v>
+        <v>105.82045488757686</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A365">
-        <v>1059.6749361937518</v>
+        <v>105.96749361937518</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A366">
-        <v>1061.1502892467406</v>
+        <v>106.11502892467405</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A367">
-        <v>1062.6303623567669</v>
+        <v>106.26303623567669</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A368">
-        <v>1064.1149098458648</v>
+        <v>106.41149098458648</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A369">
-        <v>1065.6036860360675</v>
+        <v>106.56036860360676</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A370">
-        <v>1067.096445249409</v>
+        <v>106.70964452494091</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A371">
-        <v>1068.5929418079222</v>
+        <v>106.85929418079222</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A372">
-        <v>1070.0929300336397</v>
+        <v>107.00929300336398</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A373">
-        <v>1071.5961642485966</v>
+        <v>107.15961642485965</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A374">
-        <v>1073.102398774824</v>
+        <v>107.3102398774824</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A375">
-        <v>1074.6113879343577</v>
+        <v>107.46113879343577</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A376">
-        <v>1076.1228860492292</v>
+        <v>107.61228860492292</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A377">
-        <v>1077.6398793153169</v>
+        <v>107.76398793153169</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A378">
-        <v>1079.1749154347526</v>
+        <v>107.91749154347526</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A379">
-        <v>1080.7288931049497</v>
+        <v>108.07288931049499</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A380">
-        <v>1082.3013703936092</v>
+        <v>108.23013703936091</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A381">
-        <v>1083.8919053684297</v>
+        <v>108.38919053684297</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A382">
-        <v>1085.500056097113</v>
+        <v>108.55000560971131</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A383">
-        <v>1087.1253806473574</v>
+        <v>108.71253806473572</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A384">
-        <v>1088.7674370868638</v>
+        <v>108.87674370868638</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A385">
-        <v>1090.4257834833313</v>
+        <v>109.04257834833312</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A386">
-        <v>1092.0999779044603</v>
+        <v>109.20999779044602</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A387">
-        <v>1093.7895784179509</v>
+        <v>109.3789578417951</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A388">
-        <v>1095.4941430915032</v>
+        <v>109.54941430915032</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A389">
-        <v>1097.2132299928164</v>
+        <v>109.72132299928164</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A390">
-        <v>1098.9463971895909</v>
+        <v>109.89463971895908</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A391">
-        <v>1100.6932027495266</v>
+        <v>110.06932027495266</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A392">
-        <v>1102.4532047403234</v>
+        <v>110.24532047403234</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A393">
-        <v>1104.2259612296814</v>
+        <v>110.42259612296814</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A394">
-        <v>1106.0110302853002</v>
+        <v>110.60110302853002</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A395">
-        <v>1107.8079699748807</v>
+        <v>110.78079699748807</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A396">
-        <v>1109.616338366121</v>
+        <v>110.96163383661211</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A397">
-        <v>1111.4356935267228</v>
+        <v>111.14356935267229</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A398">
-        <v>1113.2655935243849</v>
+        <v>111.32655935243849</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A399">
-        <v>1115.105596426808</v>
+        <v>111.51055964268079</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A400">
-        <v>1116.9552603016914</v>
+        <v>111.69552603016915</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A401">
-        <v>1118.8141432167354</v>
+        <v>111.88141432167353</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A402">
-        <v>1120.68180323964</v>
+        <v>112.068180323964</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A403">
-        <v>1122.5577984381052</v>
+        <v>112.25577984381053</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A404">
-        <v>1124.4416868798305</v>
+        <v>112.44416868798305</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A405">
-        <v>1126.3330266325165</v>
+        <v>112.63330266325164</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A406">
-        <v>1128.2313757638624</v>
+        <v>112.82313757638624</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A407">
-        <v>1130.1362923415682</v>
+        <v>113.01362923415682</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A408">
-        <v>1132.0473344333345</v>
+        <v>113.20473344333345</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A409">
-        <v>1133.9640601068613</v>
+        <v>113.39640601068612</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A410">
-        <v>1135.886027429847</v>
+        <v>113.58860274298469</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A411">
-        <v>1137.8127944699934</v>
+        <v>113.78127944699933</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A412">
-        <v>1139.7439192949994</v>
+        <v>113.97439192949994</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A413">
-        <v>1141.6789599725653</v>
+        <v>114.16789599725652</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A414">
-        <v>1143.6174745703904</v>
+        <v>114.36174745703904</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A415">
-        <v>1145.5590211561757</v>
+        <v>114.55590211561757</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A416">
-        <v>1147.5031577976204</v>
+        <v>114.75031577976203</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A417">
-        <v>1149.449442562425</v>
+        <v>114.94494425624251</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A418">
-        <v>1151.3974335182886</v>
+        <v>115.13974335182886</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A419">
-        <v>1153.3466887329121</v>
+        <v>115.33466887329121</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A420">
-        <v>1155.2967662739943</v>
+        <v>115.52967662739943</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A421">
-        <v>1161.3093593372148</v>
+        <v>116.13093593372149</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A422">
-        <v>1163.2666019583139</v>
+        <v>116.32666019583138</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A423">
-        <v>1165.2233393417052</v>
+        <v>116.52233393417052</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A424">
-        <v>1167.1791280038306</v>
+        <v>116.71791280038306</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A425">
-        <v>1169.1335244611321</v>
+        <v>116.91335244611321</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A426">
-        <v>1171.0860852300527</v>
+        <v>117.10860852300527</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A427">
-        <v>1173.036366827034</v>
+        <v>117.3036366827034</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A428">
-        <v>1174.983925768518</v>
+        <v>117.4983925768518</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A429">
-        <v>1176.9283185709476</v>
+        <v>117.69283185709476</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A430">
-        <v>1178.8691017507645</v>
+        <v>117.88691017507644</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A431">
-        <v>1180.8058318244107</v>
+        <v>118.08058318244106</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A432">
-        <v>1182.7380653083289</v>
+        <v>118.2738065308329</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A433">
-        <v>1184.6653587189608</v>
+        <v>118.46653587189607</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A434">
-        <v>1186.5872685727486</v>
+        <v>118.65872685727487</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A435">
-        <v>1188.5033513861351</v>
+        <v>118.85033513861352</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A436">
-        <v>1190.4131636755626</v>
+        <v>119.04131636755626</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A437">
-        <v>1192.3162619574719</v>
+        <v>119.2316261957472</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A438">
-        <v>1194.2122027483069</v>
+        <v>119.42122027483069</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A439">
-        <v>1196.1005653970024</v>
+        <v>119.61005653970022</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A440">
-        <v>1197.993940613022</v>
+        <v>119.79939406130221</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A441">
-        <v>1199.902707815331</v>
+        <v>119.9902707815331</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A442">
-        <v>1201.8261544682832</v>
+        <v>120.18261544682832</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A443">
-        <v>1203.7635680362318</v>
+        <v>120.3763568036232</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A444">
-        <v>1205.7142359835307</v>
+        <v>120.57142359835308</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A445">
-        <v>1207.6774457745341</v>
+        <v>120.76774457745341</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A446">
-        <v>1209.6524848735955</v>
+        <v>120.96524848735955</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A447">
-        <v>1211.6386407450684</v>
+        <v>121.16386407450685</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A448">
-        <v>1213.6352008533058</v>
+        <v>121.36352008533059</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A449">
-        <v>1215.6414526626636</v>
+        <v>121.56414526626637</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A450">
-        <v>1217.6566836374927</v>
+        <v>121.76566836374928</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A451">
-        <v>1219.6801812421486</v>
+        <v>121.96801812421486</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A452">
-        <v>1221.7112329409849</v>
+        <v>122.17112329409849</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A453">
-        <v>1223.7491261983548</v>
+        <v>122.37491261983548</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A454">
-        <v>1225.7931484786118</v>
+        <v>122.57931484786117</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A455">
-        <v>1227.84258724611</v>
+        <v>122.78425872461101</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A456">
-        <v>1229.8967299652036</v>
+        <v>122.98967299652035</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A457">
-        <v>1231.9548641002445</v>
+        <v>123.19548641002446</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A458">
-        <v>1234.0162771155881</v>
+        <v>123.40162771155882</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A459">
-        <v>1236.0802564755884</v>
+        <v>123.60802564755883</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A460">
-        <v>1238.1460896445974</v>
+        <v>123.81460896445974</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A461">
-        <v>1240.2130640869705</v>
+        <v>124.02130640869704</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A462">
-        <v>1242.2804672670602</v>
+        <v>124.22804672670601</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A463">
-        <v>1244.3475866492208</v>
+        <v>124.43475866492209</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A464">
-        <v>1246.413709697805</v>
+        <v>124.6413709697805</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A465">
-        <v>1248.4781238771686</v>
+        <v>124.84781238771686</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A466">
-        <v>1250.5401166516631</v>
+        <v>125.05401166516631</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A467">
-        <v>1252.5989754856435</v>
+        <v>125.25989754856435</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A468">
-        <v>1254.653987843463</v>
+        <v>125.46539878434631</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A469">
-        <v>1256.7044411894753</v>
+        <v>125.67044411894754</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A470">
-        <v>1258.7496229880339</v>
+        <v>125.8749622988034</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A471">
-        <v>1260.7888207034935</v>
+        <v>126.07888207034934</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A472">
-        <v>1262.821321800207</v>
+        <v>126.28213218002071</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A473">
-        <v>1264.8464137425276</v>
+        <v>126.48464137425276</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A474">
-        <v>1266.86338399481</v>
+        <v>126.68633839948099</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A475">
-        <v>1268.8715200214069</v>
+        <v>126.8871520021407</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A476">
-        <v>1270.8701092866731</v>
+        <v>127.08701092866731</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A477">
-        <v>1272.8584392549624</v>
+        <v>127.28584392549624</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A478">
-        <v>1274.8357973906275</v>
+        <v>127.48357973906275</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A479">
-        <v>1276.8014711580222</v>
+        <v>127.68014711580221</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A480">
-        <v>1278.7547480215003</v>
+        <v>127.87547480215002</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A481">
-        <v>1291.9220818813069</v>
+        <v>129.19220818813068</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A482">
-        <v>1293.86531456889</v>
+        <v>129.386531456889</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A483">
-        <v>1295.7938853293463</v>
+        <v>129.57938853293462</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A484">
-        <v>1297.7070753806088</v>
+        <v>129.77070753806089</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A485">
-        <v>1299.6041659406148</v>
+        <v>129.96041659406148</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A486">
-        <v>1301.4844382272981</v>
+        <v>130.1484438227298</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A487">
-        <v>1303.3471734585946</v>
+        <v>130.33471734585947</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A488">
-        <v>1305.1916528524409</v>
+        <v>130.5191652852441</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A489">
-        <v>1307.0171576267699</v>
+        <v>130.701715762677</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A490">
-        <v>1308.8229689995183</v>
+        <v>130.88229689995183</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A491">
-        <v>1310.6083681886212</v>
+        <v>131.06083681886213</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A492">
-        <v>1312.3726364120143</v>
+        <v>131.23726364120142</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A493">
-        <v>1314.1150548876317</v>
+        <v>131.41150548876317</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A494">
-        <v>1315.8349048334098</v>
+        <v>131.583490483341</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A495">
-        <v>1317.5314674672834</v>
+        <v>131.75314674672833</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A496">
-        <v>1319.2040240071879</v>
+        <v>131.92040240071879</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A497">
-        <v>1320.8518556710583</v>
+        <v>132.08518556710584</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A498">
-        <v>1322.4742436768304</v>
+        <v>132.24742436768304</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A499">
-        <v>1324.070469242439</v>
+        <v>132.4070469242439</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A500">
-        <v>1325.6398135858199</v>
+        <v>132.563981358582</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A501">
-        <v>1327.1815579249085</v>
+        <v>132.71815579249085</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A502">
-        <v>1328.7007810470727</v>
+        <v>132.87007810470726</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A503">
-        <v>1330.234482543327</v>
+        <v>133.02344825433269</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A504">
-        <v>1331.7881164694136</v>
+        <v>133.17881164694137</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A505">
-        <v>1333.3602027557461</v>
+        <v>133.33602027557461</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A506">
-        <v>1334.9492613327398</v>
+        <v>133.49492613327396</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A507">
-        <v>1336.553812130808</v>
+        <v>133.6553812130808</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A508">
-        <v>1338.1723750803662</v>
+        <v>133.81723750803661</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A509">
-        <v>1339.8034701118261</v>
+        <v>133.9803470111826</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A510">
-        <v>1341.4456171556046</v>
+        <v>134.14456171556046</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A511">
-        <v>1343.097336142115</v>
+        <v>134.3097336142115</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A512">
-        <v>1344.757147001771</v>
+        <v>134.47571470017709</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A513">
-        <v>1346.4235696649869</v>
+        <v>134.64235696649868</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A514">
-        <v>1348.0951240621769</v>
+        <v>134.80951240621769</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A515">
-        <v>1349.7703301237557</v>
+        <v>134.97703301237556</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A516">
-        <v>1351.447707780138</v>
+        <v>135.14477077801379</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A517">
-        <v>1353.1257769617366</v>
+        <v>135.31257769617366</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A518">
-        <v>1354.8030575989662</v>
+        <v>135.48030575989662</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A519">
-        <v>1356.4780696222417</v>
+        <v>135.64780696222417</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A520">
-        <v>1358.1493329619771</v>
+        <v>135.81493329619769</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A521">
-        <v>1359.8153675485858</v>
+        <v>135.98153675485858</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A522">
-        <v>1361.4746933124834</v>
+        <v>136.14746933124835</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A523">
-        <v>1363.1258301840828</v>
+        <v>136.31258301840828</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A524">
-        <v>1364.7672980937982</v>
+        <v>136.47672980937983</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A525">
-        <v>1366.3976169720449</v>
+        <v>136.63976169720451</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A526">
-        <v>1368.0153067492367</v>
+        <v>136.80153067492367</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A527">
-        <v>1369.6188873557871</v>
+        <v>136.96188873557873</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A528">
-        <v>1371.2068787221117</v>
+        <v>137.12068787221116</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A529">
-        <v>1372.7778007786237</v>
+        <v>137.27778007786236</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A530">
-        <v>1374.3301734557372</v>
+        <v>137.43301734557372</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A531">
-        <v>1375.8625166838667</v>
+        <v>137.58625166838667</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A532">
-        <v>1377.3733503934268</v>
+        <v>137.73733503934267</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A533">
-        <v>1378.8611945148307</v>
+        <v>137.88611945148307</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A534">
-        <v>1380.3245689784942</v>
+        <v>138.03245689784941</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A535">
-        <v>1381.7619937148297</v>
+        <v>138.17619937148297</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A536">
-        <v>1383.1719886542535</v>
+        <v>138.31719886542535</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A537">
-        <v>1384.5530737271772</v>
+        <v>138.45530737271773</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A538">
-        <v>1385.9037688640174</v>
+        <v>138.59037688640174</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A539">
-        <v>1387.2225939951868</v>
+        <v>138.72225939951869</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A540">
-        <v>1388.5080690511008</v>
+        <v>138.85080690511009</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A541">
-        <v>1408.6557710830675</v>
+        <v>140.86557710830675</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A542">
-        <v>1409.8866175323606</v>
+        <v>140.98866175323604</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A543">
-        <v>1411.0791598493381</v>
+        <v>141.10791598493381</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A544">
-        <v>1412.2318978393673</v>
+        <v>141.22318978393673</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A545">
-        <v>1413.3433313078151</v>
+        <v>141.33433313078152</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A546">
-        <v>1414.4119600600493</v>
+        <v>141.44119600600493</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A547">
-        <v>1415.4362839014359</v>
+        <v>141.5436283901436</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A548">
-        <v>1416.4148026373432</v>
+        <v>141.64148026373431</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A549">
-        <v>1417.3460160731383</v>
+        <v>141.73460160731383</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A550">
-        <v>1418.2284240141871</v>
+        <v>141.82284240141871</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A551">
-        <v>1419.0605262658578</v>
+        <v>141.90605262658579</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A552">
-        <v>1419.8408226335177</v>
+        <v>141.98408226335178</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A553">
-        <v>1420.5678129225341</v>
+        <v>142.05678129225342</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A554">
-        <v>1421.2399969382736</v>
+        <v>142.12399969382736</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A555">
-        <v>1421.8558744861034</v>
+        <v>142.18558744861033</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A556">
-        <v>1422.4139453713908</v>
+        <v>142.24139453713909</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A557">
-        <v>1422.912709399503</v>
+        <v>142.29127093995029</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A558">
-        <v>1423.3506663758069</v>
+        <v>142.3350666375807</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A559">
-        <v>1423.7263161056705</v>
+        <v>142.37263161056705</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A560">
-        <v>1424.0381583944597</v>
+        <v>142.40381583944597</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A561">
-        <v>1424.284693047543</v>
+        <v>142.42846930475429</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A562">
-        <v>1424.4644198702867</v>
+        <v>142.44644198702866</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A563">
-        <v>1424.5758386680586</v>
+        <v>142.45758386680586</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A564">
-        <v>1424.6174492462246</v>
+        <v>142.46174492462245</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A565">
-        <v>1424.6107796445619</v>
+        <v>142.46107796445619</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A566">
-        <v>1424.5874808120564</v>
+        <v>142.45874808120564</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A567">
-        <v>1424.5481303115992</v>
+        <v>142.45481303115992</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A568">
-        <v>1424.4930991914214</v>
+        <v>142.44930991914214</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A569">
-        <v>1424.4227584997539</v>
+        <v>142.44227584997537</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A570">
-        <v>1424.3374792848272</v>
+        <v>142.43374792848272</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A571">
-        <v>1424.2376325948721</v>
+        <v>142.4237632594872</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A572">
-        <v>1424.1235894781184</v>
+        <v>142.41235894781184</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A573">
-        <v>1423.9957209827983</v>
+        <v>142.39957209827983</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A574">
-        <v>1423.8543981571415</v>
+        <v>142.38543981571416</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A575">
-        <v>1423.6999920493786</v>
+        <v>142.36999920493787</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A576">
-        <v>1423.5328737077418</v>
+        <v>142.35328737077418</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A577">
-        <v>1423.3534141804594</v>
+        <v>142.33534141804594</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A578">
-        <v>1423.1619845157647</v>
+        <v>142.31619845157647</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A579">
-        <v>1422.958955761887</v>
+        <v>142.29589557618868</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A580">
-        <v>1422.7446989670568</v>
+        <v>142.27446989670568</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A581">
-        <v>1422.5195851795056</v>
+        <v>142.25195851795056</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A582">
-        <v>1422.2839854474637</v>
+        <v>142.22839854474637</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A583">
-        <v>1422.0382708191619</v>
+        <v>142.20382708191619</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A584">
-        <v>1421.782812342831</v>
+        <v>142.17828123428311</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A585">
-        <v>1421.5179810667016</v>
+        <v>142.15179810667016</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A586">
-        <v>1421.2441480390044</v>
+        <v>142.12441480390044</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A587">
-        <v>1420.96168430797</v>
+        <v>142.09616843079701</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A588">
-        <v>1420.6709609218296</v>
+        <v>142.06709609218296</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A589">
-        <v>1420.3723489288141</v>
+        <v>142.0372348928814</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A590">
-        <v>1420.0662193771523</v>
+        <v>142.00662193771524</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A591">
-        <v>1419.7529433150773</v>
+        <v>141.97529433150774</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A592">
-        <v>1419.4328917908192</v>
+        <v>141.94328917908192</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A593">
-        <v>1419.106435852608</v>
+        <v>141.9106435852608</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A594">
-        <v>1418.7739465486752</v>
+        <v>141.87739465486752</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A595">
-        <v>1418.435794927251</v>
+        <v>141.8435794927251</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A596">
-        <v>1418.0923520365661</v>
+        <v>141.80923520365661</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A597">
-        <v>1417.7439889248515</v>
+        <v>141.77439889248515</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A598">
-        <v>1417.3910766403378</v>
+        <v>141.73910766403378</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A599">
-        <v>1417.0339862312562</v>
+        <v>141.70339862312562</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A600">
-        <v>1416.6730887458366</v>
+        <v>141.66730887458365</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A601">
-        <v>1413.1901463653501</v>
+        <v>141.319014636535</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A602">
-        <v>1412.8235568567079</v>
+        <v>141.28235568567078</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A603">
-        <v>1412.4542793482624</v>
+        <v>141.24542793482624</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A604">
-        <v>1412.0826840712211</v>
+        <v>141.20826840712212</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A605">
-        <v>1411.7091412567966</v>
+        <v>141.17091412567964</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A606">
-        <v>1411.3340211361958</v>
+        <v>141.13340211361958</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A607">
-        <v>1410.9576939406284</v>
+        <v>141.09576939406284</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A608">
-        <v>1410.5805299013055</v>
+        <v>141.05805299013053</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A609">
-        <v>1410.2028992494347</v>
+        <v>141.02028992494348</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A610">
-        <v>1409.8251722162281</v>
+        <v>140.9825172216228</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A611">
-        <v>1409.4477190328928</v>
+        <v>140.94477190328928</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A612">
-        <v>1409.0709099306389</v>
+        <v>140.90709099306389</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A613">
-        <v>1408.6951151406768</v>
+        <v>140.86951151406768</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A614">
-        <v>1408.3207048942152</v>
+        <v>140.83207048942151</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A615">
-        <v>1407.9480494224626</v>
+        <v>140.79480494224626</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A616">
-        <v>1407.5775189566309</v>
+        <v>140.75775189566309</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A617">
-        <v>1407.209483727928</v>
+        <v>140.7209483727928</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A618">
-        <v>1406.8443139675639</v>
+        <v>140.68443139675639</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A619">
-        <v>1406.4823799067474</v>
+        <v>140.64823799067474</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A620">
-        <v>1406.1240517766894</v>
+        <v>140.61240517766893</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A621">
-        <v>1405.769699808598</v>
+        <v>140.57696998085981</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A622">
-        <v>1405.4196942336832</v>
+        <v>140.54196942336833</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A623">
-        <v>1405.0744052831556</v>
+        <v>140.50744052831556</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A624">
-        <v>1404.7342031882226</v>
+        <v>140.47342031882226</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A625">
-        <v>1404.3994581800951</v>
+        <v>140.43994581800951</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A626">
-        <v>1404.0705404899825</v>
+        <v>140.40705404899825</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A627">
-        <v>1403.7476027065247</v>
+        <v>140.37476027065247</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A628">
-        <v>1403.4282208135855</v>
+        <v>140.34282208135855</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A629">
-        <v>1403.1114501823756</v>
+        <v>140.31114501823757</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A630">
-        <v>1402.7970693924876</v>
+        <v>140.27970693924877</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A631">
-        <v>1402.4848570235113</v>
+        <v>140.24848570235113</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A632">
-        <v>1402.1745916550387</v>
+        <v>140.21745916550387</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A633">
-        <v>1401.8660518666595</v>
+        <v>140.18660518666596</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A634">
-        <v>1401.5590162379669</v>
+        <v>140.15590162379669</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A635">
-        <v>1401.2532633485494</v>
+        <v>140.12532633485495</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A636">
-        <v>1400.9485717779994</v>
+        <v>140.09485717779995</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A637">
-        <v>1400.6447201059091</v>
+        <v>140.06447201059092</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A638">
-        <v>1400.3414869118669</v>
+        <v>140.03414869118669</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A639">
-        <v>1400.0386507754658</v>
+        <v>140.00386507754658</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A640">
-        <v>1399.735990276296</v>
+        <v>139.9735990276296</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A641">
-        <v>1399.4332839939491</v>
+        <v>139.94332839939491</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A642">
-        <v>1399.1303105080158</v>
+        <v>139.91303105080158</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A643">
-        <v>1398.8268483980873</v>
+        <v>139.88268483980875</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A644">
-        <v>1398.5226762437542</v>
+        <v>139.85226762437543</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A645">
-        <v>1398.2175726246087</v>
+        <v>139.82175726246086</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A646">
-        <v>1397.9113161202406</v>
+        <v>139.79113161202406</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A647">
-        <v>1397.603685310241</v>
+        <v>139.76036853102408</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A648">
-        <v>1397.2944587742013</v>
+        <v>139.72944587742012</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A649">
-        <v>1396.9834150917127</v>
+        <v>139.69834150917126</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A650">
-        <v>1396.6703328423664</v>
+        <v>139.66703328423665</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A651">
-        <v>1396.3549906057531</v>
+        <v>139.63549906057531</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A652">
-        <v>1396.0371669614628</v>
+        <v>139.60371669614628</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A653">
-        <v>1395.7166404890881</v>
+        <v>139.57166404890881</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A654">
-        <v>1395.3931897682207</v>
+        <v>139.53931897682207</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A655">
-        <v>1395.0665933784499</v>
+        <v>139.50665933784498</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A656">
-        <v>1394.7366298993668</v>
+        <v>139.47366298993668</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A657">
-        <v>1394.4030779105633</v>
+        <v>139.44030779105634</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A658">
-        <v>1394.0657159916304</v>
+        <v>139.40657159916304</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A659">
-        <v>1393.7243227221595</v>
+        <v>139.37243227221595</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A660">
-        <v>1393.3786766817398</v>
+        <v>139.33786766817397</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A661">
-        <v>1398.4254518842008</v>
+        <v>139.84254518842008</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A662">
-        <v>1398.0692614069542</v>
+        <v>139.80692614069542</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A663">
-        <v>1397.7081348478819</v>
+        <v>139.77081348478819</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A664">
-        <v>1397.3418499287438</v>
+        <v>139.73418499287439</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A665">
-        <v>1396.9701843712996</v>
+        <v>139.69701843712997</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A666">
-        <v>1396.5929158973111</v>
+        <v>139.65929158973111</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A667">
-        <v>1396.2098222285376</v>
+        <v>139.62098222285377</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A668">
-        <v>1395.8206810867391</v>
+        <v>139.58206810867392</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A669">
-        <v>1395.4252701936771</v>
+        <v>139.5425270193677</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A670">
-        <v>1395.0233672711092</v>
+        <v>139.50233672711093</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A671">
-        <v>1394.6147500407992</v>
+        <v>139.46147500407992</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A672">
-        <v>1394.1991962245038</v>
+        <v>139.41991962245038</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A673">
-        <v>1393.7764835439864</v>
+        <v>139.37764835439864</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A674">
-        <v>1393.3463897210052</v>
+        <v>139.33463897210052</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A675">
-        <v>1392.908692477321</v>
+        <v>139.2908692477321</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A676">
-        <v>1392.4631695346939</v>
+        <v>139.24631695346937</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A677">
-        <v>1392.0095986148845</v>
+        <v>139.20095986148846</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A678">
-        <v>1391.547757439653</v>
+        <v>139.1547757439653</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A679">
-        <v>1391.0774237307601</v>
+        <v>139.10774237307601</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A680">
-        <v>1390.5983752099651</v>
+        <v>139.0598375209965</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A681">
-        <v>1390.1103895990277</v>
+        <v>139.01103895990278</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A682">
-        <v>1389.6132446197107</v>
+        <v>138.96132446197106</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A683">
-        <v>1389.1067179937718</v>
+        <v>138.91067179937718</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A684">
-        <v>1388.5905874429716</v>
+        <v>138.85905874429716</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A685">
-        <v>1388.0646306890719</v>
+        <v>138.80646306890719</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A686">
-        <v>1387.5286254538312</v>
+        <v>138.75286254538312</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A687">
-        <v>1386.9823494590119</v>
+        <v>138.69823494590119</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A688">
-        <v>1386.4255804263714</v>
+        <v>138.64255804263715</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A689">
-        <v>1385.8580960776721</v>
+        <v>138.5858096077672</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A690">
-        <v>1385.2587952960116</v>
+        <v>138.52587952960116</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A691">
-        <v>1384.5833944549404</v>
+        <v>138.45833944549403</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A692">
-        <v>1383.8331085121486</v>
+        <v>138.38331085121484</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A693">
-        <v>1383.0107876470345</v>
+        <v>138.30107876470345</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A694">
-        <v>1382.1192820389915</v>
+        <v>138.21192820389916</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A695">
-        <v>1381.1614418674171</v>
+        <v>138.11614418674171</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A696">
-        <v>1380.1401173117065</v>
+        <v>138.01401173117065</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A697">
-        <v>1379.0581585512541</v>
+        <v>137.90581585512541</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A698">
-        <v>1377.9184157654574</v>
+        <v>137.79184157654575</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A699">
-        <v>1376.7237391337108</v>
+        <v>137.67237391337108</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A700">
-        <v>1375.4769788354099</v>
+        <v>137.54769788354099</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A701">
-        <v>1374.1809850499519</v>
+        <v>137.41809850499519</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A702">
-        <v>1372.8386079567313</v>
+        <v>137.28386079567312</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A703">
-        <v>1371.4526977351441</v>
+        <v>137.1452697735144</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A704">
-        <v>1370.0261045645857</v>
+        <v>137.00261045645857</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A705">
-        <v>1368.5616786244523</v>
+        <v>136.85616786244523</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A706">
-        <v>1367.0622700941387</v>
+        <v>136.70622700941388</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A707">
-        <v>1365.5307291530426</v>
+        <v>136.55307291530426</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A708">
-        <v>1363.9699059805571</v>
+        <v>136.39699059805571</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A709">
-        <v>1362.3826507560793</v>
+        <v>136.23826507560793</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A710">
-        <v>1360.7718136590054</v>
+        <v>136.07718136590054</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A711">
-        <v>1359.1402448687295</v>
+        <v>135.91402448687296</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A712">
-        <v>1357.4907945646487</v>
+        <v>135.74907945646487</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A713">
-        <v>1355.8263129261582</v>
+        <v>135.58263129261582</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A714">
-        <v>1354.1496501326537</v>
+        <v>135.41496501326537</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A715">
-        <v>1352.4636563635304</v>
+        <v>135.24636563635303</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A716">
-        <v>1350.7711817981842</v>
+        <v>135.07711817981843</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A717">
-        <v>1349.0750766160122</v>
+        <v>134.90750766160122</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A718">
-        <v>1347.3781909964082</v>
+        <v>134.73781909964083</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A719">
-        <v>1345.6833751187696</v>
+        <v>134.56833751187696</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A720">
-        <v>1343.9934791624898</v>
+        <v>134.39934791624898</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A721">
-        <v>1326.8292876665694</v>
+        <v>132.68292876665694</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A722">
-        <v>1325.1770610453473</v>
+        <v>132.51770610453474</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A723">
-        <v>1323.5381495169336</v>
+        <v>132.35381495169335</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A724">
-        <v>1321.9153703870788</v>
+        <v>132.19153703870788</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A725">
-        <v>1320.3115409615375</v>
+        <v>132.03115409615376</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A726">
-        <v>1318.7294785460597</v>
+        <v>131.87294785460597</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A727">
-        <v>1317.1720004464</v>
+        <v>131.71720004464001</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A728">
-        <v>1315.6419239683098</v>
+        <v>131.56419239683098</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A729">
-        <v>1314.1420664175414</v>
+        <v>131.41420664175413</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A730">
-        <v>1312.675245099849</v>
+        <v>131.2675245099849</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A731">
-        <v>1311.244277320983</v>
+        <v>131.1244277320983</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A732">
-        <v>1309.8519803866961</v>
+        <v>130.98519803866961</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A733">
-        <v>1308.5011716027427</v>
+        <v>130.85011716027427</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A734">
-        <v>1307.194668274873</v>
+        <v>130.71946682748731</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A735">
-        <v>1305.9352877088406</v>
+        <v>130.59352877088406</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A736">
-        <v>1304.7258472103988</v>
+        <v>130.47258472103988</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A737">
-        <v>1303.5691640852979</v>
+        <v>130.3569164085298</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A738">
-        <v>1302.4680556392927</v>
+        <v>130.24680556392929</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A739">
-        <v>1301.4253391781347</v>
+        <v>130.14253391781347</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A740">
-        <v>1300.4438320075758</v>
+        <v>130.04438320075758</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A741">
-        <v>1299.5263514333692</v>
+        <v>129.95263514333692</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A742">
-        <v>1298.675714761268</v>
+        <v>129.86757147612678</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A743">
-        <v>1297.8947392970233</v>
+        <v>129.78947392970232</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A744">
-        <v>1297.1862423463883</v>
+        <v>129.71862423463884</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A745">
-        <v>1296.5530412151156</v>
+        <v>129.65530412151156</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A746">
-        <v>1295.9979532089571</v>
+        <v>129.59979532089571</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A747">
-        <v>1295.5237956336669</v>
+        <v>129.55237956336669</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A748">
-        <v>1295.1333857949949</v>
+        <v>129.51333857949948</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A749">
-        <v>1294.8295409986958</v>
+        <v>129.48295409986957</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A750">
-        <v>1294.6150785505213</v>
+        <v>129.46150785505213</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A751">
-        <v>1294.4928157562231</v>
+        <v>129.44928157562231</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A752">
-        <v>1294.4645071051716</v>
+        <v>129.44645071051715</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A753">
-        <v>1294.5017874833034</v>
+        <v>129.45017874833033</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A754">
-        <v>1294.5899160406002</v>
+        <v>129.45899160406003</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A755">
-        <v>1294.7274958400194</v>
+        <v>129.47274958400195</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A756">
-        <v>1294.9131299445157</v>
+        <v>129.49131299445156</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A757">
-        <v>1295.1454214170462</v>
+        <v>129.51454214170462</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A758">
-        <v>1295.4229733205671</v>
+        <v>129.54229733205671</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A759">
-        <v>1295.7443887180355</v>
+        <v>129.57443887180355</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A760">
-        <v>1296.1082706724073</v>
+        <v>129.61082706724073</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A761">
-        <v>1296.5132222466377</v>
+        <v>129.65132222466377</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A762">
-        <v>1296.9578465036843</v>
+        <v>129.69578465036844</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A763">
-        <v>1297.4407465065037</v>
+        <v>129.74407465065036</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A764">
-        <v>1297.9605253180507</v>
+        <v>129.79605253180506</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A765">
-        <v>1298.5157860012828</v>
+        <v>129.85157860012828</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A766">
-        <v>1299.1051316191558</v>
+        <v>129.91051316191559</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A767">
-        <v>1299.7271652346265</v>
+        <v>129.97271652346265</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A768">
-        <v>1300.3804899106508</v>
+        <v>130.03804899106507</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A769">
-        <v>1301.063708710185</v>
+        <v>130.1063708710185</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A770">
-        <v>1301.7754246961858</v>
+        <v>130.17754246961857</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A771">
-        <v>1302.514240931609</v>
+        <v>130.25142409316089</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A772">
-        <v>1303.2787604794114</v>
+        <v>130.32787604794115</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A773">
-        <v>1304.0675864025493</v>
+        <v>130.40675864025494</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A774">
-        <v>1304.8793217639791</v>
+        <v>130.48793217639792</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A775">
-        <v>1305.7125696266562</v>
+        <v>130.57125696266561</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A776">
-        <v>1306.5659330535377</v>
+        <v>130.65659330535377</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A777">
-        <v>1307.4380151075798</v>
+        <v>130.74380151075798</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A778">
-        <v>1308.3274188517389</v>
+        <v>130.8327418851739</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A779">
-        <v>1309.2327473489713</v>
+        <v>130.92327473489712</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A780">
-        <v>1310.1526036622336</v>
+        <v>131.01526036622334</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A781">
-        <v>1324.9904466943574</v>
+        <v>132.49904466943573</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A782">
-        <v>1325.945187167689</v>
+        <v>132.5945187167689</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A783">
-        <v>1326.9103742761108</v>
+        <v>132.69103742761109</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A784">
-        <v>1327.8845962672151</v>
+        <v>132.7884596267215</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A785">
-        <v>1328.8664413885963</v>
+        <v>132.88664413885962</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A786">
-        <v>1329.8544978878472</v>
+        <v>132.98544978878471</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A787">
-        <v>1330.8473540125633</v>
+        <v>133.08473540125632</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A788">
-        <v>1331.8435980103372</v>
+        <v>133.18435980103374</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A789">
-        <v>1332.8418181287636</v>
+        <v>133.28418181287637</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A790">
-        <v>1333.8406026154362</v>
+        <v>133.38406026154362</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A791">
-        <v>1334.8385397179477</v>
+        <v>133.48385397179476</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A792">
-        <v>1335.8342176838939</v>
+        <v>133.5834217683894</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A793">
-        <v>1336.8262247608682</v>
+        <v>133.68262247608681</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A794">
-        <v>1337.8131491964637</v>
+        <v>133.78131491964638</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A795">
-        <v>1338.7935792382746</v>
+        <v>133.87935792382746</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A796">
-        <v>1339.7661031338948</v>
+        <v>133.97661031338947</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A797">
-        <v>1340.7293091309184</v>
+        <v>134.07293091309185</v>
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A798">
-        <v>1341.6817854769392</v>
+        <v>134.16817854769391</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A799">
-        <v>1342.622120419551</v>
+        <v>134.26221204195511</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A800">
-        <v>1343.548902206348</v>
+        <v>134.35489022063479</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A801">
-        <v>1344.4607190849229</v>
+        <v>134.44607190849229</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A802">
-        <v>1345.3561593028712</v>
+        <v>134.53561593028712</v>
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A803">
-        <v>1346.2338111077861</v>
+        <v>134.62338111077861</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A804">
-        <v>1347.092262747261</v>
+        <v>134.70922627472609</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A805">
-        <v>1347.9301024688912</v>
+        <v>134.79301024688911</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A806">
-        <v>1348.7459185202683</v>
+        <v>134.87459185202684</v>
       </c>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A807">
-        <v>1349.5382991489882</v>
+        <v>134.95382991489882</v>
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A808">
-        <v>1350.3058326026442</v>
+        <v>135.03058326026442</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A809">
-        <v>1351.0471071288298</v>
+        <v>135.10471071288299</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A810">
-        <v>1351.7607109751393</v>
+        <v>135.17607109751393</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A811">
-        <v>1352.4452323891662</v>
+        <v>135.24452323891663</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A812">
-        <v>1353.0992596185047</v>
+        <v>135.30992596185047</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A813">
-        <v>1353.7213809107491</v>
+        <v>135.3721380910749</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A814">
-        <v>1354.3101845134925</v>
+        <v>135.43101845134925</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A815">
-        <v>1354.8718942313303</v>
+        <v>135.48718942313303</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A816">
-        <v>1355.4317515359012</v>
+        <v>135.54317515359011</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A817">
-        <v>1355.9917153100466</v>
+        <v>135.59917153100466</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A818">
-        <v>1356.551597213514</v>
+        <v>135.6551597213514</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A819">
-        <v>1357.1112089060539</v>
+        <v>135.7111208906054</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A820">
-        <v>1357.6703620474127</v>
+        <v>135.76703620474126</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A821">
-        <v>1358.2288682973401</v>
+        <v>135.82288682973402</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A822">
-        <v>1358.7865393155835</v>
+        <v>135.87865393155835</v>
       </c>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A823">
-        <v>1359.3431867618915</v>
+        <v>135.93431867618915</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A824">
-        <v>1359.8986222960136</v>
+        <v>135.98986222960136</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A825">
-        <v>1360.4526575776963</v>
+        <v>136.04526575776964</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A826">
-        <v>1361.0051042666892</v>
+        <v>136.1005104266689</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A827">
-        <v>1361.5557740227409</v>
+        <v>136.1555774022741</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A828">
-        <v>1362.1044785055985</v>
+        <v>136.21044785055986</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A829">
-        <v>1362.6510293750118</v>
+        <v>136.26510293750118</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A830">
-        <v>1363.195238290728</v>
+        <v>136.31952382907281</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A831">
-        <v>1363.7369169124968</v>
+        <v>136.37369169124969</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A832">
-        <v>1364.2758769000657</v>
+        <v>136.42758769000656</v>
       </c>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A833">
-        <v>1364.8119299131824</v>
+        <v>136.48119299131824</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A834">
-        <v>1365.3448876115963</v>
+        <v>136.53448876115962</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A835">
-        <v>1365.8745616550568</v>
+        <v>136.58745616550567</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A836">
-        <v>1366.4007637033096</v>
+        <v>136.64007637033097</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A837">
-        <v>1366.9233054161059</v>
+        <v>136.6923305416106</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A838">
-        <v>1367.4419984531924</v>
+        <v>136.74419984531923</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A839">
-        <v>1367.956654474317</v>
+        <v>136.7956654474317</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A840">
-        <v>1368.4670851392295</v>
+        <v>136.84670851392295</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A841">
-        <v>1366.9063662983538</v>
+        <v>136.69063662983538</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A842">
-        <v>1367.4070242450193</v>
+        <v>136.74070242450193</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A843">
-        <v>1367.90289904674</v>
+        <v>136.79028990467401</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A844">
-        <v>1368.3938026475998</v>
+        <v>136.83938026476</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A845">
-        <v>1368.8795469916849</v>
+        <v>136.88795469916849</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A846">
-        <v>1369.3599440230807</v>
+        <v>136.93599440230807</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A847">
-        <v>1369.8348056858713</v>
+        <v>136.98348056858714</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A848">
-        <v>1370.3039439241422</v>
+        <v>137.03039439241422</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A849">
-        <v>1370.7671706819804</v>
+        <v>137.07671706819804</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A850">
-        <v>1371.2242979034695</v>
+        <v>137.12242979034696</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A851">
-        <v>1371.6751375326949</v>
+        <v>137.16751375326947</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A852">
-        <v>1372.1195015137419</v>
+        <v>137.2119501513742</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A853">
-        <v>1372.5572017906975</v>
+        <v>137.25572017906975</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A854">
-        <v>1372.9880503076442</v>
+        <v>137.29880503076441</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A855">
-        <v>1373.4118590086689</v>
+        <v>137.34118590086689</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A856">
-        <v>1373.8284398378562</v>
+        <v>137.38284398378562</v>
       </c>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A857">
-        <v>1374.2376047392927</v>
+        <v>137.42376047392926</v>
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A858">
-        <v>1374.6391656570618</v>
+        <v>137.46391656570617</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A859">
-        <v>1375.03293453525</v>
+        <v>137.503293453525</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A860">
-        <v>1375.4187233179423</v>
+        <v>137.54187233179422</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A861">
-        <v>1375.7963439492232</v>
+        <v>137.57963439492232</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A862">
-        <v>1376.1656083731793</v>
+        <v>137.61656083731793</v>
       </c>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A863">
-        <v>1376.5263285338947</v>
+        <v>137.65263285338946</v>
       </c>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A864">
-        <v>1376.8783163754551</v>
+        <v>137.68783163754551</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A865">
-        <v>1377.2213838419457</v>
+        <v>137.72213838419458</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A866">
-        <v>1377.5553428774519</v>
+        <v>137.75553428774521</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A867">
-        <v>1377.8800054260601</v>
+        <v>137.788000542606</v>
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A868">
-        <v>1378.1951834318531</v>
+        <v>137.81951834318531</v>
       </c>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A869">
-        <v>1378.500688838918</v>
+        <v>137.85006888389179</v>
       </c>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A870">
-        <v>1378.7963335913398</v>
+        <v>137.87963335913398</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A871">
-        <v>1379.0819296332031</v>
+        <v>137.90819296332032</v>
       </c>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A872">
-        <v>1379.3572889085935</v>
+        <v>137.93572889085937</v>
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A873">
-        <v>1379.6222233615968</v>
+        <v>137.96222233615967</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A874">
-        <v>1379.8765449362975</v>
+        <v>137.98765449362975</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A875">
-        <v>1380.1200655767809</v>
+        <v>138.01200655767809</v>
       </c>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A876">
-        <v>1380.3525972271332</v>
+        <v>138.03525972271331</v>
       </c>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A877">
-        <v>1380.5739941457664</v>
+        <v>138.05739941457665</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A878">
-        <v>1380.7905691778785</v>
+        <v>138.07905691778785</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A879">
-        <v>1381.006870394117</v>
+        <v>138.1006870394117</v>
       </c>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A880">
-        <v>1381.2227921625395</v>
+        <v>138.12227921625396</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A881">
-        <v>1381.4382288512052</v>
+        <v>138.14382288512053</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A882">
-        <v>1381.6530748281721</v>
+        <v>138.16530748281721</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A883">
-        <v>1381.8672244614963</v>
+        <v>138.18672244614964</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A884">
-        <v>1382.0805721192387</v>
+        <v>138.20805721192386</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A885">
-        <v>1382.2930121694558</v>
+        <v>138.22930121694557</v>
       </c>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A886">
-        <v>1382.5044389802063</v>
+        <v>138.25044389802062</v>
       </c>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A887">
-        <v>1382.7147469195472</v>
+        <v>138.27147469195472</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A888">
-        <v>1382.923830355538</v>
+        <v>138.2923830355538</v>
       </c>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A889">
-        <v>1383.1315836562351</v>
+        <v>138.31315836562351</v>
       </c>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A890">
-        <v>1383.3379011896989</v>
+        <v>138.33379011896989</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A891">
-        <v>1383.5426773239851</v>
+        <v>138.35426773239851</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A892">
-        <v>1383.7458064271539</v>
+        <v>138.37458064271539</v>
       </c>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A893">
-        <v>1383.9471828672613</v>
+        <v>138.39471828672612</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A894">
-        <v>1384.1467010123674</v>
+        <v>138.41467010123674</v>
       </c>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A895">
-        <v>1384.3442552305291</v>
+        <v>138.43442552305291</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A896">
-        <v>1384.5397398898044</v>
+        <v>138.45397398898044</v>
       </c>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A897">
-        <v>1384.7330493582524</v>
+        <v>138.47330493582524</v>
       </c>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A898">
-        <v>1384.9240780039295</v>
+        <v>138.49240780039295</v>
       </c>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A899">
-        <v>1385.1127201948955</v>
+        <v>138.51127201948955</v>
       </c>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A900">
-        <v>1385.2988702992081</v>
+        <v>138.52988702992081</v>
       </c>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A901">
-        <v>1383.9127277034688</v>
+        <v>138.39127277034689</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A902">
-        <v>1384.0933718440801</v>
+        <v>138.409337184408</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A903">
-        <v>1384.2712101846737</v>
+        <v>138.42712101846737</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A904">
-        <v>1384.4461372129854</v>
+        <v>138.44461372129854</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A905">
-        <v>1384.6180474167491</v>
+        <v>138.46180474167491</v>
       </c>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A906">
-        <v>1384.7868352837004</v>
+        <v>138.47868352837003</v>
       </c>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A907">
-        <v>1384.9523953015739</v>
+        <v>138.49523953015739</v>
       </c>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A908">
-        <v>1385.1146219581037</v>
+        <v>138.51146219581037</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A909">
-        <v>1385.2734097410257</v>
+        <v>138.52734097410257</v>
       </c>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A910">
-        <v>1385.4286531380731</v>
+        <v>138.54286531380731</v>
       </c>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A911">
-        <v>1385.5802466369823</v>
+        <v>138.55802466369823</v>
       </c>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A912">
-        <v>1385.7280847254865</v>
+        <v>138.57280847254864</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A913">
-        <v>1385.8720618913228</v>
+        <v>138.58720618913227</v>
       </c>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A914">
-        <v>1386.0120726222226</v>
+        <v>138.60120726222226</v>
       </c>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A915">
-        <v>1386.1480114059234</v>
+        <v>138.61480114059233</v>
       </c>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A916">
-        <v>1386.2797727301595</v>
+        <v>138.62797727301594</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A917">
-        <v>1386.4072510826647</v>
+        <v>138.64072510826648</v>
       </c>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A918">
-        <v>1386.5303409511739</v>
+        <v>138.65303409511739</v>
       </c>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A919">
-        <v>1386.6489368234234</v>
+        <v>138.66489368234232</v>
       </c>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A920">
-        <v>1386.7629331871458</v>
+        <v>138.67629331871458</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A921">
-        <v>1386.8722245300773</v>
+        <v>138.68722245300773</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A922">
-        <v>1386.9767053399519</v>
+        <v>138.69767053399519</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A923">
-        <v>1387.0762701045053</v>
+        <v>138.70762701045052</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A924">
-        <v>1387.1708133114714</v>
+        <v>138.71708133114714</v>
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A925">
-        <v>1387.2602294485855</v>
+        <v>138.72602294485856</v>
       </c>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A926">
-        <v>1387.3444130035818</v>
+        <v>138.73444130035818</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A927">
-        <v>1387.423258464195</v>
+        <v>138.7423258464195</v>
       </c>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A928">
-        <v>1387.496660318161</v>
+        <v>138.7496660318161</v>
       </c>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A929">
-        <v>1387.5645130532139</v>
+        <v>138.75645130532138</v>
       </c>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A930">
-        <v>1387.6267111570871</v>
+        <v>138.76267111570871</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A931">
-        <v>1387.6831491175176</v>
+        <v>138.76831491175176</v>
       </c>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A932">
-        <v>1387.7337214222384</v>
+        <v>138.77337214222385</v>
       </c>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A933">
-        <v>1387.7783225589862</v>
+        <v>138.77783225589863</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A934">
-        <v>1387.8168470154937</v>
+        <v>138.78168470154938</v>
       </c>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A935">
-        <v>1387.8491892794968</v>
+        <v>138.78491892794969</v>
       </c>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A936">
-        <v>1387.8752438387303</v>
+        <v>138.78752438387303</v>
       </c>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A937">
-        <v>1387.8949051809288</v>
+        <v>138.78949051809289</v>
       </c>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A938">
-        <v>1387.9080677938264</v>
+        <v>138.79080677938265</v>
       </c>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A939">
-        <v>1387.9146261651588</v>
+        <v>138.79146261651587</v>
       </c>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A940">
-        <v>1387.9141036798139</v>
+        <v>138.7914103679814</v>
       </c>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A941">
-        <v>1387.9044929297133</v>
+        <v>138.79044929297135</v>
       </c>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A942">
-        <v>1387.8857298412152</v>
+        <v>138.78857298412152</v>
       </c>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A943">
-        <v>1387.8580761712783</v>
+        <v>138.78580761712783</v>
       </c>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A944">
-        <v>1387.8217936768619</v>
+        <v>138.78217936768618</v>
       </c>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A945">
-        <v>1387.7771441149273</v>
+        <v>138.77771441149272</v>
       </c>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A946">
-        <v>1387.7243892424326</v>
+        <v>138.77243892424326</v>
       </c>
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A947">
-        <v>1387.6637908163384</v>
+        <v>138.76637908163383</v>
       </c>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A948">
-        <v>1387.5956105936029</v>
+        <v>138.75956105936029</v>
       </c>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A949">
-        <v>1387.5201103311863</v>
+        <v>138.75201103311863</v>
       </c>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A950">
-        <v>1387.4375517860476</v>
+        <v>138.74375517860477</v>
       </c>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A951">
-        <v>1387.3481967151488</v>
+        <v>138.73481967151488</v>
       </c>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A952">
-        <v>1387.2523068754458</v>
+        <v>138.72523068754458</v>
       </c>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A953">
-        <v>1387.1501440239012</v>
+        <v>138.71501440239012</v>
       </c>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A954">
-        <v>1387.0419699174727</v>
+        <v>138.70419699174727</v>
       </c>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A955">
-        <v>1386.9280463131204</v>
+        <v>138.69280463131204</v>
       </c>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A956">
-        <v>1386.8086349678047</v>
+        <v>138.68086349678046</v>
       </c>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A957">
-        <v>1386.6839976384838</v>
+        <v>138.66839976384838</v>
       </c>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A958">
-        <v>1386.5543960821183</v>
+        <v>138.65543960821182</v>
       </c>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A959">
-        <v>1386.4200920556673</v>
+        <v>138.64200920556672</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A960">
-        <v>1386.2813473160898</v>
+        <v>138.62813473160898</v>
       </c>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A961">
-        <v>1383.1866888821642</v>
+        <v>138.31866888821642</v>
       </c>
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A962">
-        <v>1383.0401606799169</v>
+        <v>138.30401606799168</v>
       </c>
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A963">
-        <v>1382.8899848195622</v>
+        <v>138.28899848195621</v>
       </c>
     </row>
     <row r="964" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A964">
-        <v>1382.7364225006586</v>
+        <v>138.27364225006585</v>
       </c>
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A965">
-        <v>1382.5797349227605</v>
+        <v>138.25797349227605</v>
       </c>
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A966">
-        <v>1382.4201832854271</v>
+        <v>138.24201832854271</v>
       </c>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A967">
-        <v>1382.2580287882142</v>
+        <v>138.22580287882141</v>
       </c>
     </row>
     <row r="968" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A968">
-        <v>1382.0935326306799</v>
+        <v>138.20935326306798</v>
       </c>
     </row>
     <row r="969" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A969">
-        <v>1381.9269560123803</v>
+        <v>138.19269560123803</v>
       </c>
     </row>
     <row r="970" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A970">
-        <v>1381.7585601328722</v>
+        <v>138.17585601328722</v>
       </c>
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A971">
-        <v>1381.5886061917126</v>
+        <v>138.15886061917126</v>
       </c>
     </row>
     <row r="972" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A972">
-        <v>1381.4173553884602</v>
+        <v>138.14173553884604</v>
       </c>
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A973">
-        <v>1381.2450689226696</v>
+        <v>138.12450689226696</v>
       </c>
     </row>
     <row r="974" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A974">
-        <v>1381.0720079938992</v>
+        <v>138.10720079938991</v>
       </c>
     </row>
     <row r="975" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A975">
-        <v>1380.8984338017056</v>
+        <v>138.08984338017055</v>
       </c>
     </row>
     <row r="976" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A976">
-        <v>1380.7246075456464</v>
+        <v>138.07246075456464</v>
       </c>
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A977">
-        <v>1380.5507904252775</v>
+        <v>138.05507904252775</v>
       </c>
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A978">
-        <v>1380.3772436401568</v>
+        <v>138.03772436401567</v>
       </c>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A979">
-        <v>1380.2042283898395</v>
+        <v>138.02042283898396</v>
       </c>
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A980">
-        <v>1380.0320058738857</v>
+        <v>138.00320058738856</v>
       </c>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A981">
-        <v>1379.8608372918502</v>
+        <v>137.98608372918503</v>
       </c>
     </row>
     <row r="982" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A982">
-        <v>1379.6909838432905</v>
+        <v>137.96909838432904</v>
       </c>
     </row>
     <row r="983" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A983">
-        <v>1379.5227067277633</v>
+        <v>137.95227067277634</v>
       </c>
     </row>
     <row r="984" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A984">
-        <v>1379.3562671448265</v>
+        <v>137.93562671448265</v>
       </c>
     </row>
     <row r="985" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A985">
-        <v>1379.1919262940355</v>
+        <v>137.91919262940354</v>
       </c>
     </row>
     <row r="986" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A986">
-        <v>1379.0299453749492</v>
+        <v>137.90299453749492</v>
       </c>
     </row>
     <row r="987" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A987">
-        <v>1378.8705855871235</v>
+        <v>137.88705855871234</v>
       </c>
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A988">
-        <v>1378.7141081301149</v>
+        <v>137.87141081301149</v>
       </c>
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A989">
-        <v>1378.5607742034815</v>
+        <v>137.85607742034816</v>
       </c>
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A990">
-        <v>1378.4108450067799</v>
+        <v>137.84108450067799</v>
       </c>
     </row>
     <row r="991" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A991">
-        <v>1378.2645817395667</v>
+        <v>137.82645817395667</v>
       </c>
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A992">
-        <v>1378.1222456013995</v>
+        <v>137.81222456013995</v>
       </c>
     </row>
     <row r="993" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A993">
-        <v>1377.9840977918352</v>
+        <v>137.79840977918352</v>
       </c>
     </row>
     <row r="994" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A994">
-        <v>1377.8503995104302</v>
+        <v>137.78503995104302</v>
       </c>
     </row>
     <row r="995" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A995">
-        <v>1377.721411956742</v>
+        <v>137.77214119567421</v>
       </c>
     </row>
     <row r="996" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A996">
-        <v>1377.5973963303275</v>
+        <v>137.75973963303275</v>
       </c>
     </row>
     <row r="997" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A997">
-        <v>1377.4786138307436</v>
+        <v>137.74786138307437</v>
       </c>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A998">
-        <v>1377.3653256575471</v>
+        <v>137.73653256575471</v>
       </c>
     </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A999">
-        <v>1377.2577930102962</v>
+        <v>137.7257793010296</v>
       </c>
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1000">
-        <v>1377.1562770885464</v>
+        <v>137.71562770885464</v>
       </c>
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1001">
-        <v>1377.0610390918548</v>
+        <v>137.70610390918549</v>
       </c>
     </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1002">
-        <v>1376.972340219779</v>
+        <v>137.69723402197789</v>
       </c>
     </row>
     <row r="1003" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1003">
-        <v>1376.8869877417776</v>
+        <v>137.68869877417777</v>
       </c>
     </row>
     <row r="1004" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1004">
-        <v>1376.8010286670572</v>
+        <v>137.68010286670571</v>
       </c>
     </row>
     <row r="1005" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1005">
-        <v>1376.7145209804946</v>
+        <v>137.67145209804946</v>
       </c>
     </row>
     <row r="1006" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1006">
-        <v>1376.6275297413913</v>
+        <v>137.66275297413912</v>
       </c>
     </row>
     <row r="1007" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1007">
-        <v>1376.5401200090459</v>
+        <v>137.6540120009046</v>
       </c>
     </row>
     <row r="1008" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1008">
-        <v>1376.4523568427601</v>
+        <v>137.645235684276</v>
       </c>
     </row>
     <row r="1009" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1009">
-        <v>1376.3643053018336</v>
+        <v>137.63643053018336</v>
       </c>
     </row>
     <row r="1010" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1010">
-        <v>1376.2760304455662</v>
+        <v>137.62760304455662</v>
       </c>
     </row>
     <row r="1011" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1011">
-        <v>1376.1875973332599</v>
+        <v>137.61875973332599</v>
       </c>
     </row>
     <row r="1012" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1012">
-        <v>1376.0990710242138</v>
+        <v>137.60990710242137</v>
       </c>
     </row>
     <row r="1013" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1013">
-        <v>1376.0105165777293</v>
+        <v>137.60105165777293</v>
       </c>
     </row>
     <row r="1014" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1014">
-        <v>1375.9219990531051</v>
+        <v>137.59219990531051</v>
       </c>
     </row>
     <row r="1015" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1015">
-        <v>1375.8335835096432</v>
+        <v>137.58335835096432</v>
       </c>
     </row>
     <row r="1016" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1016">
-        <v>1375.7453350066428</v>
+        <v>137.57453350066427</v>
       </c>
     </row>
     <row r="1017" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1017">
-        <v>1375.6573186034052</v>
+        <v>137.56573186034052</v>
       </c>
     </row>
     <row r="1018" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1018">
-        <v>1375.5695993592301</v>
+        <v>137.556959935923</v>
       </c>
     </row>
     <row r="1019" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1019">
-        <v>1375.4822423334181</v>
+        <v>137.54822423334181</v>
       </c>
     </row>
     <row r="1020" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1020">
-        <v>1375.3953125852695</v>
+        <v>137.53953125852695</v>
       </c>
     </row>
     <row r="1021" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1021">
-        <v>1376.3080683173621</v>
+        <v>137.63080683173621</v>
       </c>
     </row>
     <row r="1022" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1022">
-        <v>1376.2221259086598</v>
+        <v>137.62221259086598</v>
       </c>
     </row>
     <row r="1023" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1023">
-        <v>1376.1368064077501</v>
+        <v>137.61368064077502</v>
       </c>
     </row>
     <row r="1024" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1024">
-        <v>1376.0521749212003</v>
+        <v>137.60521749212003</v>
       </c>
     </row>
     <row r="1025" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1025">
-        <v>1375.968296555578</v>
+        <v>137.5968296555578</v>
       </c>
     </row>
     <row r="1026" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1026">
-        <v>1375.8852364174513</v>
+        <v>137.58852364174513</v>
       </c>
     </row>
     <row r="1027" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1027">
-        <v>1375.8030596133858</v>
+        <v>137.58030596133858</v>
       </c>
     </row>
     <row r="1028" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1028">
-        <v>1375.7218312499506</v>
+        <v>137.57218312499506</v>
       </c>
     </row>
     <row r="1029" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1029">
-        <v>1375.6416164337124</v>
+        <v>137.56416164337125</v>
       </c>
     </row>
     <row r="1030" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1030">
-        <v>1375.5624802712391</v>
+        <v>137.5562480271239</v>
       </c>
     </row>
     <row r="1031" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1031">
-        <v>1375.4844878690969</v>
+        <v>137.54844878690969</v>
       </c>
     </row>
     <row r="1032" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1032">
-        <v>1375.4077043338548</v>
+        <v>137.54077043338549</v>
       </c>
     </row>
     <row r="1033" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1033">
-        <v>1375.3321947720792</v>
+        <v>137.53321947720792</v>
       </c>
     </row>
     <row r="1034" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1034">
-        <v>1375.2580242903382</v>
+        <v>137.52580242903383</v>
       </c>
     </row>
     <row r="1035" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1035">
-        <v>1375.1852579951994</v>
+        <v>137.51852579951995</v>
       </c>
     </row>
     <row r="1036" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1036">
-        <v>1375.1139609932293</v>
+        <v>137.51139609932292</v>
       </c>
     </row>
     <row r="1037" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1037">
-        <v>1375.0441983909948</v>
+        <v>137.50441983909948</v>
       </c>
     </row>
     <row r="1038" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1038">
-        <v>1374.976035295065</v>
+        <v>137.49760352950651</v>
       </c>
     </row>
     <row r="1039" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1039">
-        <v>1374.909536812007</v>
+        <v>137.49095368120069</v>
       </c>
     </row>
     <row r="1040" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1040">
-        <v>1374.8447680483878</v>
+        <v>137.48447680483878</v>
       </c>
     </row>
     <row r="1041" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1041">
-        <v>1374.7817941107744</v>
+        <v>137.47817941107743</v>
       </c>
     </row>
     <row r="1042" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1042">
-        <v>1374.7206801057339</v>
+        <v>137.47206801057339</v>
       </c>
     </row>
     <row r="1043" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1043">
-        <v>1374.6614911398353</v>
+        <v>137.46614911398353</v>
       </c>
     </row>
     <row r="1044" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1044">
-        <v>1374.6042923196451</v>
+        <v>137.4604292319645</v>
       </c>
     </row>
     <row r="1045" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1045">
-        <v>1374.5491487517313</v>
+        <v>137.45491487517313</v>
       </c>
     </row>
     <row r="1046" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1046">
-        <v>1374.4961255426597</v>
+        <v>137.44961255426597</v>
       </c>
     </row>
     <row r="1047" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1047">
-        <v>1374.4452877989997</v>
+        <v>137.44452877989997</v>
       </c>
     </row>
     <row r="1048" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1048">
-        <v>1374.3967006273178</v>
+        <v>137.43967006273178</v>
       </c>
     </row>
     <row r="1049" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1049">
-        <v>1374.350429134181</v>
+        <v>137.4350429134181</v>
       </c>
     </row>
     <row r="1050" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1050">
-        <v>1374.3065384261577</v>
+        <v>137.43065384261575</v>
       </c>
     </row>
     <row r="1051" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1051">
-        <v>1374.2650936098144</v>
+        <v>137.42650936098144</v>
       </c>
     </row>
     <row r="1052" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1052">
-        <v>1374.2261597917186</v>
+        <v>137.42261597917187</v>
       </c>
     </row>
     <row r="1053" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1053">
-        <v>1374.189802078439</v>
+        <v>137.4189802078439</v>
       </c>
     </row>
     <row r="1054" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1054">
-        <v>1374.1560855765415</v>
+        <v>137.41560855765414</v>
       </c>
     </row>
     <row r="1055" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1055">
-        <v>1374.1250753925942</v>
+        <v>137.41250753925942</v>
       </c>
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1056">
-        <v>1374.0968366331642</v>
+        <v>137.40968366331643</v>
       </c>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1057">
-        <v>1374.0714344048197</v>
+        <v>137.40714344048197</v>
       </c>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1058">
-        <v>1374.0489338141274</v>
+        <v>137.40489338141273</v>
       </c>
     </row>
     <row r="1059" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1059">
-        <v>1374.0293999676544</v>
+        <v>137.40293999676544</v>
       </c>
     </row>
     <row r="1060" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1060">
-        <v>1374.0128979719693</v>
+        <v>137.40128979719694</v>
       </c>
     </row>
     <row r="1061" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1061">
-        <v>1373.9994929336381</v>
+        <v>137.39994929336382</v>
       </c>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1062">
-        <v>1373.9892499592297</v>
+        <v>137.39892499592298</v>
       </c>
     </row>
     <row r="1063" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1063">
-        <v>1373.9822341553099</v>
+        <v>137.39822341553099</v>
       </c>
     </row>
     <row r="1064" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1064">
-        <v>1373.9785106284478</v>
+        <v>137.39785106284478</v>
       </c>
     </row>
     <row r="1065" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1065">
-        <v>1373.9790614986896</v>
+        <v>137.39790614986896</v>
       </c>
     </row>
     <row r="1066" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1066">
-        <v>1373.9926133752147</v>
+        <v>137.39926133752147</v>
       </c>
     </row>
     <row r="1067" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1067">
-        <v>1374.0209259073281</v>
+        <v>137.40209259073282</v>
       </c>
     </row>
     <row r="1068" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1068">
-        <v>1374.0635052840059</v>
+        <v>137.40635052840059</v>
       </c>
     </row>
     <row r="1069" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1069">
-        <v>1374.1198576942252</v>
+        <v>137.41198576942253</v>
       </c>
     </row>
     <row r="1070" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1070">
-        <v>1374.1894893269634</v>
+        <v>137.41894893269634</v>
       </c>
     </row>
     <row r="1071" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1071">
-        <v>1374.2719063711961</v>
+        <v>137.42719063711962</v>
       </c>
     </row>
     <row r="1072" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1072">
-        <v>1374.3666150159006</v>
+        <v>137.43666150159007</v>
       </c>
     </row>
     <row r="1073" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1073">
-        <v>1374.4731214500528</v>
+        <v>137.44731214500527</v>
       </c>
     </row>
     <row r="1074" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1074">
-        <v>1374.59093186263</v>
+        <v>137.459093186263</v>
       </c>
     </row>
     <row r="1075" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1075">
-        <v>1374.719552442609</v>
+        <v>137.4719552442609</v>
       </c>
     </row>
     <row r="1076" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1076">
-        <v>1374.8584893789666</v>
+        <v>137.48584893789666</v>
       </c>
     </row>
     <row r="1077" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1077">
-        <v>1375.0072488606784</v>
+        <v>137.50072488606784</v>
       </c>
     </row>
     <row r="1078" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1078">
-        <v>1375.1653370767233</v>
+        <v>137.51653370767232</v>
       </c>
     </row>
     <row r="1079" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1079">
-        <v>1375.3322602160747</v>
+        <v>137.53322602160748</v>
       </c>
     </row>
     <row r="1080" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1080">
-        <v>1375.5075244677128</v>
+        <v>137.55075244677127</v>
       </c>
     </row>
     <row r="1081" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1081">
-        <v>1379.2548619546769</v>
+        <v>137.9254861954677</v>
       </c>
     </row>
     <row r="1082" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1082">
-        <v>1379.445820466643</v>
+        <v>137.94458204666429</v>
       </c>
     </row>
     <row r="1083" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1083">
-        <v>1379.6436564303126</v>
+        <v>137.96436564303127</v>
       </c>
     </row>
     <row r="1084" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1084">
-        <v>1379.847874755267</v>
+        <v>137.9847874755267</v>
       </c>
     </row>
     <row r="1085" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1085">
-        <v>1380.0579803510846</v>
+        <v>138.00579803510846</v>
       </c>
     </row>
     <row r="1086" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1086">
-        <v>1380.2734781273466</v>
+        <v>138.02734781273466</v>
       </c>
     </row>
     <row r="1087" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1087">
-        <v>1380.4938729936325</v>
+        <v>138.04938729936325</v>
       </c>
     </row>
     <row r="1088" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1088">
-        <v>1380.7186698595224</v>
+        <v>138.07186698595223</v>
       </c>
     </row>
     <row r="1089" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1089">
-        <v>1380.9473736345967</v>
+        <v>138.09473736345967</v>
       </c>
     </row>
     <row r="1090" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1090">
-        <v>1381.1794892284342</v>
+        <v>138.11794892284342</v>
       </c>
     </row>
     <row r="1091" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1091">
-        <v>1381.4145215506164</v>
+        <v>138.14145215506164</v>
       </c>
     </row>
     <row r="1092" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1092">
-        <v>1381.651975510722</v>
+        <v>138.1651975510722</v>
       </c>
     </row>
     <row r="1093" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1093">
-        <v>1381.8913560183319</v>
+        <v>138.18913560183319</v>
       </c>
     </row>
     <row r="1094" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1094">
-        <v>1382.132167983026</v>
+        <v>138.2132167983026</v>
       </c>
     </row>
     <row r="1095" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1095">
-        <v>1382.3739163143837</v>
+        <v>138.23739163143836</v>
       </c>
     </row>
     <row r="1096" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1096">
-        <v>1382.6161059219844</v>
+        <v>138.26161059219845</v>
       </c>
     </row>
     <row r="1097" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1097">
-        <v>1382.85824171541</v>
+        <v>138.28582417154101</v>
       </c>
     </row>
     <row r="1098" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1098">
-        <v>1383.0998286042395</v>
+        <v>138.30998286042396</v>
       </c>
     </row>
     <row r="1099" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1099">
-        <v>1383.3403714980527</v>
+        <v>138.33403714980528</v>
       </c>
     </row>
     <row r="1100" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1100">
-        <v>1383.5793753064304</v>
+        <v>138.35793753064303</v>
       </c>
     </row>
     <row r="1101" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1101">
-        <v>1383.8163449389513</v>
+        <v>138.38163449389512</v>
       </c>
     </row>
     <row r="1102" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1102">
-        <v>1384.0507853051963</v>
+        <v>138.40507853051963</v>
       </c>
     </row>
     <row r="1103" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1103">
-        <v>1384.2822013147447</v>
+        <v>138.42822013147446</v>
       </c>
     </row>
     <row r="1104" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1104">
-        <v>1384.5100978771777</v>
+        <v>138.45100978771777</v>
       </c>
     </row>
     <row r="1105" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1105">
-        <v>1384.7339799020742</v>
+        <v>138.47339799020742</v>
       </c>
     </row>
     <row r="1106" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1106">
-        <v>1384.9533522990146</v>
+        <v>138.49533522990146</v>
       </c>
     </row>
     <row r="1107" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1107">
-        <v>1385.1677199775781</v>
+        <v>138.51677199775781</v>
       </c>
     </row>
     <row r="1108" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1108">
-        <v>1385.3765878473462</v>
+        <v>138.53765878473462</v>
       </c>
     </row>
     <row r="1109" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1109">
-        <v>1385.5794608178976</v>
+        <v>138.55794608178977</v>
       </c>
     </row>
     <row r="1110" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1110">
-        <v>1385.7758437988136</v>
+        <v>138.57758437988136</v>
       </c>
     </row>
     <row r="1111" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1111">
-        <v>1385.965241699673</v>
+        <v>138.5965241699673</v>
       </c>
     </row>
     <row r="1112" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1112">
-        <v>1386.147159430056</v>
+        <v>138.61471594300559</v>
       </c>
     </row>
     <row r="1113" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1113">
-        <v>1386.3211018995432</v>
+        <v>138.63211018995432</v>
       </c>
     </row>
     <row r="1114" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1114">
-        <v>1386.4865740177133</v>
+        <v>138.64865740177135</v>
       </c>
     </row>
     <row r="1115" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1115">
-        <v>1386.6430806941482</v>
+        <v>138.66430806941483</v>
       </c>
     </row>
     <row r="1116" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1116">
-        <v>1386.7901268384264</v>
+        <v>138.67901268384264</v>
       </c>
     </row>
     <row r="1117" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1117">
-        <v>1386.9272173601285</v>
+        <v>138.69272173601286</v>
       </c>
     </row>
     <row r="1118" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1118">
-        <v>1387.0538571688346</v>
+        <v>138.70538571688346</v>
       </c>
     </row>
     <row r="1119" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1119">
-        <v>1387.1695511741236</v>
+        <v>138.71695511741237</v>
       </c>
     </row>
     <row r="1120" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1120">
-        <v>1387.2738042855767</v>
+        <v>138.72738042855767</v>
       </c>
     </row>
     <row r="1121" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1121">
-        <v>1387.3661214127733</v>
+        <v>138.73661214127733</v>
       </c>
     </row>
     <row r="1122" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1122">
-        <v>1387.4460074652941</v>
+        <v>138.74460074652941</v>
       </c>
     </row>
     <row r="1123" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1123">
-        <v>1387.5129673527185</v>
+        <v>138.75129673527186</v>
       </c>
     </row>
     <row r="1124" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1124">
-        <v>1387.5665059846267</v>
+        <v>138.75665059846267</v>
       </c>
     </row>
     <row r="1125" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1125">
-        <v>1387.6061282705984</v>
+        <v>138.76061282705984</v>
       </c>
     </row>
     <row r="1126" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1126">
-        <v>1387.6313391202134</v>
+        <v>138.76313391202135</v>
       </c>
     </row>
     <row r="1127" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1127">
-        <v>1387.6416434430521</v>
+        <v>138.76416434430521</v>
       </c>
     </row>
     <row r="1128" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1128">
-        <v>1387.6392027019488</v>
+        <v>138.76392027019489</v>
       </c>
     </row>
     <row r="1129" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1129">
-        <v>1387.6288823143229</v>
+        <v>138.7628882314323</v>
       </c>
     </row>
     <row r="1130" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1130">
-        <v>1387.6109299349068</v>
+        <v>138.76109299349068</v>
       </c>
     </row>
     <row r="1131" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1131">
-        <v>1387.5854786430384</v>
+        <v>138.75854786430384</v>
       </c>
     </row>
     <row r="1132" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1132">
-        <v>1387.5526615180524</v>
+        <v>138.75526615180524</v>
       </c>
     </row>
     <row r="1133" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1133">
-        <v>1387.5126116392867</v>
+        <v>138.75126116392866</v>
       </c>
     </row>
     <row r="1134" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1134">
-        <v>1387.4654620860767</v>
+        <v>138.74654620860767</v>
       </c>
     </row>
     <row r="1135" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1135">
-        <v>1387.4113459377611</v>
+        <v>138.74113459377611</v>
       </c>
     </row>
     <row r="1136" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1136">
-        <v>1387.3503962736736</v>
+        <v>138.73503962736737</v>
       </c>
     </row>
     <row r="1137" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1137">
-        <v>1387.2827461731526</v>
+        <v>138.72827461731526</v>
       </c>
     </row>
     <row r="1138" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1138">
-        <v>1387.2085287155351</v>
+        <v>138.72085287155352</v>
       </c>
     </row>
     <row r="1139" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1139">
-        <v>1387.1278769801563</v>
+        <v>138.71278769801563</v>
       </c>
     </row>
     <row r="1140" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1140">
-        <v>1387.0409240463537</v>
+        <v>138.70409240463536</v>
       </c>
     </row>
     <row r="1141" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1141">
-        <v>1380.1066631672441</v>
+        <v>138.01066631672441</v>
       </c>
     </row>
     <row r="1142" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1142">
-        <v>1380.0079961634444</v>
+        <v>138.00079961634444</v>
       </c>
     </row>
     <row r="1143" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1143">
-        <v>1379.9034563107343</v>
+        <v>137.99034563107344</v>
       </c>
     </row>
     <row r="1144" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1144">
-        <v>1379.7931760320344</v>
+        <v>137.97931760320344</v>
       </c>
     </row>
     <row r="1145" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1145">
-        <v>1379.6772877502658</v>
+        <v>137.96772877502659</v>
       </c>
     </row>
     <row r="1146" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1146">
-        <v>1379.5559238883502</v>
+        <v>137.95559238883502</v>
       </c>
     </row>
     <row r="1147" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1147">
-        <v>1379.4292168692068</v>
+        <v>137.94292168692067</v>
       </c>
     </row>
     <row r="1148" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1148">
-        <v>1379.2972991157569</v>
+        <v>137.92972991157569</v>
       </c>
     </row>
     <row r="1149" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1149">
-        <v>1379.1603030509218</v>
+        <v>137.91603030509219</v>
       </c>
     </row>
     <row r="1150" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1150">
-        <v>1379.0183610976223</v>
+        <v>137.90183610976223</v>
       </c>
     </row>
     <row r="1151" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1151">
-        <v>1378.8716056787794</v>
+        <v>137.88716056787794</v>
       </c>
     </row>
     <row r="1152" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1152">
-        <v>1378.7201692173139</v>
+        <v>137.87201692173139</v>
       </c>
     </row>
     <row r="1153" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1153">
-        <v>1378.564184136146</v>
+        <v>137.85641841361459</v>
       </c>
     </row>
     <row r="1154" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1154">
-        <v>1378.4037828581977</v>
+        <v>137.84037828581978</v>
       </c>
     </row>
     <row r="1155" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1155">
-        <v>1378.2390978063886</v>
+        <v>137.82390978063887</v>
       </c>
     </row>
     <row r="1156" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1156">
-        <v>1378.07026140364</v>
+        <v>137.807026140364</v>
       </c>
     </row>
     <row r="1157" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1157">
-        <v>1377.8974060728738</v>
+        <v>137.78974060728737</v>
       </c>
     </row>
     <row r="1158" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1158">
-        <v>1377.7206642370093</v>
+        <v>137.77206642370092</v>
       </c>
     </row>
     <row r="1159" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1159">
-        <v>1377.540168318968</v>
+        <v>137.75401683189679</v>
       </c>
     </row>
     <row r="1160" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1160">
-        <v>1377.356050741671</v>
+        <v>137.7356050741671</v>
       </c>
     </row>
     <row r="1161" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1161">
-        <v>1377.1684439280384</v>
+        <v>137.71684439280384</v>
       </c>
     </row>
     <row r="1162" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1162">
-        <v>1376.9774803009921</v>
+        <v>137.69774803009921</v>
       </c>
     </row>
     <row r="1163" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1163">
-        <v>1376.7832922834521</v>
+        <v>137.67832922834521</v>
       </c>
     </row>
     <row r="1164" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1164">
-        <v>1376.5860122983397</v>
+        <v>137.65860122983398</v>
       </c>
     </row>
     <row r="1165" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1165">
-        <v>1376.3857727685754</v>
+        <v>137.63857727685755</v>
       </c>
     </row>
     <row r="1166" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1166">
-        <v>1376.1827061170809</v>
+        <v>137.61827061170808</v>
       </c>
     </row>
     <row r="1167" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1167">
-        <v>1375.9769447667761</v>
+        <v>137.59769447667762</v>
       </c>
     </row>
     <row r="1168" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1168">
-        <v>1375.7686211405826</v>
+        <v>137.57686211405826</v>
       </c>
     </row>
     <row r="1169" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1169">
-        <v>1375.5578676614205</v>
+        <v>137.55578676614203</v>
       </c>
     </row>
     <row r="1170" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1170">
-        <v>1375.3448167522104</v>
+        <v>137.53448167522103</v>
       </c>
     </row>
     <row r="1171" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1171">
-        <v>1375.1296008358745</v>
+        <v>137.51296008358744</v>
       </c>
     </row>
     <row r="1172" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1172">
-        <v>1374.9123523353323</v>
+        <v>137.49123523353325</v>
       </c>
     </row>
     <row r="1173" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1173">
-        <v>1374.6932036735056</v>
+        <v>137.46932036735058</v>
       </c>
     </row>
     <row r="1174" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1174">
-        <v>1374.472287273315</v>
+        <v>137.44722872733149</v>
       </c>
     </row>
     <row r="1175" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1175">
-        <v>1374.2497355576807</v>
+        <v>137.42497355576808</v>
       </c>
     </row>
     <row r="1176" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1176">
-        <v>1374.0256809495249</v>
+        <v>137.4025680949525</v>
       </c>
     </row>
     <row r="1177" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1177">
-        <v>1373.8002558717678</v>
+        <v>137.38002558717679</v>
       </c>
     </row>
     <row r="1178" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1178">
-        <v>1373.5735927473295</v>
+        <v>137.35735927473294</v>
       </c>
     </row>
     <row r="1179" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1179">
-        <v>1373.3458239991319</v>
+        <v>137.33458239991319</v>
       </c>
     </row>
     <row r="1180" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1180">
-        <v>1373.1170820500952</v>
+        <v>137.31170820500952</v>
       </c>
     </row>
     <row r="1181" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1181">
-        <v>1372.8874993231407</v>
+        <v>137.28874993231406</v>
       </c>
     </row>
     <row r="1182" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1182">
-        <v>1372.6572082411883</v>
+        <v>137.26572082411883</v>
       </c>
     </row>
     <row r="1183" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1183">
-        <v>1372.42634122716</v>
+        <v>137.242634122716</v>
       </c>
     </row>
     <row r="1184" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1184">
-        <v>1372.195030703976</v>
+        <v>137.21950307039759</v>
       </c>
     </row>
     <row r="1185" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1185">
-        <v>1371.9634090945578</v>
+        <v>137.19634090945578</v>
       </c>
     </row>
     <row r="1186" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1186">
-        <v>1371.7316088218258</v>
+        <v>137.17316088218257</v>
       </c>
     </row>
     <row r="1187" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1187">
-        <v>1371.4997623087006</v>
+        <v>137.14997623087007</v>
       </c>
     </row>
     <row r="1188" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1188">
-        <v>1371.2680019781035</v>
+        <v>137.12680019781035</v>
       </c>
     </row>
     <row r="1189" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1189">
-        <v>1371.0364602529546</v>
+        <v>137.10364602529546</v>
       </c>
     </row>
     <row r="1190" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1190">
-        <v>1370.8049422954266</v>
+        <v>137.08049422954267</v>
       </c>
     </row>
     <row r="1191" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1191">
-        <v>1370.5669199524471</v>
+        <v>137.05669199524471</v>
       </c>
     </row>
     <row r="1192" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1192">
-        <v>1370.3199081322014</v>
+        <v>137.03199081322015</v>
       </c>
     </row>
     <row r="1193" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1193">
-        <v>1370.0640498873076</v>
+        <v>137.00640498873076</v>
       </c>
     </row>
     <row r="1194" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1194">
-        <v>1369.7994882703861</v>
+        <v>136.97994882703861</v>
       </c>
     </row>
     <row r="1195" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1195">
-        <v>1369.526366334054</v>
+        <v>136.9526366334054</v>
       </c>
     </row>
     <row r="1196" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1196">
-        <v>1369.2448271309322</v>
+        <v>136.92448271309323</v>
       </c>
     </row>
     <row r="1197" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1197">
-        <v>1368.9550137136389</v>
+        <v>136.89550137136388</v>
       </c>
     </row>
     <row r="1198" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1198">
-        <v>1368.6570691347929</v>
+        <v>136.8657069134793</v>
       </c>
     </row>
     <row r="1199" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1199">
-        <v>1368.3511364470128</v>
+        <v>136.83511364470127</v>
       </c>
     </row>
     <row r="1200" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1200">
-        <v>1368.0373587029183</v>
+        <v>136.80373587029183</v>
       </c>
     </row>
     <row r="1201" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1201">
-        <v>1360.9751833709051</v>
+        <v>136.09751833709052</v>
       </c>
     </row>
     <row r="1202" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1202">
-        <v>1360.6477663171031</v>
+        <v>136.06477663171032</v>
       </c>
     </row>
     <row r="1203" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1203">
-        <v>1360.3129699135998</v>
+        <v>136.03129699135997</v>
       </c>
     </row>
     <row r="1204" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1204">
-        <v>1359.9709365079887</v>
+        <v>135.99709365079886</v>
       </c>
     </row>
     <row r="1205" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1205">
-        <v>1359.6218084478637</v>
+        <v>135.96218084478636</v>
       </c>
     </row>
     <row r="1206" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1206">
-        <v>1359.2657280808189</v>
+        <v>135.92657280808189</v>
       </c>
     </row>
     <row r="1207" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1207">
-        <v>1358.9028377544473</v>
+        <v>135.89028377544474</v>
       </c>
     </row>
     <row r="1208" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1208">
-        <v>1358.533279816344</v>
+        <v>135.85332798163441</v>
       </c>
     </row>
     <row r="1209" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1209">
-        <v>1358.1571966141014</v>
+        <v>135.81571966141013</v>
       </c>
     </row>
     <row r="1210" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1210">
-        <v>1357.7747304953141</v>
+        <v>135.77747304953141</v>
       </c>
     </row>
     <row r="1211" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1211">
-        <v>1357.3860238075758</v>
+        <v>135.73860238075758</v>
       </c>
     </row>
     <row r="1212" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1212">
-        <v>1356.9912188984808</v>
+        <v>135.69912188984807</v>
       </c>
     </row>
     <row r="1213" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1213">
-        <v>1356.5904581156215</v>
+        <v>135.65904581156215</v>
       </c>
     </row>
     <row r="1214" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1214">
-        <v>1356.1838838065933</v>
+        <v>135.61838838065933</v>
       </c>
     </row>
     <row r="1215" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1215">
-        <v>1355.7716383189884</v>
+        <v>135.57716383189884</v>
       </c>
     </row>
     <row r="1216" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1216">
-        <v>1355.3538640004022</v>
+        <v>135.53538640004021</v>
       </c>
     </row>
     <row r="1217" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1217">
-        <v>1354.9307031984276</v>
+        <v>135.49307031984276</v>
       </c>
     </row>
     <row r="1218" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1218">
-        <v>1354.5022982606586</v>
+        <v>135.45022982606585</v>
       </c>
     </row>
     <row r="1219" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1219">
-        <v>1354.0687915346894</v>
+        <v>135.40687915346894</v>
       </c>
     </row>
     <row r="1220" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1220">
-        <v>1353.6303253681128</v>
+        <v>135.36303253681129</v>
       </c>
     </row>
     <row r="1221" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1221">
-        <v>1353.1870421085227</v>
+        <v>135.31870421085227</v>
       </c>
     </row>
     <row r="1222" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1222">
-        <v>1352.7390841035144</v>
+        <v>135.27390841035145</v>
       </c>
     </row>
     <row r="1223" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1223">
-        <v>1352.2865937006804</v>
+        <v>135.22865937006804</v>
       </c>
     </row>
     <row r="1224" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1224">
-        <v>1351.8297132476146</v>
+        <v>135.18297132476147</v>
       </c>
     </row>
     <row r="1225" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1225">
-        <v>1351.3685850919117</v>
+        <v>135.13685850919117</v>
       </c>
     </row>
     <row r="1226" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1226">
-        <v>1350.9033515811648</v>
+        <v>135.09033515811649</v>
       </c>
     </row>
     <row r="1227" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1227">
-        <v>1350.4341550629667</v>
+        <v>135.04341550629667</v>
       </c>
     </row>
     <row r="1228" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1228">
-        <v>1349.9611378849136</v>
+        <v>134.99611378849136</v>
       </c>
     </row>
     <row r="1229" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1229">
-        <v>1349.484442394597</v>
+        <v>134.94844423945969</v>
       </c>
     </row>
     <row r="1230" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1230">
-        <v>1349.0042109396113</v>
+        <v>134.90042109396114</v>
       </c>
     </row>
     <row r="1231" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1231">
-        <v>1348.5205858675511</v>
+        <v>134.85205858675511</v>
       </c>
     </row>
     <row r="1232" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1232">
-        <v>1348.0337095260102</v>
+        <v>134.80337095260103</v>
       </c>
     </row>
     <row r="1233" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1233">
-        <v>1347.5437242625819</v>
+        <v>134.75437242625819</v>
       </c>
     </row>
     <row r="1234" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1234">
-        <v>1347.0507724248594</v>
+        <v>134.70507724248594</v>
       </c>
     </row>
     <row r="1235" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1235">
-        <v>1346.5549963604376</v>
+        <v>134.65549963604377</v>
       </c>
     </row>
     <row r="1236" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1236">
-        <v>1346.0565384169099</v>
+        <v>134.60565384169098</v>
       </c>
     </row>
     <row r="1237" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1237">
-        <v>1345.5555409418703</v>
+        <v>134.55555409418702</v>
       </c>
     </row>
     <row r="1238" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1238">
-        <v>1345.0521462829115</v>
+        <v>134.50521462829116</v>
       </c>
     </row>
     <row r="1239" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1239">
-        <v>1344.5464967876285</v>
+        <v>134.45464967876285</v>
       </c>
     </row>
     <row r="1240" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1240">
-        <v>1344.0387348036156</v>
+        <v>134.40387348036157</v>
       </c>
     </row>
     <row r="1241" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1241">
-        <v>1343.5290026784653</v>
+        <v>134.35290026784654</v>
       </c>
     </row>
     <row r="1242" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1242">
-        <v>1343.0174427597719</v>
+        <v>134.3017442759772</v>
       </c>
     </row>
     <row r="1243" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1243">
-        <v>1342.5041973951295</v>
+        <v>134.25041973951295</v>
       </c>
     </row>
     <row r="1244" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1244">
-        <v>1341.989408932131</v>
+        <v>134.19894089321309</v>
       </c>
     </row>
     <row r="1245" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1245">
-        <v>1341.4732197183716</v>
+        <v>134.14732197183716</v>
       </c>
     </row>
     <row r="1246" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1246">
-        <v>1340.9557721014439</v>
+        <v>134.0955772101444</v>
       </c>
     </row>
     <row r="1247" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1247">
-        <v>1340.4372084289423</v>
+        <v>134.04372084289423</v>
       </c>
     </row>
     <row r="1248" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1248">
-        <v>1339.9176710484594</v>
+        <v>133.99176710484593</v>
       </c>
     </row>
     <row r="1249" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1249">
-        <v>1339.3973023075914</v>
+        <v>133.93973023075915</v>
       </c>
     </row>
     <row r="1250" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1250">
-        <v>1338.8762445539303</v>
+        <v>133.88762445539302</v>
       </c>
     </row>
     <row r="1251" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1251">
-        <v>1338.3546401350704</v>
+        <v>133.83546401350705</v>
       </c>
     </row>
     <row r="1252" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1252">
-        <v>1337.8326313986049</v>
+        <v>133.78326313986048</v>
       </c>
     </row>
     <row r="1253" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1253">
-        <v>1337.3071493029843</v>
+        <v>133.73071493029843</v>
       </c>
     </row>
     <row r="1254" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1254">
-        <v>1336.7690148778968</v>
+        <v>133.67690148778968</v>
       </c>
     </row>
     <row r="1255" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1255">
-        <v>1336.218011959206</v>
+        <v>133.6218011959206</v>
       </c>
     </row>
     <row r="1256" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1256">
-        <v>1335.6545430794461</v>
+        <v>133.56545430794461</v>
       </c>
     </row>
     <row r="1257" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1257">
-        <v>1335.0790107711509</v>
+        <v>133.50790107711509</v>
       </c>
     </row>
     <row r="1258" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1258">
-        <v>1334.4918175668558</v>
+        <v>133.44918175668559</v>
       </c>
     </row>
     <row r="1259" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1259">
-        <v>1333.8933659990946</v>
+        <v>133.38933659990946</v>
       </c>
     </row>
     <row r="1260" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1260">
-        <v>1333.2840586004017</v>
+        <v>133.32840586004016</v>
       </c>
     </row>
     <row r="1261" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1261">
-        <v>1325.8501878654197</v>
+        <v>132.58501878654198</v>
       </c>
     </row>
     <row r="1262" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1262">
-        <v>1325.2235967218057</v>
+        <v>132.52235967218058</v>
       </c>
     </row>
     <row r="1263" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1263">
-        <v>1324.5874066777101</v>
+        <v>132.458740667771</v>
       </c>
     </row>
     <row r="1264" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1264">
-        <v>1323.9420182074577</v>
+        <v>132.39420182074576</v>
       </c>
     </row>
     <row r="1265" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1265">
-        <v>1323.2878317853751</v>
+        <v>132.32878317853752</v>
       </c>
     </row>
     <row r="1266" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1266">
-        <v>1322.6252478857884</v>
+        <v>132.26252478857884</v>
       </c>
     </row>
     <row r="1267" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1267">
-        <v>1321.9546669830229</v>
+        <v>132.19546669830228</v>
       </c>
     </row>
     <row r="1268" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1268">
-        <v>1321.2764895514044</v>
+        <v>132.12764895514044</v>
       </c>
     </row>
     <row r="1269" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1269">
-        <v>1320.5911160652588</v>
+        <v>132.05911160652587</v>
       </c>
     </row>
     <row r="1270" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1270">
-        <v>1319.8989469989122</v>
+        <v>131.98989469989121</v>
       </c>
     </row>
     <row r="1271" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1271">
-        <v>1319.2003828266886</v>
+        <v>131.92003828266886</v>
       </c>
     </row>
     <row r="1272" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1272">
-        <v>1318.4958240229175</v>
+        <v>131.84958240229176</v>
       </c>
     </row>
     <row r="1273" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1273">
-        <v>1317.7856710619212</v>
+        <v>131.77856710619213</v>
       </c>
     </row>
     <row r="1274" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1274">
-        <v>1317.0703244180279</v>
+        <v>131.7070324418028</v>
       </c>
     </row>
     <row r="1275" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1275">
-        <v>1316.3501845655628</v>
+        <v>131.63501845655628</v>
       </c>
     </row>
     <row r="1276" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1276">
-        <v>1315.6256519788512</v>
+        <v>131.56256519788514</v>
       </c>
     </row>
     <row r="1277" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1277">
-        <v>1314.8971271322184</v>
+        <v>131.48971271322185</v>
       </c>
     </row>
     <row r="1278" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1278">
-        <v>1314.1650104999921</v>
+        <v>131.41650104999923</v>
       </c>
     </row>
     <row r="1279" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1279">
-        <v>1313.4297025564961</v>
+        <v>131.34297025564962</v>
       </c>
     </row>
     <row r="1280" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1280">
-        <v>1312.6916037760577</v>
+        <v>131.26916037760577</v>
       </c>
     </row>
     <row r="1281" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1281">
-        <v>1311.9511146330019</v>
+        <v>131.19511146330018</v>
       </c>
     </row>
     <row r="1282" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1282">
-        <v>1311.2086356016553</v>
+        <v>131.12086356016553</v>
       </c>
     </row>
     <row r="1283" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1283">
-        <v>1310.4645671563435</v>
+        <v>131.04645671563435</v>
       </c>
     </row>
     <row r="1284" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1284">
-        <v>1309.7193097713912</v>
+        <v>130.97193097713912</v>
       </c>
     </row>
     <row r="1285" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1285">
-        <v>1308.9732639211254</v>
+        <v>130.89732639211255</v>
       </c>
     </row>
     <row r="1286" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1286">
-        <v>1308.2268300798719</v>
+        <v>130.82268300798719</v>
       </c>
     </row>
     <row r="1287" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1287">
-        <v>1307.4804087219563</v>
+        <v>130.74804087219565</v>
       </c>
     </row>
     <row r="1288" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1288">
-        <v>1306.7344003217042</v>
+        <v>130.67344003217042</v>
       </c>
     </row>
     <row r="1289" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1289">
-        <v>1305.9892053534413</v>
+        <v>130.59892053534412</v>
       </c>
     </row>
     <row r="1290" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1290">
-        <v>1305.2452242914944</v>
+        <v>130.52452242914944</v>
       </c>
     </row>
     <row r="1291" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1291">
-        <v>1304.5028576101879</v>
+        <v>130.45028576101879</v>
       </c>
     </row>
     <row r="1292" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1292">
-        <v>1303.7625057838488</v>
+        <v>130.37625057838488</v>
       </c>
     </row>
     <row r="1293" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1293">
-        <v>1303.0245692868029</v>
+        <v>130.3024569286803</v>
       </c>
     </row>
     <row r="1294" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1294">
-        <v>1302.2894485933759</v>
+        <v>130.22894485933759</v>
       </c>
     </row>
     <row r="1295" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1295">
-        <v>1301.5575441778924</v>
+        <v>130.15575441778924</v>
       </c>
     </row>
     <row r="1296" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1296">
-        <v>1300.8292565146805</v>
+        <v>130.08292565146806</v>
       </c>
     </row>
     <row r="1297" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1297">
-        <v>1300.104986078064</v>
+        <v>130.0104986078064</v>
       </c>
     </row>
     <row r="1298" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1298">
-        <v>1299.3851333423695</v>
+        <v>129.93851333423694</v>
       </c>
     </row>
     <row r="1299" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1299">
-        <v>1298.6700987819227</v>
+        <v>129.86700987819228</v>
       </c>
     </row>
     <row r="1300" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1300">
-        <v>1297.9602828710504</v>
+        <v>129.79602828710503</v>
       </c>
     </row>
     <row r="1301" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1301">
-        <v>1297.2560860840763</v>
+        <v>129.72560860840764</v>
       </c>
     </row>
     <row r="1302" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1302">
-        <v>1296.5579088953286</v>
+        <v>129.65579088953285</v>
       </c>
     </row>
     <row r="1303" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1303">
-        <v>1295.8661517791315</v>
+        <v>129.58661517791316</v>
       </c>
     </row>
     <row r="1304" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1304">
-        <v>1295.1812152098114</v>
+        <v>129.51812152098114</v>
       </c>
     </row>
     <row r="1305" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1305">
-        <v>1294.5034996616948</v>
+        <v>129.45034996616948</v>
       </c>
     </row>
     <row r="1306" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1306">
-        <v>1293.8334056091053</v>
+        <v>129.38334056091054</v>
       </c>
     </row>
     <row r="1307" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1307">
-        <v>1293.1713335263717</v>
+        <v>129.31713335263717</v>
       </c>
     </row>
     <row r="1308" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1308">
-        <v>1292.5176838878174</v>
+        <v>129.25176838878173</v>
       </c>
     </row>
     <row r="1309" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1309">
-        <v>1291.8728571677702</v>
+        <v>129.18728571677701</v>
       </c>
     </row>
     <row r="1310" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1310">
-        <v>1291.2372538405541</v>
+        <v>129.1237253840554</v>
       </c>
     </row>
     <row r="1311" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1311">
-        <v>1290.6112743804965</v>
+        <v>129.06112743804965</v>
       </c>
     </row>
     <row r="1312" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1312">
-        <v>1289.9953192619218</v>
+        <v>128.99953192619219</v>
       </c>
     </row>
     <row r="1313" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1313">
-        <v>1289.3897889591572</v>
+        <v>128.93897889591571</v>
       </c>
     </row>
     <row r="1314" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1314">
-        <v>1288.795083946527</v>
+        <v>128.8795083946527</v>
       </c>
     </row>
     <row r="1315" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1315">
-        <v>1288.2115336514814</v>
+        <v>128.82115336514815</v>
       </c>
     </row>
     <row r="1316" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1316">
-        <v>1287.6343212950783</v>
+        <v>128.76343212950783</v>
       </c>
     </row>
     <row r="1317" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1317">
-        <v>1287.0603040445453</v>
+        <v>128.70603040445454</v>
       </c>
     </row>
     <row r="1318" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1318">
-        <v>1286.4894410942575</v>
+        <v>128.64894410942574</v>
       </c>
     </row>
     <row r="1319" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1319">
-        <v>1285.9216916385899</v>
+        <v>128.59216916385898</v>
       </c>
     </row>
     <row r="1320" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1320">
-        <v>1285.3570148719164</v>
+        <v>128.53570148719163</v>
       </c>
     </row>
     <row r="1321" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1321">
-        <v>1288.3370744977797</v>
+        <v>128.83370744977796</v>
       </c>
     </row>
     <row r="1322" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1322">
-        <v>1287.7768806907943</v>
+        <v>128.77768806907943</v>
       </c>
     </row>
     <row r="1323" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1323">
-        <v>1287.2196452887349</v>
+        <v>128.72196452887349</v>
       </c>
     </row>
     <row r="1324" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1324">
-        <v>1286.6653273734905</v>
+        <v>128.66653273734906</v>
       </c>
     </row>
     <row r="1325" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1325">
-        <v>1286.1138860269493</v>
+        <v>128.61138860269494</v>
       </c>
     </row>
     <row r="1326" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1326">
-        <v>1285.5652803310013</v>
+        <v>128.55652803310014</v>
       </c>
     </row>
     <row r="1327" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1327">
-        <v>1285.0194693675344</v>
+        <v>128.50194693675343</v>
       </c>
     </row>
     <row r="1328" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1328">
-        <v>1284.4764122184379</v>
+        <v>128.44764122184378</v>
       </c>
     </row>
     <row r="1329" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1329">
-        <v>1283.9360679656011</v>
+        <v>128.39360679656011</v>
       </c>
     </row>
     <row r="1330" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1330">
-        <v>1283.3983956909115</v>
+        <v>128.33983956909114</v>
       </c>
     </row>
     <row r="1331" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1331">
-        <v>1282.8633544762597</v>
+        <v>128.28633544762596</v>
       </c>
     </row>
     <row r="1332" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1332">
-        <v>1282.3309034035331</v>
+        <v>128.2330903403533</v>
       </c>
     </row>
     <row r="1333" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1333">
-        <v>1281.8010015546222</v>
+        <v>128.18010015546221</v>
       </c>
     </row>
     <row r="1334" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1334">
-        <v>1281.2736080114144</v>
+        <v>128.12736080114144</v>
       </c>
     </row>
     <row r="1335" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1335">
-        <v>1280.7486818558</v>
+        <v>128.07486818557999</v>
       </c>
     </row>
     <row r="1336" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1336">
-        <v>1280.2261821696666</v>
+        <v>128.02261821696666</v>
       </c>
     </row>
     <row r="1337" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1337">
-        <v>1279.7060680349036</v>
+        <v>127.97060680349036</v>
       </c>
     </row>
     <row r="1338" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1338">
-        <v>1279.1882985333996</v>
+        <v>127.91882985333996</v>
       </c>
     </row>
     <row r="1339" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1339">
-        <v>1278.6728327470448</v>
+        <v>127.86728327470448</v>
       </c>
     </row>
     <row r="1340" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1340">
-        <v>1278.1596297577264</v>
+        <v>127.81596297577265</v>
       </c>
     </row>
     <row r="1341" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1341">
-        <v>1277.6486486473336</v>
+        <v>127.76486486473337</v>
       </c>
     </row>
     <row r="1342" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1342">
-        <v>1277.1398484977569</v>
+        <v>127.71398484977568</v>
       </c>
     </row>
     <row r="1343" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1343">
-        <v>1276.6331883908838</v>
+        <v>127.66331883908839</v>
       </c>
     </row>
     <row r="1344" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1344">
-        <v>1276.1286274086024</v>
+        <v>127.61286274086024</v>
       </c>
     </row>
     <row r="1345" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1345">
-        <v>1275.6261246328038</v>
+        <v>127.56261246328039</v>
       </c>
     </row>
     <row r="1346" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1346">
-        <v>1275.1256391453749</v>
+        <v>127.51256391453749</v>
       </c>
     </row>
     <row r="1347" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1347">
-        <v>1274.627130028206</v>
+        <v>127.46271300282059</v>
       </c>
     </row>
     <row r="1348" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1348">
-        <v>1274.130556363185</v>
+        <v>127.4130556363185</v>
       </c>
     </row>
     <row r="1349" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1349">
-        <v>1273.6358772322014</v>
+        <v>127.36358772322015</v>
       </c>
     </row>
     <row r="1350" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1350">
-        <v>1273.1430517171441</v>
+        <v>127.31430517171441</v>
       </c>
     </row>
     <row r="1351" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1351">
-        <v>1272.6520388999015</v>
+        <v>127.26520388999015</v>
       </c>
     </row>
     <row r="1352" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1352">
-        <v>1272.1627978623624</v>
+        <v>127.21627978623624</v>
       </c>
     </row>
     <row r="1353" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1353">
-        <v>1271.6752876864171</v>
+        <v>127.1675287686417</v>
       </c>
     </row>
     <row r="1354" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1354">
-        <v>1271.1894674539524</v>
+        <v>127.11894674539523</v>
       </c>
     </row>
     <row r="1355" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1355">
-        <v>1270.7052962468592</v>
+        <v>127.07052962468593</v>
       </c>
     </row>
     <row r="1356" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1356">
-        <v>1270.2227331470251</v>
+        <v>127.02227331470252</v>
       </c>
     </row>
     <row r="1357" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1357">
-        <v>1269.7417372363393</v>
+        <v>126.97417372363392</v>
       </c>
     </row>
     <row r="1358" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1358">
-        <v>1269.2622675966907</v>
+        <v>126.92622675966906</v>
       </c>
     </row>
     <row r="1359" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1359">
-        <v>1268.7842833099685</v>
+        <v>126.87842833099685</v>
       </c>
     </row>
     <row r="1360" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1360">
-        <v>1268.3077434580614</v>
+        <v>126.83077434580615</v>
       </c>
     </row>
     <row r="1361" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1361">
-        <v>1267.8326071228578</v>
+        <v>126.78326071228578</v>
       </c>
     </row>
     <row r="1362" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1362">
-        <v>1267.3588333862476</v>
+        <v>126.73588333862477</v>
       </c>
     </row>
     <row r="1363" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1363">
-        <v>1266.8863813301191</v>
+        <v>126.68863813301191</v>
       </c>
     </row>
     <row r="1364" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1364">
-        <v>1266.4152100363615</v>
+        <v>126.64152100363614</v>
       </c>
     </row>
     <row r="1365" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1365">
-        <v>1265.9452785868625</v>
+        <v>126.59452785868626</v>
       </c>
     </row>
     <row r="1366" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1366">
-        <v>1265.4765460635124</v>
+        <v>126.54765460635124</v>
       </c>
     </row>
     <row r="1367" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1367">
-        <v>1265.0089715482002</v>
+        <v>126.50089715482001</v>
       </c>
     </row>
     <row r="1368" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1368">
-        <v>1264.5425141228143</v>
+        <v>126.45425141228142</v>
       </c>
     </row>
     <row r="1369" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1369">
-        <v>1264.0771328692429</v>
+        <v>126.40771328692428</v>
       </c>
     </row>
     <row r="1370" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1370">
-        <v>1263.6127868693761</v>
+        <v>126.36127868693761</v>
       </c>
     </row>
     <row r="1371" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1371">
-        <v>1263.1494352051022</v>
+        <v>126.31494352051021</v>
       </c>
     </row>
     <row r="1372" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1372">
-        <v>1262.6870369583096</v>
+        <v>126.26870369583096</v>
       </c>
     </row>
     <row r="1373" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1373">
-        <v>1262.2255512108882</v>
+        <v>126.22255512108882</v>
       </c>
     </row>
     <row r="1374" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1374">
-        <v>1261.7649370447259</v>
+        <v>126.17649370447259</v>
       </c>
     </row>
     <row r="1375" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1375">
-        <v>1261.305153541713</v>
+        <v>126.13051535417129</v>
       </c>
     </row>
     <row r="1376" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1376">
-        <v>1260.846159783737</v>
+        <v>126.08461597837369</v>
       </c>
     </row>
     <row r="1377" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1377">
-        <v>1260.3879148526876</v>
+        <v>126.03879148526875</v>
       </c>
     </row>
     <row r="1378" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1378">
-        <v>1259.9304511202461</v>
+        <v>125.9930451120246</v>
       </c>
     </row>
     <row r="1379" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1379">
-        <v>1259.474089172526</v>
+        <v>125.9474089172526</v>
       </c>
     </row>
     <row r="1380" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1380">
-        <v>1259.0188773324755</v>
+        <v>125.90188773324755</v>
       </c>
     </row>
     <row r="1381" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1381">
-        <v>1259.4122885846386</v>
+        <v>125.94122885846387</v>
       </c>
     </row>
     <row r="1382" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1382">
-        <v>1258.9590913462368</v>
+        <v>125.89590913462368</v>
       </c>
     </row>
     <row r="1383" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1383">
-        <v>1258.507064348581</v>
+        <v>125.85070643485811</v>
       </c>
     </row>
     <row r="1384" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1384">
-        <v>1258.056214044552</v>
+        <v>125.80562140445521</v>
       </c>
     </row>
     <row r="1385" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1385">
-        <v>1257.6065468870293</v>
+        <v>125.76065468870291</v>
       </c>
     </row>
     <row r="1386" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1386">
-        <v>1257.1580693288947</v>
+        <v>125.71580693288948</v>
       </c>
     </row>
     <row r="1387" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1387">
-        <v>1256.7107878230267</v>
+        <v>125.67107878230269</v>
       </c>
     </row>
     <row r="1388" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1388">
-        <v>1256.2647088223082</v>
+        <v>125.62647088223082</v>
       </c>
     </row>
     <row r="1389" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1389">
-        <v>1255.8198387796183</v>
+        <v>125.58198387796183</v>
       </c>
     </row>
     <row r="1390" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1390">
-        <v>1255.3761841478376</v>
+        <v>125.53761841478376</v>
       </c>
     </row>
     <row r="1391" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1391">
-        <v>1254.9337513798464</v>
+        <v>125.49337513798464</v>
       </c>
     </row>
     <row r="1392" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1392">
-        <v>1254.4925469285251</v>
+        <v>125.44925469285251</v>
       </c>
     </row>
     <row r="1393" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1393">
-        <v>1254.0525772467552</v>
+        <v>125.40525772467552</v>
       </c>
     </row>
     <row r="1394" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1394">
-        <v>1253.6138487874157</v>
+        <v>125.36138487874157</v>
       </c>
     </row>
     <row r="1395" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1395">
-        <v>1253.1763680033887</v>
+        <v>125.31763680033887</v>
       </c>
     </row>
     <row r="1396" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1396">
-        <v>1252.7401413475536</v>
+        <v>125.27401413475536</v>
       </c>
     </row>
     <row r="1397" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1397">
-        <v>1252.3051752727908</v>
+        <v>125.23051752727908</v>
       </c>
     </row>
     <row r="1398" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1398">
-        <v>1251.871476231981</v>
+        <v>125.1871476231981</v>
       </c>
     </row>
     <row r="1399" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1399">
-        <v>1251.4390506780048</v>
+        <v>125.14390506780047</v>
       </c>
     </row>
     <row r="1400" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1400">
-        <v>1251.0079050637428</v>
+        <v>125.10079050637428</v>
       </c>
     </row>
     <row r="1401" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1401">
-        <v>1250.578045842075</v>
+        <v>125.0578045842075</v>
       </c>
     </row>
     <row r="1402" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1402">
-        <v>1250.149479465882</v>
+        <v>125.01494794658821</v>
       </c>
     </row>
     <row r="1403" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1403">
-        <v>1249.7222123880449</v>
+        <v>124.97222123880449</v>
       </c>
     </row>
     <row r="1404" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1404">
-        <v>1249.2962510614434</v>
+        <v>124.92962510614434</v>
       </c>
     </row>
     <row r="1405" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1405">
-        <v>1248.8716019389583</v>
+        <v>124.88716019389584</v>
       </c>
     </row>
     <row r="1406" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1406">
-        <v>1248.44827147347</v>
+        <v>124.84482714734699</v>
       </c>
     </row>
     <row r="1407" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1407">
-        <v>1248.0262661178588</v>
+        <v>124.80262661178588</v>
       </c>
     </row>
     <row r="1408" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1408">
-        <v>1247.605592325006</v>
+        <v>124.76055923250061</v>
       </c>
     </row>
     <row r="1409" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1409">
-        <v>1247.1862565477911</v>
+        <v>124.7186256547791</v>
       </c>
     </row>
     <row r="1410" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1410">
-        <v>1246.7682652390945</v>
+        <v>124.67682652390944</v>
       </c>
     </row>
     <row r="1411" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1411">
-        <v>1246.3516248517981</v>
+        <v>124.63516248517981</v>
       </c>
     </row>
     <row r="1412" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1412">
-        <v>1245.9363418387807</v>
+        <v>124.59363418387807</v>
       </c>
     </row>
     <row r="1413" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1413">
-        <v>1245.5224226529233</v>
+        <v>124.55224226529234</v>
       </c>
     </row>
     <row r="1414" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1414">
-        <v>1245.1098737471061</v>
+        <v>124.51098737471062</v>
       </c>
     </row>
     <row r="1415" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1415">
-        <v>1244.6987015742116</v>
+        <v>124.46987015742116</v>
       </c>
     </row>
     <row r="1416" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1416">
-        <v>1244.2889125871172</v>
+        <v>124.42889125871173</v>
       </c>
     </row>
     <row r="1417" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1417">
-        <v>1243.8805132387056</v>
+        <v>124.38805132387057</v>
       </c>
     </row>
     <row r="1418" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1418">
-        <v>1243.4735099818565</v>
+        <v>124.34735099818566</v>
       </c>
     </row>
     <row r="1419" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1419">
-        <v>1243.0679092694497</v>
+        <v>124.30679092694497</v>
       </c>
     </row>
     <row r="1420" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1420">
-        <v>1242.6637175543669</v>
+        <v>124.26637175543669</v>
       </c>
     </row>
     <row r="1421" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1421">
-        <v>1242.2609412894883</v>
+        <v>124.22609412894883</v>
       </c>
     </row>
     <row r="1422" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1422">
-        <v>1241.8595869276933</v>
+        <v>124.18595869276933</v>
       </c>
     </row>
     <row r="1423" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1423">
-        <v>1241.4596609218638</v>
+        <v>124.14596609218638</v>
       </c>
     </row>
     <row r="1424" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1424">
-        <v>1241.0611697248796</v>
+        <v>124.10611697248795</v>
       </c>
     </row>
     <row r="1425" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1425">
-        <v>1240.6641197896206</v>
+        <v>124.06641197896205</v>
       </c>
     </row>
     <row r="1426" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1426">
-        <v>1240.2685175689685</v>
+        <v>124.02685175689685</v>
       </c>
     </row>
     <row r="1427" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1427">
-        <v>1239.874369515803</v>
+        <v>123.98743695158029</v>
       </c>
     </row>
     <row r="1428" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1428">
-        <v>1239.4816820830051</v>
+        <v>123.9481682083005</v>
       </c>
     </row>
     <row r="1429" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1429">
-        <v>1239.0904617234546</v>
+        <v>123.90904617234547</v>
       </c>
     </row>
     <row r="1430" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1430">
-        <v>1238.700714890032</v>
+        <v>123.87007148900321</v>
       </c>
     </row>
     <row r="1431" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1431">
-        <v>1238.3124480356184</v>
+        <v>123.83124480356184</v>
       </c>
     </row>
     <row r="1432" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1432">
-        <v>1237.925667613094</v>
+        <v>123.79256676130939</v>
       </c>
     </row>
     <row r="1433" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1433">
-        <v>1237.5403800753388</v>
+        <v>123.75403800753389</v>
       </c>
     </row>
     <row r="1434" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1434">
-        <v>1237.156591875234</v>
+        <v>123.7156591875234</v>
       </c>
     </row>
     <row r="1435" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1435">
-        <v>1236.7743094656601</v>
+        <v>123.67743094656601</v>
       </c>
     </row>
     <row r="1436" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1436">
-        <v>1236.3935392994963</v>
+        <v>123.63935392994964</v>
       </c>
     </row>
     <row r="1437" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1437">
-        <v>1236.0142878296251</v>
+        <v>123.6014287829625</v>
       </c>
     </row>
     <row r="1438" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1438">
-        <v>1235.6365615089253</v>
+        <v>123.56365615089253</v>
       </c>
     </row>
     <row r="1439" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1439">
-        <v>1235.2603667902777</v>
+        <v>123.52603667902775</v>
       </c>
     </row>
     <row r="1440" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1440">
-        <v>1234.8857101265635</v>
+        <v>123.48857101265635</v>
       </c>
     </row>
   </sheetData>
